--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestDB" sheetId="1" r:id="rId1"/>
+    <sheet name="Notification" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,13 +34,50 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttontext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용입니다
+내용이래요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,10 +114,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -90,6 +134,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -138,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -431,4 +478,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="18.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="TestDB" sheetId="1" r:id="rId1"/>
-    <sheet name="Notification" sheetId="3" r:id="rId2"/>
+    <sheet name="NoticePopup" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -485,7 +485,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F8" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -539,6 +539,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestDB" sheetId="1" r:id="rId1"/>
     <sheet name="NoticePopup" sheetId="3" r:id="rId2"/>
+    <sheet name="PeekabooCustomizing" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,13 +73,59 @@
   <si>
     <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOO 유령</t>
+  </si>
+  <si>
+    <t>GHOST_TYPE1</t>
+  </si>
+  <si>
+    <t>ㅁㅁㅁ 유령</t>
+  </si>
+  <si>
+    <t>GHOST_TYPE2</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ 유령</t>
+  </si>
+  <si>
+    <t>GHOST_TYPE3</t>
+  </si>
+  <si>
+    <t>ㅅㅅㅅ 유령</t>
+  </si>
+  <si>
+    <t>GHOST_TYPE4</t>
+  </si>
+  <si>
+    <t>ㄹㄹㄹ 유령</t>
+  </si>
+  <si>
+    <t>GHOST_TYPE5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +139,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,6 +176,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -484,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
@@ -558,4 +617,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>301</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>302</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>303</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>304</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>305</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -624,7 +624,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,7 +650,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>301</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>302</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>303</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5">
         <v>304</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>305</v>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -4,37 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="TestDB" sheetId="1" r:id="rId1"/>
-    <sheet name="NoticePopup" sheetId="3" r:id="rId2"/>
-    <sheet name="PeekabooCustomizing" sheetId="4" r:id="rId3"/>
+    <sheet name="NoticePopup" sheetId="3" r:id="rId1"/>
+    <sheet name="PeekabooCustomizing" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>one</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>two</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -167,11 +150,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,48 +468,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>101</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -541,89 +548,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F7:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="18.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -635,87 +562,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>301</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>302</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>301</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>303</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>302</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>304</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>303</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>305</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>304</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>305</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="3" r:id="rId1"/>
     <sheet name="PeekabooCustomizing" sheetId="4" r:id="rId2"/>
+    <sheet name="SpeechBubbleSheet" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +103,30 @@
   </si>
   <si>
     <t>GHOST_TYPE5</t>
+  </si>
+  <si>
+    <t>안녕하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기는 피포팜 대사가 들어갈 공간입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피포팜 대사는
+2줄도 가능하다고 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 여러가지 프로젝트에 사용될 예정이고
+여러 줄 가능하다고
+그렇다고
+합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeechText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -150,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,6 +188,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
@@ -649,4 +680,66 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="66.875" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="3" r:id="rId1"/>
-    <sheet name="PeekabooCustomizing" sheetId="4" r:id="rId2"/>
+    <sheet name="Item" sheetId="5" r:id="rId2"/>
+    <sheet name="PeekabooCustomizing" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +103,43 @@
   </si>
   <si>
     <t>GHOST_TYPE5</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트아이템1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트아이템2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 아이템은 테스트를 위해서 추가된 아이템 1번입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 아이템은 테스트를 위해서 추가된 아이템 2번입니다.
+2줄 사용이 가능한지 확인과 아이템 비교를 위해 추가되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -150,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,6 +201,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
@@ -547,6 +591,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="65.75" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>60001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>60002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="3" r:id="rId1"/>
     <sheet name="PeekabooCustomizing" sheetId="4" r:id="rId2"/>
     <sheet name="SpeechBubbleSheet" sheetId="5" r:id="rId3"/>
+    <sheet name="ItemSheet" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +127,43 @@
   </si>
   <si>
     <t>SpeechText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 아이템은 테스트를 위하여 추가된 아이템1입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 아이템은 테스트를 위하여 추가된 아이템2입니다.
+두 줄 테스트 및 아이템 비교를 위하여 추가되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -742,4 +780,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>60001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>60002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -787,7 +787,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,25 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
-    <sheet name="PeekabooCustomizing" sheetId="2" r:id="rId2"/>
-    <sheet name="SpeechBubbleSheet" sheetId="3" r:id="rId3"/>
-    <sheet name="ItemSheet" sheetId="4" r:id="rId4"/>
+    <sheet name="NPCDialogue" sheetId="5" r:id="rId2"/>
+    <sheet name="PeekabooCustomizing" sheetId="2" r:id="rId3"/>
+    <sheet name="SpeechBubbleSheet" sheetId="3" r:id="rId4"/>
+    <sheet name="ItemSheet" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjQUcz6pCfTZecUEvrnYi3uSko5bw=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -538,6 +534,848 @@
   </si>
   <si>
     <t>{0}'님의 음성을 차단하시겠습니까?</t>
+  </si>
+  <si>
+    <t>SELECT1</t>
+  </si>
+  <si>
+    <t>잘했어-! 방금처럼 레이로 최대 세 칸까지 이동할 수 있어!
+앗 소개가 늦었네! 내 이름은 모! 네 이름은?</t>
+  </si>
+  <si>
+    <t>이름 멋지다! &lt;&lt;유저의 닉네임&gt;&gt;!! 미니마니모 마을에 온걸 환영해-!
+여긴 도깨비불과 다양한 요괴들이 모여 사는 세상이야-!</t>
+  </si>
+  <si>
+    <t>나는 여기가 정--말 좋아-! 아무 생각 없이 재밌게 놀면 되거든-!
+너도 이 세계가 맘에 들길 바라-</t>
+  </si>
+  <si>
+    <t>아 맞다-! 이걸 줄게. 이게 너의 생활에 도움이 될 거야!</t>
+  </si>
+  <si>
+    <t>그래그래- 그런 식으로 사용하는 거야! 이제 들어갈 준비됐지?
+이제 문을 열어줄게! 다시 한번 환영해-!</t>
+  </si>
+  <si>
+    <t>자 옆에 있는 나무에 매달려있는 호박을 쳐봐-!</t>
+  </si>
+  <si>
+    <t>잘하는데? 근데 축구공 다시 내가 가져갈게
+또 너 같은 신참이 들어오면 가르쳐 줘야 해서 필요해-</t>
+  </si>
+  <si>
+    <t>아 그리고-! 인벤토리 공간이 가득 차면 아이템을 보관할 수 없어!
+가득 찬 상태로 아이템을 받게 되면 파괴되니까 조심하라고-</t>
+  </si>
+  <si>
+    <t>이제 기본적인 건 다 알려준 것 같은데..
+아! 조작키를 까먹었을 땐 언제든지 Y키를 눌러 확인할 수 있으니 걱정마!</t>
+  </si>
+  <si>
+    <t>응-? 네 잎 클로버 4개 가져왔어?</t>
+  </si>
+  <si>
+    <t>응!</t>
+  </si>
+  <si>
+    <t>아니!</t>
+  </si>
+  <si>
+    <t>좋아- 조금만 기다려-!</t>
+  </si>
+  <si>
+    <t>뭐야- 네 잎 클로버가 없잖아-
+네 잎 클로버를 4개 모으면 말해!</t>
+  </si>
+  <si>
+    <t>코스튬이 갖고 싶으면 네 잎 클로버 4개를 가져와!</t>
+  </si>
+  <si>
+    <t>안녕, 친구.
+재미있는 놀이가 하나 있는데 이야기해줄까?</t>
+  </si>
+  <si>
+    <t>뭔데?</t>
+  </si>
+  <si>
+    <t>아니, 안들을래</t>
+  </si>
+  <si>
+    <t>분명 후회할텐데?
+나중에 하고 싶은 마음이 든다면 다시와 ~ 이 부가 설명해줄게 !</t>
+  </si>
+  <si>
+    <t>그래서 우리 요괴들은 종종 인간마을에 놀러가곤 했는데 
+어느샌가 인간 친구들이 우리마을에 놀러오고있지 뭐야?</t>
+  </si>
+  <si>
+    <t>마을에 놀러온 인간 친구들이랑 재밌게 놀고싶은 마음에
+우리 요괴들은 친구들에게 우리만의 놀이를 알려주기로했어</t>
+  </si>
+  <si>
+    <t>이름하야 'Peek! ka BOO!'</t>
+  </si>
+  <si>
+    <t>어때 멋진 이름이지?
+내가 생각해도 그래</t>
+  </si>
+  <si>
+    <t>어떻게 하는건데?</t>
+  </si>
+  <si>
+    <t>알고있었어</t>
+  </si>
+  <si>
+    <t>정말? 대단한걸
+그럼 지금 당장 'Peek! Ka BOO!' 즐기러가지않을래?</t>
+  </si>
+  <si>
+    <t>응, 할래</t>
+  </si>
+  <si>
+    <t>아니, 안할래</t>
+  </si>
+  <si>
+    <t>좋아 ~
+Peek! Ka Boo!에서 즐거운시간 보내 ~</t>
+  </si>
+  <si>
+    <t>다시왔구나? Peek! ka Boo! 하지않을래?</t>
+  </si>
+  <si>
+    <t>우리 유령들 사이에 우리처럼 똑같이 분장을 한 인간친구들을 찾는게임이야</t>
+  </si>
+  <si>
+    <t>너도 유령분장을 했다는 사실을 들키면 안되겠지?
+인간처럼 보이는 유령에게 살금살금 다가가 깜짝 놀래켜봐</t>
+  </si>
+  <si>
+    <t>대신 우리 유령들을 놀래키면 되려 혼쭐나고 말껄?</t>
+  </si>
+  <si>
+    <t>마지막까지 안들키고 살아남는다면 선물을 줄게 !</t>
+  </si>
+  <si>
+    <t>좋아, 이해했어</t>
+  </si>
+  <si>
+    <t>다시 한 번 말해줘</t>
+  </si>
+  <si>
+    <t>여어--! 이리 와봐-!</t>
+  </si>
+  <si>
+    <t>뭐-? 나는 사람 아니냐고?
+하하 맞아-! 너처럼 이 세계에 들어온 어린이들도 많아!</t>
+  </si>
+  <si>
+    <t>짠~ 모모 워치야! 이 마을에서 사용하는 홀로그램이지-
+한번 왼쪽 손목에 레이를 갖다 대볼래?</t>
+  </si>
+  <si>
+    <t>뭐야 새로운 어린이잖아-
+이 울트라 멋진 쿠님이 기본적인 것 좀 알려주지! 영광인 줄 알라고?</t>
+  </si>
+  <si>
+    <t>어때-? 스트레스 좀 풀리지?</t>
+  </si>
+  <si>
+    <t>그럼 앞에 있는 축구공을 그립키로 잡아봐-
+그리고 인벤토리에 한 번 넣어볼래? 인벤토리는 자동으로 열릴 거야-</t>
+  </si>
+  <si>
+    <t>후후.. 그건 그렇고 잘 따라와 준 너에게 선물을 하나 줄게!
+초초초특급 레어 한정 간지 작살 코스튬이다!</t>
+  </si>
+  <si>
+    <t>참고로 기간제야-
+착용한 시점부터 시간이 흐르니까 이 점 유의해라-!</t>
+  </si>
+  <si>
+    <t>자 이제 귀찮게 하지 말고 가서 놀아-!</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCID</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>umber</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alk</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Condition1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NextTalkID</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition1Quantity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT1Condition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextTalkID1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT2Condition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition2Quantity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition2NextTalkID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextTalkID2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모았으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>언제든지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>말을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>걸어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>안녕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>나는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>코티야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>잎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>클로버를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가져오면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>코스튬으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>변화시켜줄게</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>됐어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이쁘게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>착용해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>좋아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ~
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>우리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>미니마니모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마을엔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인간과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사이좋게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지내고싶은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>도깨비들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>많아</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -593,12 +1431,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -613,7 +1457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,6 +1500,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1440,6 +2311,797 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="15"/>
+    <col min="4" max="4" width="82.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="15" customWidth="1"/>
+    <col min="6" max="9" width="29.28515625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
+    <col min="11" max="14" width="29.28515625" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="15" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="15">
+        <v>21001</v>
+      </c>
+      <c r="B2" s="15">
+        <v>20000</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30">
+      <c r="A3" s="15">
+        <v>21001</v>
+      </c>
+      <c r="B3" s="15">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30">
+      <c r="A4" s="15">
+        <v>21001</v>
+      </c>
+      <c r="B4" s="15">
+        <v>20000</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30">
+      <c r="A5" s="15">
+        <v>21001</v>
+      </c>
+      <c r="B5" s="15">
+        <v>20000</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30">
+      <c r="A6" s="15">
+        <v>21001</v>
+      </c>
+      <c r="B6" s="15">
+        <v>20000</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="15">
+        <v>21001</v>
+      </c>
+      <c r="B7" s="15">
+        <v>20000</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30">
+      <c r="A8" s="15">
+        <v>21001</v>
+      </c>
+      <c r="B8" s="15">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="15">
+        <v>7</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="20" customFormat="1" ht="30">
+      <c r="A9" s="18">
+        <v>21002</v>
+      </c>
+      <c r="B9" s="18">
+        <v>20000</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" ht="30">
+      <c r="A10" s="15">
+        <v>21003</v>
+      </c>
+      <c r="B10" s="15">
+        <v>20001</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="15">
+        <v>21003</v>
+      </c>
+      <c r="B11" s="15">
+        <v>20001</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="20" customFormat="1">
+      <c r="A12" s="18">
+        <v>21004</v>
+      </c>
+      <c r="B12" s="18">
+        <v>20001</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" s="20" customFormat="1" ht="30">
+      <c r="A13" s="18">
+        <v>21004</v>
+      </c>
+      <c r="B13" s="18">
+        <v>20001</v>
+      </c>
+      <c r="C13" s="18">
+        <v>2</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" ht="30">
+      <c r="A14" s="15">
+        <v>21005</v>
+      </c>
+      <c r="B14" s="15">
+        <v>20001</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30">
+      <c r="A15" s="15">
+        <v>21005</v>
+      </c>
+      <c r="B15" s="15">
+        <v>20001</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30">
+      <c r="A16" s="15">
+        <v>21005</v>
+      </c>
+      <c r="B16" s="15">
+        <v>20001</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30">
+      <c r="A17" s="15">
+        <v>21005</v>
+      </c>
+      <c r="B17" s="15">
+        <v>20001</v>
+      </c>
+      <c r="C17" s="15">
+        <v>4</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30">
+      <c r="A18" s="15">
+        <v>21005</v>
+      </c>
+      <c r="B18" s="15">
+        <v>20001</v>
+      </c>
+      <c r="C18" s="15">
+        <v>5</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="15">
+        <v>21005</v>
+      </c>
+      <c r="B19" s="15">
+        <v>20001</v>
+      </c>
+      <c r="C19" s="15">
+        <v>6</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="20" customFormat="1">
+      <c r="A20" s="18">
+        <v>24000</v>
+      </c>
+      <c r="B20" s="18">
+        <v>20300</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" s="20" customFormat="1">
+      <c r="A21" s="18">
+        <v>24000</v>
+      </c>
+      <c r="B21" s="18">
+        <v>20300</v>
+      </c>
+      <c r="C21" s="18">
+        <v>2</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="15">
+        <v>24001</v>
+      </c>
+      <c r="B22" s="15">
+        <v>20300</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="15">
+        <v>24002</v>
+      </c>
+      <c r="I22" s="15">
+        <v>24003</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="15">
+        <v>24004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="20" customFormat="1">
+      <c r="A23" s="18">
+        <v>24002</v>
+      </c>
+      <c r="B23" s="18">
+        <v>20300</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" s="20" customFormat="1">
+      <c r="A24" s="18">
+        <v>24002</v>
+      </c>
+      <c r="B24" s="18">
+        <v>20300</v>
+      </c>
+      <c r="C24" s="18">
+        <v>2</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" ht="30">
+      <c r="A25" s="15">
+        <v>24003</v>
+      </c>
+      <c r="B25" s="15">
+        <v>20300</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="20" customFormat="1">
+      <c r="A26" s="18">
+        <v>24004</v>
+      </c>
+      <c r="B26" s="18">
+        <v>20300</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="1:14" ht="30">
+      <c r="A27" s="15">
+        <v>27000</v>
+      </c>
+      <c r="B27" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="15">
+        <v>27002</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="15">
+        <v>27001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="20" customFormat="1" ht="30">
+      <c r="A28" s="18">
+        <v>27001</v>
+      </c>
+      <c r="B28" s="18">
+        <v>20600</v>
+      </c>
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="1:14" ht="30">
+      <c r="A29" s="15">
+        <v>27002</v>
+      </c>
+      <c r="B29" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30">
+      <c r="A30" s="15">
+        <v>27002</v>
+      </c>
+      <c r="B30" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30">
+      <c r="A31" s="15">
+        <v>27002</v>
+      </c>
+      <c r="B31" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C31" s="15">
+        <v>3</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="15">
+        <v>27002</v>
+      </c>
+      <c r="B32" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C32" s="15">
+        <v>4</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="30">
+      <c r="A33" s="15">
+        <v>27002</v>
+      </c>
+      <c r="B33" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C33" s="15">
+        <v>5</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="15">
+        <v>27006</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" s="15">
+        <v>27003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="20" customFormat="1" ht="30">
+      <c r="A34" s="18">
+        <v>27003</v>
+      </c>
+      <c r="B34" s="18">
+        <v>20600</v>
+      </c>
+      <c r="C34" s="18">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18">
+        <v>27004</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18">
+        <v>27001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="30">
+      <c r="A35" s="15">
+        <v>27004</v>
+      </c>
+      <c r="B35" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C35" s="15">
+        <v>1</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1">
+      <c r="A36" s="18">
+        <v>27005</v>
+      </c>
+      <c r="B36" s="18">
+        <v>20600</v>
+      </c>
+      <c r="C36" s="18">
+        <v>1</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18">
+        <v>27004</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="15">
+        <v>27006</v>
+      </c>
+      <c r="B37" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="30">
+      <c r="A38" s="15">
+        <v>27006</v>
+      </c>
+      <c r="B38" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C38" s="15">
+        <v>2</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="15">
+        <v>27006</v>
+      </c>
+      <c r="B39" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C39" s="15">
+        <v>3</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="15">
+        <v>27006</v>
+      </c>
+      <c r="B40" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C40" s="15">
+        <v>4</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" s="15">
+        <v>27003</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="N40" s="15">
+        <v>27004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1545,7 +3207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
@@ -1728,7 +3390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -2313,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3090,7 +3090,7 @@
         <v>109</v>
       </c>
       <c r="N40" s="15">
-        <v>27004</v>
+        <v>27006</v>
       </c>
     </row>
   </sheetData>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Slime\VR\SUPERmeta\KGA_SUPERmetaVR\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bigseung12\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="PeekabooCustomizing" sheetId="2" r:id="rId3"/>
     <sheet name="SpeechBubbleSheet" sheetId="3" r:id="rId4"/>
     <sheet name="ItemSheet" sheetId="4" r:id="rId5"/>
+    <sheet name="RewardSheet" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="207">
   <si>
     <t>id</t>
   </si>
@@ -1375,6 +1376,239 @@
       </rPr>
       <t>많아</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네잎클로버</t>
+  </si>
+  <si>
+    <t>행운을 가져다준다는 네잎클로버다. 행운이 깃들것만같은 기분이다!</t>
+  </si>
+  <si>
+    <t>4CLOVER</t>
+  </si>
+  <si>
+    <t>네잎클로버 머리띠</t>
+  </si>
+  <si>
+    <t>행운을 가져다준다는 네잎클로버로 머리띠를 만들었다! 얏호 행운 다 내꺼!</t>
+  </si>
+  <si>
+    <t>HAT_1</t>
+  </si>
+  <si>
+    <t>지옥의 먹물유령 세트</t>
+  </si>
+  <si>
+    <t>우하하-! 지옥의 먹물맛을 선사해주지!</t>
+  </si>
+  <si>
+    <t>S_DRESS_1</t>
+  </si>
+  <si>
+    <t>시계태엽 캐스퍼 세트</t>
+  </si>
+  <si>
+    <t>타르르륵.. 타륵…타르륵..</t>
+  </si>
+  <si>
+    <t>T_DRESS_1</t>
+  </si>
+  <si>
+    <t>블랙 캣 유령 세트</t>
+  </si>
+  <si>
+    <t>냐앙-,, 낮잠이나 자고싶다 냥-</t>
+  </si>
+  <si>
+    <t>CHARACTER_1</t>
+  </si>
+  <si>
+    <t>폭발 작전 세트</t>
+  </si>
+  <si>
+    <t>으아아아아-!! 나 한다? 한다? 폭발한다?</t>
+  </si>
+  <si>
+    <t>CHARACTER_2</t>
+  </si>
+  <si>
+    <t>꿈나라 속눈썹 어린이 세트</t>
+  </si>
+  <si>
+    <t>zzZZzzZ… zzZ..</t>
+  </si>
+  <si>
+    <t>CHARACTER_3</t>
+  </si>
+  <si>
+    <t>죠스 캐스퍼 세트</t>
+  </si>
+  <si>
+    <t>크아아앙-!! 다 물어버릴꼬야-!</t>
+  </si>
+  <si>
+    <t>CHARACTER_4</t>
+  </si>
+  <si>
+    <t>클레오냥트라 세트</t>
+  </si>
+  <si>
+    <t>나를 따라라 냥-</t>
+  </si>
+  <si>
+    <t>CHARACTER_5</t>
+  </si>
+  <si>
+    <t>처키포키 세트</t>
+  </si>
+  <si>
+    <t>우히히.. 히히… 히히힛?</t>
+  </si>
+  <si>
+    <t>CHARACTER_6</t>
+  </si>
+  <si>
+    <t>개굴개굴 세트</t>
+  </si>
+  <si>
+    <t>개굴?</t>
+  </si>
+  <si>
+    <t>CHARACTER_7</t>
+  </si>
+  <si>
+    <t>식탐쟁이 천사 세트</t>
+  </si>
+  <si>
+    <t>요호오-! 맛있겠다-! 이것도! 저것도!!</t>
+  </si>
+  <si>
+    <t>CHARACTER_8</t>
+  </si>
+  <si>
+    <t>도마뱀을 입은 도깨비 세트</t>
+  </si>
+  <si>
+    <t>도깨비 아니야. 나 도마뱀이야.</t>
+  </si>
+  <si>
+    <t>CHARACTER_9</t>
+  </si>
+  <si>
+    <t>식탐쟁이 악동 세트</t>
+  </si>
+  <si>
+    <t>나느은 세상에서 문어빵이 제에일 좋아아--</t>
+  </si>
+  <si>
+    <t>CHARACTER_10</t>
+  </si>
+  <si>
+    <t>악동 메두사 2 세트</t>
+  </si>
+  <si>
+    <t>돌로 변하기 싫으면 쳐다보지마아</t>
+  </si>
+  <si>
+    <t>CHARACTER_11</t>
+  </si>
+  <si>
+    <t>불면증 세트</t>
+  </si>
+  <si>
+    <t>재워줘..</t>
+  </si>
+  <si>
+    <t>CHARACTER_12</t>
+  </si>
+  <si>
+    <t>이불단추 캐스퍼 세트</t>
+  </si>
+  <si>
+    <t>포근해♡</t>
+  </si>
+  <si>
+    <t>CHARACTER_13</t>
+  </si>
+  <si>
+    <t>화가가된 캐스퍼 세트</t>
+  </si>
+  <si>
+    <t>슥삭슥삭.. 너도 그려줄까?</t>
+  </si>
+  <si>
+    <t>CHARACTER_14</t>
+  </si>
+  <si>
+    <t>화가가된 캐스퍼 세트 (3일)</t>
+  </si>
+  <si>
+    <t>CHRACTER_15</t>
+  </si>
+  <si>
+    <t>악동 메두사 1 세트</t>
+  </si>
+  <si>
+    <t>돌로 변하기 싫으면 쳐다보지마</t>
+  </si>
+  <si>
+    <t>CHARACTER_16</t>
+  </si>
+  <si>
+    <t>악몽 악동 세트</t>
+  </si>
+  <si>
+    <t>크히힛- 악몽을 선사해주지-!</t>
+  </si>
+  <si>
+    <t>CHARACTER_17</t>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 pc 캐릭터의 전체 외형 모습 (휴머노이드형)</t>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probability</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1382,6 +1616,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1457,7 +1694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1527,6 +1764,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2313,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3392,60 +3635,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" style="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="F1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1">
       <c r="A2" s="1">
@@ -3460,12 +3711,9 @@
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3498,12 +3746,9 @@
       <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -3536,12 +3781,9 @@
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -3574,12 +3816,9 @@
       <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -3612,12 +3851,9 @@
       <c r="D6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -3637,9 +3873,920 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
+      <c r="A7" s="9">
+        <v>12000</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1">
+      <c r="A8" s="9">
+        <v>13000</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1">
+      <c r="A9" s="9">
+        <v>15000</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15" customHeight="1">
+      <c r="A10" s="9">
+        <v>15001</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1">
+      <c r="A11" s="9">
+        <v>15002</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1">
+      <c r="A12" s="9">
+        <v>15003</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1">
+      <c r="A13" s="9">
+        <v>15004</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1">
+      <c r="A14" s="9">
+        <v>15005</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15" customHeight="1">
+      <c r="A15" s="9">
+        <v>15006</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15" customHeight="1">
+      <c r="A16" s="9">
+        <v>15007</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="9">
+        <v>15008</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="A18" s="9">
+        <v>15009</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
+      <c r="A19" s="9">
+        <v>15010</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1">
+      <c r="A20" s="9">
+        <v>15011</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1">
+      <c r="A21" s="9">
+        <v>15012</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="A22" s="9">
+        <v>15013</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="A23" s="9">
+        <v>15014</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
+      <c r="A24" s="9">
+        <v>15015</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9">
+        <v>3</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
+      <c r="A25" s="9">
+        <v>15016</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
+      </c>
+      <c r="F25" s="9">
+        <v>4</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
+      <c r="A26" s="9">
+        <v>15017</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
+      </c>
+      <c r="F26" s="9">
+        <v>4</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="A27" s="9">
+        <v>15018</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
+      <c r="F27" s="9">
+        <v>4</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="10.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5">
+      <c r="A1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>15000</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25">
+        <v>6660.0000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>15001</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>6660.0000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>15002</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <v>6660.0000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>15003</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>6660.0000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>15004</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <v>6660.0000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>15005</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>6660.0000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>15006</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>15007</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>15008</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>15009</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>15010</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>15011</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>15012</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
+        <v>15013</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>15014</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15015</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1990.0000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>15016</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <v>15017</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>15018</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bigseung12\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohgo\Desktop\Unity\SUPERmetaVR\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA00017-3EEA-4F4C-89EB-4FFE03E432B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="185">
   <si>
     <t>id</t>
   </si>
@@ -123,9 +124,6 @@
     <t>Item001</t>
   </si>
   <si>
-    <t>INGREDIENT</t>
-  </si>
-  <si>
     <t>아이템2</t>
   </si>
   <si>
@@ -158,9 +156,6 @@
     <t>장착가능한 검입니다.</t>
   </si>
   <si>
-    <t>Sword</t>
-  </si>
-  <si>
     <t>EQUIPMENT</t>
   </si>
   <si>
@@ -1385,184 +1380,121 @@
     <t>행운을 가져다준다는 네잎클로버다. 행운이 깃들것만같은 기분이다!</t>
   </si>
   <si>
-    <t>4CLOVER</t>
-  </si>
-  <si>
     <t>네잎클로버 머리띠</t>
   </si>
   <si>
     <t>행운을 가져다준다는 네잎클로버로 머리띠를 만들었다! 얏호 행운 다 내꺼!</t>
   </si>
   <si>
-    <t>HAT_1</t>
-  </si>
-  <si>
     <t>지옥의 먹물유령 세트</t>
   </si>
   <si>
     <t>우하하-! 지옥의 먹물맛을 선사해주지!</t>
   </si>
   <si>
-    <t>S_DRESS_1</t>
-  </si>
-  <si>
     <t>시계태엽 캐스퍼 세트</t>
   </si>
   <si>
     <t>타르르륵.. 타륵…타르륵..</t>
   </si>
   <si>
-    <t>T_DRESS_1</t>
-  </si>
-  <si>
     <t>블랙 캣 유령 세트</t>
   </si>
   <si>
     <t>냐앙-,, 낮잠이나 자고싶다 냥-</t>
   </si>
   <si>
-    <t>CHARACTER_1</t>
-  </si>
-  <si>
     <t>폭발 작전 세트</t>
   </si>
   <si>
     <t>으아아아아-!! 나 한다? 한다? 폭발한다?</t>
   </si>
   <si>
-    <t>CHARACTER_2</t>
-  </si>
-  <si>
     <t>꿈나라 속눈썹 어린이 세트</t>
   </si>
   <si>
     <t>zzZZzzZ… zzZ..</t>
   </si>
   <si>
-    <t>CHARACTER_3</t>
-  </si>
-  <si>
     <t>죠스 캐스퍼 세트</t>
   </si>
   <si>
     <t>크아아앙-!! 다 물어버릴꼬야-!</t>
   </si>
   <si>
-    <t>CHARACTER_4</t>
-  </si>
-  <si>
     <t>클레오냥트라 세트</t>
   </si>
   <si>
     <t>나를 따라라 냥-</t>
   </si>
   <si>
-    <t>CHARACTER_5</t>
-  </si>
-  <si>
     <t>처키포키 세트</t>
   </si>
   <si>
     <t>우히히.. 히히… 히히힛?</t>
   </si>
   <si>
-    <t>CHARACTER_6</t>
-  </si>
-  <si>
     <t>개굴개굴 세트</t>
   </si>
   <si>
     <t>개굴?</t>
   </si>
   <si>
-    <t>CHARACTER_7</t>
-  </si>
-  <si>
     <t>식탐쟁이 천사 세트</t>
   </si>
   <si>
     <t>요호오-! 맛있겠다-! 이것도! 저것도!!</t>
   </si>
   <si>
-    <t>CHARACTER_8</t>
-  </si>
-  <si>
     <t>도마뱀을 입은 도깨비 세트</t>
   </si>
   <si>
     <t>도깨비 아니야. 나 도마뱀이야.</t>
   </si>
   <si>
-    <t>CHARACTER_9</t>
-  </si>
-  <si>
     <t>식탐쟁이 악동 세트</t>
   </si>
   <si>
     <t>나느은 세상에서 문어빵이 제에일 좋아아--</t>
   </si>
   <si>
-    <t>CHARACTER_10</t>
-  </si>
-  <si>
     <t>악동 메두사 2 세트</t>
   </si>
   <si>
     <t>돌로 변하기 싫으면 쳐다보지마아</t>
   </si>
   <si>
-    <t>CHARACTER_11</t>
-  </si>
-  <si>
     <t>불면증 세트</t>
   </si>
   <si>
     <t>재워줘..</t>
   </si>
   <si>
-    <t>CHARACTER_12</t>
-  </si>
-  <si>
     <t>이불단추 캐스퍼 세트</t>
   </si>
   <si>
     <t>포근해♡</t>
   </si>
   <si>
-    <t>CHARACTER_13</t>
-  </si>
-  <si>
     <t>화가가된 캐스퍼 세트</t>
   </si>
   <si>
     <t>슥삭슥삭.. 너도 그려줄까?</t>
   </si>
   <si>
-    <t>CHARACTER_14</t>
-  </si>
-  <si>
     <t>화가가된 캐스퍼 세트 (3일)</t>
   </si>
   <si>
-    <t>CHRACTER_15</t>
-  </si>
-  <si>
     <t>악동 메두사 1 세트</t>
   </si>
   <si>
     <t>돌로 변하기 싫으면 쳐다보지마</t>
   </si>
   <si>
-    <t>CHARACTER_16</t>
-  </si>
-  <si>
     <t>악몽 악동 세트</t>
   </si>
   <si>
     <t>크히힛- 악몽을 선사해주지-!</t>
-  </si>
-  <si>
-    <t>CHARACTER_17</t>
   </si>
   <si>
     <t>Grade</t>
@@ -1609,15 +1541,19 @@
   </si>
   <si>
     <t>Probability</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1768,7 +1704,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1985,23 +1921,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="9" customWidth="1"/>
     <col min="3" max="3" width="92" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="9" customWidth="1"/>
     <col min="6" max="7" width="9" style="9" customWidth="1"/>
-    <col min="8" max="27" width="8.7109375" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="9"/>
+    <col min="8" max="27" width="8.7265625" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="14.453125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1">
@@ -2015,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
@@ -2043,21 +1979,21 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="30">
+    <row r="2" spans="1:27" ht="29">
       <c r="A2" s="11">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2087,10 +2023,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -2126,10 +2062,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -2165,10 +2101,10 @@
         <v>52000</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
@@ -2202,10 +2138,10 @@
         <v>52001</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -2239,10 +2175,10 @@
         <v>52002</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -2276,10 +2212,10 @@
         <v>52003</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -2308,15 +2244,15 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="30">
+    <row r="9" spans="1:27" ht="29">
       <c r="A9" s="11">
         <v>52004</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
@@ -2350,10 +2286,10 @@
         <v>52005</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -2387,10 +2323,10 @@
         <v>52006</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
@@ -2424,10 +2360,10 @@
         <v>52007</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="11">
         <v>1</v>
@@ -2461,10 +2397,10 @@
         <v>52008</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2493,15 +2429,15 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="30">
+    <row r="14" spans="1:27" ht="29">
       <c r="A14" s="11">
         <v>52009</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="11">
         <v>2</v>
@@ -2535,10 +2471,10 @@
         <v>52010</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="10">
         <v>2</v>
@@ -2553,66 +2489,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="15"/>
-    <col min="4" max="4" width="82.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="15" customWidth="1"/>
-    <col min="6" max="9" width="29.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
-    <col min="11" max="14" width="29.28515625" style="15" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="3" width="9.1796875" style="15"/>
+    <col min="4" max="4" width="82.54296875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="15" customWidth="1"/>
+    <col min="6" max="9" width="29.26953125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="15" customWidth="1"/>
+    <col min="11" max="14" width="29.26953125" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="15" customFormat="1">
       <c r="A1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="I1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2626,10 +2562,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="30">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="29">
       <c r="A3" s="15">
         <v>21001</v>
       </c>
@@ -2640,10 +2576,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="29">
       <c r="A4" s="15">
         <v>21001</v>
       </c>
@@ -2654,10 +2590,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="29">
       <c r="A5" s="15">
         <v>21001</v>
       </c>
@@ -2668,10 +2604,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="30">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="29">
       <c r="A6" s="15">
         <v>21001</v>
       </c>
@@ -2682,7 +2618,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2696,10 +2632,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="29">
       <c r="A8" s="15">
         <v>21001</v>
       </c>
@@ -2710,10 +2646,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="20" customFormat="1" ht="30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="20" customFormat="1" ht="29">
       <c r="A9" s="18">
         <v>21002</v>
       </c>
@@ -2724,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -2737,7 +2673,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" ht="30">
+    <row r="10" spans="1:14" ht="29">
       <c r="A10" s="15">
         <v>21003</v>
       </c>
@@ -2748,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2762,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="20" customFormat="1">
@@ -2776,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -2789,7 +2725,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" s="20" customFormat="1" ht="30">
+    <row r="13" spans="1:14" s="20" customFormat="1" ht="29">
       <c r="A13" s="18">
         <v>21004</v>
       </c>
@@ -2800,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -2813,7 +2749,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" ht="30">
+    <row r="14" spans="1:14" ht="29">
       <c r="A14" s="15">
         <v>21005</v>
       </c>
@@ -2824,10 +2760,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="29">
       <c r="A15" s="15">
         <v>21005</v>
       </c>
@@ -2838,10 +2774,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="29">
       <c r="A16" s="15">
         <v>21005</v>
       </c>
@@ -2852,10 +2788,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="29">
       <c r="A17" s="15">
         <v>21005</v>
       </c>
@@ -2866,10 +2802,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="29">
       <c r="A18" s="15">
         <v>21005</v>
       </c>
@@ -2880,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2894,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="20" customFormat="1">
@@ -2908,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -2932,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -2956,10 +2892,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H22" s="15">
         <v>24002</v>
@@ -2968,7 +2904,7 @@
         <v>24003</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N22" s="15">
         <v>24004</v>
@@ -2985,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -3009,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -3022,7 +2958,7 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" ht="30">
+    <row r="25" spans="1:14" ht="29">
       <c r="A25" s="15">
         <v>24003</v>
       </c>
@@ -3033,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="20" customFormat="1">
@@ -3047,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -3060,7 +2996,7 @@
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" ht="30">
+    <row r="27" spans="1:14" ht="29">
       <c r="A27" s="15">
         <v>27000</v>
       </c>
@@ -3071,22 +3007,22 @@
         <v>1</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I27" s="15">
         <v>27002</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N27" s="15">
         <v>27001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="20" customFormat="1" ht="30">
+    <row r="28" spans="1:14" s="20" customFormat="1" ht="29">
       <c r="A28" s="18">
         <v>27001</v>
       </c>
@@ -3097,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -3110,7 +3046,7 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" ht="30">
+    <row r="29" spans="1:14" ht="29">
       <c r="A29" s="15">
         <v>27002</v>
       </c>
@@ -3121,10 +3057,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="30">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="29">
       <c r="A30" s="15">
         <v>27002</v>
       </c>
@@ -3135,10 +3071,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="30">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="29">
       <c r="A31" s="15">
         <v>27002</v>
       </c>
@@ -3149,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3163,10 +3099,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="29">
       <c r="A33" s="15">
         <v>27002</v>
       </c>
@@ -3177,22 +3113,22 @@
         <v>5</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I33" s="15">
         <v>27006</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N33" s="15">
         <v>27003</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" ht="30">
+    <row r="34" spans="1:14" s="20" customFormat="1" ht="29">
       <c r="A34" s="18">
         <v>27003</v>
       </c>
@@ -3203,10 +3139,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -3215,7 +3151,7 @@
         <v>27004</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
@@ -3224,7 +3160,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="30">
+    <row r="35" spans="1:14" ht="29">
       <c r="A35" s="15">
         <v>27004</v>
       </c>
@@ -3235,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="20" customFormat="1">
@@ -3249,10 +3185,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -3261,7 +3197,7 @@
         <v>27004</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
@@ -3279,10 +3215,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="30">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="29">
       <c r="A38" s="15">
         <v>27006</v>
       </c>
@@ -3293,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3307,7 +3243,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3321,16 +3257,16 @@
         <v>4</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I40" s="15">
         <v>27003</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N40" s="15">
         <v>27006</v>
@@ -3344,19 +3280,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
@@ -3451,19 +3387,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.81640625" customWidth="1"/>
     <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
@@ -3634,22 +3570,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="78.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
     <col min="5" max="5" width="13" style="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="9" customFormat="1" ht="16.5" customHeight="1">
@@ -3669,16 +3605,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3712,7 +3648,16 @@
         <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3738,16 +3683,25 @@
         <v>60002</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -3773,16 +3727,25 @@
         <v>60003</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>37</v>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -3808,16 +3771,25 @@
         <v>60004</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3843,16 +3815,25 @@
         <v>60005</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>43</v>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3878,16 +3859,16 @@
         <v>12000</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
@@ -3904,16 +3885,16 @@
         <v>13000</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2</v>
+        <v>137</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F8" s="6">
         <v>3</v>
@@ -3930,16 +3911,16 @@
         <v>15000</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2</v>
+        <v>139</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -3956,16 +3937,16 @@
         <v>15001</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2</v>
+        <v>141</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
@@ -3982,16 +3963,16 @@
         <v>15002</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2</v>
+        <v>143</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
@@ -4008,16 +3989,16 @@
         <v>15003</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F12" s="9">
         <v>1</v>
@@ -4034,16 +4015,16 @@
         <v>15004</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2</v>
+        <v>147</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="9">
         <v>1</v>
@@ -4060,16 +4041,16 @@
         <v>15005</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="9">
-        <v>2</v>
+        <v>149</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="9">
         <v>1</v>
@@ -4086,16 +4067,16 @@
         <v>15006</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2</v>
+        <v>151</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="9">
         <v>2</v>
@@ -4112,16 +4093,16 @@
         <v>15007</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2</v>
+        <v>153</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F16" s="9">
         <v>2</v>
@@ -4138,16 +4119,16 @@
         <v>15008</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2</v>
+        <v>155</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F17" s="9">
         <v>2</v>
@@ -4164,16 +4145,16 @@
         <v>15009</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2</v>
+        <v>157</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F18" s="9">
         <v>2</v>
@@ -4190,16 +4171,16 @@
         <v>15010</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2</v>
+        <v>159</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F19" s="9">
         <v>2</v>
@@ -4216,16 +4197,16 @@
         <v>15011</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="9">
-        <v>2</v>
+        <v>161</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F20" s="9">
         <v>2</v>
@@ -4242,16 +4223,16 @@
         <v>15012</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="9">
-        <v>2</v>
+        <v>163</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F21" s="9">
         <v>2</v>
@@ -4268,16 +4249,16 @@
         <v>15013</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="9">
-        <v>2</v>
+        <v>165</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F22" s="9">
         <v>2</v>
@@ -4294,16 +4275,16 @@
         <v>15014</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="9">
-        <v>2</v>
+        <v>167</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F23" s="9">
         <v>3</v>
@@ -4320,16 +4301,16 @@
         <v>15015</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="9">
-        <v>2</v>
+        <v>169</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F24" s="9">
         <v>3</v>
@@ -4346,16 +4327,16 @@
         <v>15016</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="9">
-        <v>2</v>
+        <v>169</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F25" s="9">
         <v>4</v>
@@ -4372,16 +4353,16 @@
         <v>15017</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="9">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F26" s="9">
         <v>4</v>
@@ -4398,16 +4379,16 @@
         <v>15018</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="9">
-        <v>2</v>
+        <v>174</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F27" s="9">
         <v>4</v>
@@ -4427,38 +4408,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="10.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.1796875" style="9"/>
+    <col min="2" max="2" width="10.7265625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="10" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4469,7 +4450,7 @@
         <v>15000</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -4486,7 +4467,7 @@
         <v>15001</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -4503,7 +4484,7 @@
         <v>15002</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -4520,7 +4501,7 @@
         <v>15003</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -4537,7 +4518,7 @@
         <v>15004</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -4554,7 +4535,7 @@
         <v>15005</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -4571,7 +4552,7 @@
         <v>15006</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -4588,7 +4569,7 @@
         <v>15007</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -4605,7 +4586,7 @@
         <v>15008</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -4622,7 +4603,7 @@
         <v>15009</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -4639,7 +4620,7 @@
         <v>15010</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -4656,7 +4637,7 @@
         <v>15011</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -4673,7 +4654,7 @@
         <v>15012</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -4690,7 +4671,7 @@
         <v>15013</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -4707,7 +4688,7 @@
         <v>15014</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -4724,7 +4705,7 @@
         <v>15015</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D17" s="9">
         <v>3</v>
@@ -4741,7 +4722,7 @@
         <v>15016</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -4758,7 +4739,7 @@
         <v>15017</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -4775,7 +4756,7 @@
         <v>15018</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bigseung12\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Slime\VR\SUPERmeta\KGA_SUPERmetaVR\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="230">
   <si>
     <t>id</t>
   </si>
@@ -590,9 +590,6 @@
 네 잎 클로버를 4개 모으면 말해!</t>
   </si>
   <si>
-    <t>코스튬이 갖고 싶으면 네 잎 클로버 4개를 가져와!</t>
-  </si>
-  <si>
     <t>안녕, 친구.
 재미있는 놀이가 하나 있는데 이야기해줄까?</t>
   </si>
@@ -821,564 +818,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모았으면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>언제든지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>말을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>걸어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>안녕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>나는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>코티야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>네</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>잎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>클로버를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>가져오면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>코스튬으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>변화시켜줄게</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>됐어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이쁘게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>착용해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-!</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>좋아</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ~
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>우리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>미니마니모</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>마을엔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인간과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사이좋게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>지내고싶은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>도깨비들이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>많아</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>네잎클로버</t>
   </si>
   <si>
@@ -1611,13 +1050,151 @@
     <t>Probability</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oundEffect</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_Mo_1.wav</t>
+  </si>
+  <si>
+    <t>TT_Mo_2.wav</t>
+  </si>
+  <si>
+    <t>TT_Mo_3.wav</t>
+  </si>
+  <si>
+    <t>TT_Cu_1.wav</t>
+  </si>
+  <si>
+    <t>TT_Cu_3.mp3</t>
+  </si>
+  <si>
+    <t>TT_Cu_2.mp3</t>
+  </si>
+  <si>
+    <t>CC_Coty_1.mp3</t>
+  </si>
+  <si>
+    <t>CC_Coty_2.mp3</t>
+  </si>
+  <si>
+    <t>CC_Coty_3.mp3</t>
+  </si>
+  <si>
+    <t>CC_Coty_4.mp3</t>
+  </si>
+  <si>
+    <t>CC_Coty_5.mp3</t>
+  </si>
+  <si>
+    <t>PK_BOO_1.mp3</t>
+  </si>
+  <si>
+    <t>PK_BOO_2.mp3</t>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etItemEA</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>utItemID</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>utItemEA</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetItemID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕? 적응은 잘 하고있어? 즐거운 하루 보내!</t>
+  </si>
+  <si>
+    <t>나는 여기서 항상 새로운 어린이들을 인도해!</t>
+  </si>
+  <si>
+    <t>쿠가 좀 까칠하지? 하지만 마음은 따듯한 녀석이야-</t>
+  </si>
+  <si>
+    <t>이 쿠님이 보고싶어서 왔나?</t>
+  </si>
+  <si>
+    <t>어린이- 저기가서 놀아- 이 쿠님은 바쁘다고-</t>
+  </si>
+  <si>
+    <t>안녕- 나는 코티야. 네 잎 클로버를 4개 가져오면 코스튬으로 변화시켜줄게</t>
+  </si>
+  <si>
+    <t>4개를 모았으면 언제든지 말을 걸어!</t>
+  </si>
+  <si>
+    <t>다 됐어-! 이쁘게 착용해-!</t>
+  </si>
+  <si>
+    <t>음? 코스튬이 갖고 싶으면 네 잎 클로버 4개를 가져와!</t>
+  </si>
+  <si>
+    <t>좋아 ~
+우리 미니마니모 마을엔 인간과 사이좋게 지내고싶은 도깨비들이 많아</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1768,7 +1345,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2554,70 +2131,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="15"/>
     <col min="4" max="4" width="82.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="29.28515625" style="15" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
     <col min="11" max="14" width="29.28515625" style="15" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="16"/>
+    <col min="15" max="15" width="18.42578125" style="15" customWidth="1"/>
+    <col min="16" max="19" width="14.5703125" style="16" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1">
+    <row r="1" spans="1:19" s="15" customFormat="1">
       <c r="A1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>73</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="15">
-        <v>21001</v>
+        <v>21000</v>
       </c>
       <c r="B2" s="15">
         <v>20000</v>
@@ -2626,10 +2220,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="30">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30">
       <c r="A3" s="15">
         <v>21001</v>
       </c>
@@ -2637,13 +2231,16 @@
         <v>20000</v>
       </c>
       <c r="C3" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="30">
+      <c r="O3" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="30">
       <c r="A4" s="15">
         <v>21001</v>
       </c>
@@ -2651,13 +2248,16 @@
         <v>20000</v>
       </c>
       <c r="C4" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="30">
+      <c r="O4" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1">
       <c r="A5" s="15">
         <v>21001</v>
       </c>
@@ -2665,13 +2265,13 @@
         <v>20000</v>
       </c>
       <c r="C5" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1">
       <c r="A6" s="15">
         <v>21001</v>
       </c>
@@ -2679,13 +2279,13 @@
         <v>20000</v>
       </c>
       <c r="C6" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:19">
       <c r="A7" s="15">
         <v>21001</v>
       </c>
@@ -2693,13 +2293,13 @@
         <v>20000</v>
       </c>
       <c r="C7" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30">
+    <row r="8" spans="1:19" ht="30">
       <c r="A8" s="15">
         <v>21001</v>
       </c>
@@ -2707,13 +2307,16 @@
         <v>20000</v>
       </c>
       <c r="C8" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="20" customFormat="1" ht="30">
+        <v>111</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="18">
         <v>21002</v>
       </c>
@@ -2736,8 +2339,9 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
-    </row>
-    <row r="10" spans="1:14" ht="30">
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="15">
         <v>21003</v>
       </c>
@@ -2748,10 +2352,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>112</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="15">
         <v>21003</v>
       </c>
@@ -2765,7 +2372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="20" customFormat="1">
+    <row r="12" spans="1:19" s="20" customFormat="1">
       <c r="A12" s="18">
         <v>21004</v>
       </c>
@@ -2776,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -2788,8 +2395,11 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
-    </row>
-    <row r="13" spans="1:14" s="20" customFormat="1" ht="30">
+      <c r="O12" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="18">
         <v>21004</v>
       </c>
@@ -2800,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -2812,8 +2422,9 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="1:14" ht="30">
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1">
       <c r="A14" s="15">
         <v>21005</v>
       </c>
@@ -2827,7 +2438,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="30">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1">
       <c r="A15" s="15">
         <v>21005</v>
       </c>
@@ -2841,7 +2452,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="30">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1">
       <c r="A16" s="15">
         <v>21005</v>
       </c>
@@ -2855,7 +2466,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="30">
+    <row r="17" spans="1:19" ht="30">
       <c r="A17" s="15">
         <v>21005</v>
       </c>
@@ -2866,10 +2477,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="30">
+        <v>115</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1">
       <c r="A18" s="15">
         <v>21005</v>
       </c>
@@ -2880,10 +2494,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="15">
         <v>21005</v>
       </c>
@@ -2894,21 +2508,21 @@
         <v>6</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="20" customFormat="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="20" customFormat="1">
       <c r="A20" s="18">
-        <v>24000</v>
+        <v>21006</v>
       </c>
       <c r="B20" s="18">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="C20" s="18">
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -2920,19 +2534,22 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="1:14" s="20" customFormat="1">
+      <c r="O20" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="20" customFormat="1">
       <c r="A21" s="18">
-        <v>24000</v>
+        <v>21007</v>
       </c>
       <c r="B21" s="18">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="C21" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -2944,48 +2561,39 @@
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="15">
-        <v>24001</v>
+        <v>21008</v>
       </c>
       <c r="B22" s="15">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="C22" s="15">
         <v>1</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="15">
-        <v>24002</v>
-      </c>
-      <c r="I22" s="15">
-        <v>24003</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="N22" s="15">
-        <v>24004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="20" customFormat="1">
+        <v>222</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="20" customFormat="1">
       <c r="A23" s="18">
-        <v>24002</v>
+        <v>21009</v>
       </c>
       <c r="B23" s="18">
-        <v>20300</v>
+        <v>20001</v>
       </c>
       <c r="C23" s="18">
         <v>1</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -2997,19 +2605,20 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="1:14" s="20" customFormat="1">
+      <c r="O23" s="18"/>
+    </row>
+    <row r="24" spans="1:19" s="20" customFormat="1">
       <c r="A24" s="18">
-        <v>24002</v>
+        <v>21010</v>
       </c>
       <c r="B24" s="18">
-        <v>20300</v>
+        <v>20001</v>
       </c>
       <c r="C24" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -3021,10 +2630,11 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:14" ht="30">
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="15">
-        <v>24003</v>
+        <v>24000</v>
       </c>
       <c r="B25" s="15">
         <v>20300</v>
@@ -3033,21 +2643,24 @@
         <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="20" customFormat="1">
+        <v>225</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="20" customFormat="1">
       <c r="A26" s="18">
-        <v>24004</v>
+        <v>24000</v>
       </c>
       <c r="B26" s="18">
         <v>20300</v>
       </c>
       <c r="C26" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -3059,45 +2672,58 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
-    </row>
-    <row r="27" spans="1:14" ht="30">
+      <c r="O26" s="18"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="15">
-        <v>27000</v>
+        <v>24001</v>
       </c>
       <c r="B27" s="15">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="C27" s="15">
         <v>1</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="F27" s="15">
+        <v>12000</v>
+      </c>
+      <c r="G27" s="15">
+        <v>4</v>
+      </c>
+      <c r="H27" s="15">
+        <v>24002</v>
       </c>
       <c r="I27" s="15">
-        <v>27002</v>
+        <v>24003</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N27" s="15">
-        <v>27001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="20" customFormat="1" ht="30">
+        <v>24004</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="20" customFormat="1">
       <c r="A28" s="18">
-        <v>27001</v>
+        <v>24002</v>
       </c>
       <c r="B28" s="18">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="C28" s="18">
         <v>1</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -3109,92 +2735,116 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
-    </row>
-    <row r="29" spans="1:14" ht="30">
+      <c r="O28" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="15">
-        <v>27002</v>
+        <v>24002</v>
       </c>
       <c r="B29" s="15">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="C29" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="30">
+        <v>227</v>
+      </c>
+      <c r="P29" s="15">
+        <v>13000</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>1</v>
+      </c>
+      <c r="R29" s="15">
+        <v>12000</v>
+      </c>
+      <c r="S29" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="30">
       <c r="A30" s="15">
-        <v>27002</v>
+        <v>24003</v>
       </c>
       <c r="B30" s="15">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="C30" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="30">
+        <v>87</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="15">
-        <v>27002</v>
+        <v>24004</v>
       </c>
       <c r="B31" s="15">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="C31" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>228</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="30">
       <c r="A32" s="15">
-        <v>27002</v>
+        <v>27000</v>
       </c>
       <c r="B32" s="15">
         <v>20600</v>
       </c>
       <c r="C32" s="15">
-        <v>4</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="30">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="15">
+        <v>27002</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N32" s="15">
+        <v>27001</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="15">
-        <v>27002</v>
+        <v>27001</v>
       </c>
       <c r="B33" s="15">
         <v>20600</v>
       </c>
       <c r="C33" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="15">
-        <v>27006</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N33" s="15">
-        <v>27003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" ht="30">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="18">
-        <v>27003</v>
+        <v>27002</v>
       </c>
       <c r="B34" s="18">
         <v>20600</v>
@@ -3203,136 +2853,233 @@
         <v>1</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>100</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="18">
-        <v>27004</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>101</v>
-      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
-      <c r="N34" s="18">
-        <v>27001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="30">
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="15">
-        <v>27004</v>
+        <v>27002</v>
       </c>
       <c r="B35" s="15">
         <v>20600</v>
       </c>
       <c r="C35" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="20" customFormat="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="18">
-        <v>27005</v>
+        <v>27002</v>
       </c>
       <c r="B36" s="18">
         <v>20600</v>
       </c>
       <c r="C36" s="18">
-        <v>1</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>100</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="18">
-        <v>27004</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>101</v>
-      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="18"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="15">
-        <v>27006</v>
+        <v>27002</v>
       </c>
       <c r="B37" s="15">
         <v>20600</v>
       </c>
       <c r="C37" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="30">
+        <v>94</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="30">
       <c r="A38" s="15">
-        <v>27006</v>
+        <v>27002</v>
       </c>
       <c r="B38" s="15">
         <v>20600</v>
       </c>
       <c r="C38" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>95</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="15">
+        <v>27006</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="N38" s="15">
+        <v>27003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="A39" s="15">
-        <v>27006</v>
+        <v>27003</v>
       </c>
       <c r="B39" s="15">
         <v>20600</v>
       </c>
       <c r="C39" s="15">
-        <v>3</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="15">
+        <v>27004</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="N39" s="15">
+        <v>27001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="15">
-        <v>27006</v>
+        <v>27004</v>
       </c>
       <c r="B40" s="15">
         <v>20600</v>
       </c>
       <c r="C40" s="15">
+        <v>1</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="15">
+        <v>27005</v>
+      </c>
+      <c r="B41" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="15">
+        <v>27004</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="15">
+        <v>27006</v>
+      </c>
+      <c r="B42" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C42" s="15">
+        <v>1</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="30">
+      <c r="A43" s="15">
+        <v>27006</v>
+      </c>
+      <c r="B43" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C43" s="15">
+        <v>2</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="15">
+        <v>27006</v>
+      </c>
+      <c r="B44" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C44" s="15">
+        <v>3</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="15">
+        <v>27006</v>
+      </c>
+      <c r="B45" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C45" s="15">
         <v>4</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D45" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="I45" s="15">
+        <v>27003</v>
+      </c>
+      <c r="J45" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="15">
-        <v>27003</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="N40" s="15">
+      <c r="N45" s="15">
         <v>27006</v>
       </c>
     </row>
@@ -3638,7 +3385,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3669,16 +3416,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3878,13 +3625,13 @@
         <v>12000</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
@@ -3904,13 +3651,13 @@
         <v>13000</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E8" s="9">
         <v>2</v>
@@ -3930,13 +3677,13 @@
         <v>15000</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E9" s="9">
         <v>2</v>
@@ -3956,13 +3703,13 @@
         <v>15001</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E10" s="9">
         <v>2</v>
@@ -3982,13 +3729,13 @@
         <v>15002</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
@@ -4008,13 +3755,13 @@
         <v>15003</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
@@ -4034,13 +3781,13 @@
         <v>15004</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -4060,13 +3807,13 @@
         <v>15005</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E14" s="9">
         <v>2</v>
@@ -4086,13 +3833,13 @@
         <v>15006</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E15" s="9">
         <v>2</v>
@@ -4112,13 +3859,13 @@
         <v>15007</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E16" s="9">
         <v>2</v>
@@ -4138,13 +3885,13 @@
         <v>15008</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E17" s="9">
         <v>2</v>
@@ -4164,13 +3911,13 @@
         <v>15009</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E18" s="9">
         <v>2</v>
@@ -4190,13 +3937,13 @@
         <v>15010</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E19" s="9">
         <v>2</v>
@@ -4216,13 +3963,13 @@
         <v>15011</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E20" s="9">
         <v>2</v>
@@ -4242,13 +3989,13 @@
         <v>15012</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E21" s="9">
         <v>2</v>
@@ -4268,13 +4015,13 @@
         <v>15013</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E22" s="9">
         <v>2</v>
@@ -4294,13 +4041,13 @@
         <v>15014</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E23" s="9">
         <v>2</v>
@@ -4320,13 +4067,13 @@
         <v>15015</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E24" s="9">
         <v>2</v>
@@ -4346,13 +4093,13 @@
         <v>15016</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E25" s="9">
         <v>2</v>
@@ -4372,13 +4119,13 @@
         <v>15017</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E26" s="9">
         <v>2</v>
@@ -4398,13 +4145,13 @@
         <v>15018</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E27" s="9">
         <v>2</v>
@@ -4430,7 +4177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -4446,19 +4193,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5">
       <c r="A1" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4469,7 +4216,7 @@
         <v>15000</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -4486,7 +4233,7 @@
         <v>15001</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -4503,7 +4250,7 @@
         <v>15002</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -4520,7 +4267,7 @@
         <v>15003</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -4537,7 +4284,7 @@
         <v>15004</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -4554,7 +4301,7 @@
         <v>15005</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -4571,7 +4318,7 @@
         <v>15006</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -4588,7 +4335,7 @@
         <v>15007</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -4605,7 +4352,7 @@
         <v>15008</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -4622,7 +4369,7 @@
         <v>15009</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -4639,7 +4386,7 @@
         <v>15010</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -4656,7 +4403,7 @@
         <v>15011</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -4673,7 +4420,7 @@
         <v>15012</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -4690,7 +4437,7 @@
         <v>15013</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -4707,7 +4454,7 @@
         <v>15014</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -4724,7 +4471,7 @@
         <v>15015</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D17" s="9">
         <v>3</v>
@@ -4741,7 +4488,7 @@
         <v>15016</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -4758,7 +4505,7 @@
         <v>15017</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -4775,7 +4522,7 @@
         <v>15018</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohgo\Desktop\Unity\SUPERmetaVR\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Slime\VR\SUPERmeta\KGA_SUPERmetaVR\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA00017-3EEA-4F4C-89EB-4FFE03E432B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
-    <sheet name="NPCDialogue" sheetId="5" r:id="rId2"/>
-    <sheet name="PeekabooCustomizing" sheetId="2" r:id="rId3"/>
-    <sheet name="SpeechBubbleSheet" sheetId="3" r:id="rId4"/>
-    <sheet name="ItemSheet" sheetId="4" r:id="rId5"/>
-    <sheet name="RewardSheet" sheetId="6" r:id="rId6"/>
+    <sheet name="NPCSheet" sheetId="7" r:id="rId2"/>
+    <sheet name="NPCDialogue" sheetId="5" r:id="rId3"/>
+    <sheet name="PeekabooCustomizing" sheetId="2" r:id="rId4"/>
+    <sheet name="SpeechBubbleSheet" sheetId="3" r:id="rId5"/>
+    <sheet name="ItemSheet" sheetId="4" r:id="rId6"/>
+    <sheet name="RewardSheet" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="216">
   <si>
     <t>id</t>
   </si>
@@ -585,9 +585,6 @@
 네 잎 클로버를 4개 모으면 말해!</t>
   </si>
   <si>
-    <t>코스튬이 갖고 싶으면 네 잎 클로버 4개를 가져와!</t>
-  </si>
-  <si>
     <t>안녕, 친구.
 재미있는 놀이가 하나 있는데 이야기해줄까?</t>
   </si>
@@ -816,564 +813,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모았으면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>언제든지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>말을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>걸어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>안녕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>나는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>코티야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>네</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>잎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>클로버를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>가져오면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>코스튬으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>변화시켜줄게</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>됐어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이쁘게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>착용해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-!</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>좋아</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ~
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>우리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>미니마니모</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>마을엔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인간과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사이좋게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>지내고싶은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>도깨비들이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>많아</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>네잎클로버</t>
   </si>
   <si>
@@ -1547,11 +986,165 @@
     <t>Sword</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>SoudEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetItemID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetItemEA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutItemID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutItemEA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_Mo_1.wav</t>
+  </si>
+  <si>
+    <t>TT_Mo_2.wav</t>
+  </si>
+  <si>
+    <t>TT_Mo_3.wav</t>
+  </si>
+  <si>
+    <t>TT_Cu_1.wav</t>
+  </si>
+  <si>
+    <t>TT_Cu_3.mp3</t>
+  </si>
+  <si>
+    <t>TT_Cu_2.mp3</t>
+  </si>
+  <si>
+    <t>안녕? 적응은 잘 하고있어? 즐거운 하루 보내!</t>
+  </si>
+  <si>
+    <t>나는 여기서 항상 새로운 어린이들을 인도해!</t>
+  </si>
+  <si>
+    <t>쿠가 좀 까칠하지? 하지만 마음은 따듯한 녀석이야-</t>
+  </si>
+  <si>
+    <t>이 쿠님이 보고싶어서 왔나?</t>
+  </si>
+  <si>
+    <t>어린이- 저기가서 놀아- 이 쿠님은 바쁘다고-</t>
+  </si>
+  <si>
+    <t>안녕- 나는 코티야. 네 잎 클로버를 4개 가져오면 코스튬으로 변화시켜줄게</t>
+  </si>
+  <si>
+    <t>CC_Coty_1.mp3</t>
+  </si>
+  <si>
+    <t>4개를 모았으면 언제든지 말을 걸어!</t>
+  </si>
+  <si>
+    <t>CC_Coty_2.mp3</t>
+  </si>
+  <si>
+    <t>CC_Coty_3.mp3</t>
+  </si>
+  <si>
+    <t>다 됐어-! 이쁘게 착용해-!</t>
+  </si>
+  <si>
+    <t>CC_Coty_4.mp3</t>
+  </si>
+  <si>
+    <t>음? 코스튬이 갖고 싶으면 네 잎 클로버 4개를 가져와!</t>
+  </si>
+  <si>
+    <t>CC_Coty_5.mp3</t>
+  </si>
+  <si>
+    <t>PK_BOO_1.mp3</t>
+  </si>
+  <si>
+    <t>좋아 ~
+우리 미니마니모 마을엔 인간과 사이좋게 지내고싶은 도깨비들이 많아</t>
+  </si>
+  <si>
+    <t>PK_BOO_2.mp3</t>
+  </si>
+  <si>
+    <t>모</t>
+  </si>
+  <si>
+    <t>쿠</t>
+  </si>
+  <si>
+    <t>코티</t>
+  </si>
+  <si>
+    <t>부</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ame</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ype</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nimation</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -1921,23 +1514,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="92" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="9" customWidth="1"/>
     <col min="6" max="7" width="9" style="9" customWidth="1"/>
-    <col min="8" max="27" width="8.7265625" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="14.453125" style="9"/>
+    <col min="8" max="27" width="8.7109375" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1">
@@ -1979,7 +1572,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="29">
+    <row r="2" spans="1:27" ht="30">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -2244,7 +1837,7 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="29">
+    <row r="9" spans="1:27" ht="30">
       <c r="A9" s="11">
         <v>52004</v>
       </c>
@@ -2429,7 +2022,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="29">
+    <row r="14" spans="1:27" ht="30">
       <c r="A14" s="11">
         <v>52009</v>
       </c>
@@ -2489,71 +2082,168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="15"/>
-    <col min="4" max="4" width="82.54296875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="15" customWidth="1"/>
-    <col min="6" max="9" width="29.26953125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="15" customWidth="1"/>
-    <col min="11" max="14" width="29.26953125" style="15" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="16"/>
+    <col min="1" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1">
+    <row r="1" spans="1:4" s="9" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9">
+        <v>20000</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9">
+        <v>20001</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9">
+        <v>20300</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9">
+        <v>20600</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="15"/>
+    <col min="4" max="4" width="82.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="15" customWidth="1"/>
+    <col min="6" max="9" width="29.28515625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
+    <col min="11" max="14" width="29.28515625" style="15" customWidth="1"/>
+    <col min="15" max="20" width="14.85546875" style="16" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="15" customFormat="1">
       <c r="A1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="15">
-        <v>21001</v>
+        <v>21000</v>
       </c>
       <c r="B2" s="15">
         <v>20000</v>
@@ -2562,10 +2252,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="29">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="30">
       <c r="A3" s="15">
         <v>21001</v>
       </c>
@@ -2573,13 +2263,16 @@
         <v>20000</v>
       </c>
       <c r="C3" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="29">
+      <c r="O3" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30">
       <c r="A4" s="15">
         <v>21001</v>
       </c>
@@ -2587,13 +2280,16 @@
         <v>20000</v>
       </c>
       <c r="C4" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="29">
+      <c r="O4" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30">
       <c r="A5" s="15">
         <v>21001</v>
       </c>
@@ -2601,13 +2297,13 @@
         <v>20000</v>
       </c>
       <c r="C5" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="29">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30">
       <c r="A6" s="15">
         <v>21001</v>
       </c>
@@ -2615,13 +2311,13 @@
         <v>20000</v>
       </c>
       <c r="C6" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:20">
       <c r="A7" s="15">
         <v>21001</v>
       </c>
@@ -2629,13 +2325,13 @@
         <v>20000</v>
       </c>
       <c r="C7" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="29">
+    <row r="8" spans="1:20" ht="30">
       <c r="A8" s="15">
         <v>21001</v>
       </c>
@@ -2643,13 +2339,16 @@
         <v>20000</v>
       </c>
       <c r="C8" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="20" customFormat="1" ht="29">
+        <v>109</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="20" customFormat="1" ht="30">
       <c r="A9" s="18">
         <v>21002</v>
       </c>
@@ -2673,7 +2372,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" ht="29">
+    <row r="10" spans="1:20" ht="30">
       <c r="A10" s="15">
         <v>21003</v>
       </c>
@@ -2684,10 +2383,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>110</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="15">
         <v>21003</v>
       </c>
@@ -2701,7 +2403,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="20" customFormat="1">
+    <row r="12" spans="1:20" s="20" customFormat="1">
       <c r="A12" s="18">
         <v>21004</v>
       </c>
@@ -2712,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -2724,8 +2426,11 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
-    </row>
-    <row r="13" spans="1:14" s="20" customFormat="1" ht="29">
+      <c r="O12" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="20" customFormat="1" ht="30">
       <c r="A13" s="18">
         <v>21004</v>
       </c>
@@ -2736,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -2749,7 +2454,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" ht="29">
+    <row r="14" spans="1:20" ht="30">
       <c r="A14" s="15">
         <v>21005</v>
       </c>
@@ -2763,7 +2468,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="29">
+    <row r="15" spans="1:20" ht="30">
       <c r="A15" s="15">
         <v>21005</v>
       </c>
@@ -2777,7 +2482,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="29">
+    <row r="16" spans="1:20" ht="30">
       <c r="A16" s="15">
         <v>21005</v>
       </c>
@@ -2791,7 +2496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="29">
+    <row r="17" spans="1:19" ht="30">
       <c r="A17" s="15">
         <v>21005</v>
       </c>
@@ -2802,10 +2507,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="29">
+        <v>113</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="30">
       <c r="A18" s="15">
         <v>21005</v>
       </c>
@@ -2816,10 +2524,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="15">
         <v>21005</v>
       </c>
@@ -2830,21 +2538,21 @@
         <v>6</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="20" customFormat="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="20" customFormat="1">
       <c r="A20" s="18">
-        <v>24000</v>
+        <v>21006</v>
       </c>
       <c r="B20" s="18">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="C20" s="18">
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -2856,19 +2564,22 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="1:14" s="20" customFormat="1">
+      <c r="O20" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="20" customFormat="1">
       <c r="A21" s="18">
-        <v>24000</v>
+        <v>21007</v>
       </c>
       <c r="B21" s="18">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="C21" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -2880,48 +2591,39 @@
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="15">
-        <v>24001</v>
+        <v>21008</v>
       </c>
       <c r="B22" s="15">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="C22" s="15">
         <v>1</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="15">
-        <v>24002</v>
-      </c>
-      <c r="I22" s="15">
-        <v>24003</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N22" s="15">
-        <v>24004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="20" customFormat="1">
+        <v>194</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="20" customFormat="1">
       <c r="A23" s="18">
-        <v>24002</v>
+        <v>21009</v>
       </c>
       <c r="B23" s="18">
-        <v>20300</v>
+        <v>20001</v>
       </c>
       <c r="C23" s="18">
         <v>1</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -2934,18 +2636,18 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" s="20" customFormat="1">
+    <row r="24" spans="1:19" s="20" customFormat="1">
       <c r="A24" s="18">
-        <v>24002</v>
+        <v>21010</v>
       </c>
       <c r="B24" s="18">
-        <v>20300</v>
+        <v>20001</v>
       </c>
       <c r="C24" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -2958,9 +2660,9 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" ht="29">
+    <row r="25" spans="1:19">
       <c r="A25" s="15">
-        <v>24003</v>
+        <v>24000</v>
       </c>
       <c r="B25" s="15">
         <v>20300</v>
@@ -2969,21 +2671,24 @@
         <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="20" customFormat="1">
+        <v>197</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="20" customFormat="1">
       <c r="A26" s="18">
-        <v>24004</v>
+        <v>24000</v>
       </c>
       <c r="B26" s="18">
         <v>20300</v>
       </c>
       <c r="C26" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -2996,44 +2701,56 @@
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" ht="29">
+    <row r="27" spans="1:19">
       <c r="A27" s="15">
-        <v>27000</v>
+        <v>24001</v>
       </c>
       <c r="B27" s="15">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="C27" s="15">
         <v>1</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="F27" s="15">
+        <v>12000</v>
+      </c>
+      <c r="G27" s="15">
+        <v>4</v>
+      </c>
+      <c r="H27" s="15">
+        <v>24002</v>
       </c>
       <c r="I27" s="15">
-        <v>27002</v>
+        <v>24003</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N27" s="15">
-        <v>27001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="20" customFormat="1" ht="29">
+        <v>24004</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="20" customFormat="1">
       <c r="A28" s="18">
-        <v>27001</v>
+        <v>24002</v>
       </c>
       <c r="B28" s="18">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="C28" s="18">
         <v>1</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -3045,92 +2762,116 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
-    </row>
-    <row r="29" spans="1:14" ht="29">
+      <c r="O28" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="15">
-        <v>27002</v>
+        <v>24002</v>
       </c>
       <c r="B29" s="15">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="C29" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="29">
+        <v>202</v>
+      </c>
+      <c r="P29" s="16">
+        <v>13000</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>1</v>
+      </c>
+      <c r="R29" s="16">
+        <v>12000</v>
+      </c>
+      <c r="S29" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="30">
       <c r="A30" s="15">
-        <v>27002</v>
+        <v>24003</v>
       </c>
       <c r="B30" s="15">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="C30" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="29">
+        <v>85</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="15">
-        <v>27002</v>
+        <v>24004</v>
       </c>
       <c r="B31" s="15">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="C31" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>204</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="30">
       <c r="A32" s="15">
-        <v>27002</v>
+        <v>27000</v>
       </c>
       <c r="B32" s="15">
         <v>20600</v>
       </c>
       <c r="C32" s="15">
-        <v>4</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="29">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="15">
+        <v>27002</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N32" s="15">
+        <v>27001</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="30">
       <c r="A33" s="15">
-        <v>27002</v>
+        <v>27001</v>
       </c>
       <c r="B33" s="15">
         <v>20600</v>
       </c>
       <c r="C33" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="15">
-        <v>27006</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="N33" s="15">
-        <v>27003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" ht="29">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="20" customFormat="1" ht="30">
       <c r="A34" s="18">
-        <v>27003</v>
+        <v>27002</v>
       </c>
       <c r="B34" s="18">
         <v>20600</v>
@@ -3139,136 +2880,231 @@
         <v>1</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>98</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="18">
-        <v>27004</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>99</v>
-      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
-      <c r="N34" s="18">
-        <v>27001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="29">
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="1:15" ht="30">
       <c r="A35" s="15">
-        <v>27004</v>
+        <v>27002</v>
       </c>
       <c r="B35" s="15">
         <v>20600</v>
       </c>
       <c r="C35" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="20" customFormat="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="20" customFormat="1" ht="30">
       <c r="A36" s="18">
-        <v>27005</v>
+        <v>27002</v>
       </c>
       <c r="B36" s="18">
         <v>20600</v>
       </c>
       <c r="C36" s="18">
-        <v>1</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>98</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="18">
-        <v>27004</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>99</v>
-      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:15">
       <c r="A37" s="15">
-        <v>27006</v>
+        <v>27002</v>
       </c>
       <c r="B37" s="15">
         <v>20600</v>
       </c>
       <c r="C37" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="29">
+        <v>92</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="30">
       <c r="A38" s="15">
-        <v>27006</v>
+        <v>27002</v>
       </c>
       <c r="B38" s="15">
         <v>20600</v>
       </c>
       <c r="C38" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>93</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="15">
+        <v>27006</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N38" s="15">
+        <v>27003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="30">
       <c r="A39" s="15">
-        <v>27006</v>
+        <v>27003</v>
       </c>
       <c r="B39" s="15">
         <v>20600</v>
       </c>
       <c r="C39" s="15">
-        <v>3</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="15">
+        <v>27004</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="N39" s="15">
+        <v>27001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="30">
       <c r="A40" s="15">
-        <v>27006</v>
+        <v>27004</v>
       </c>
       <c r="B40" s="15">
         <v>20600</v>
       </c>
       <c r="C40" s="15">
+        <v>1</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="15">
+        <v>27005</v>
+      </c>
+      <c r="B41" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="15">
+        <v>27004</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="15">
+        <v>27006</v>
+      </c>
+      <c r="B42" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C42" s="15">
+        <v>1</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="30">
+      <c r="A43" s="15">
+        <v>27006</v>
+      </c>
+      <c r="B43" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C43" s="15">
+        <v>2</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="15">
+        <v>27006</v>
+      </c>
+      <c r="B44" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C44" s="15">
+        <v>3</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="15">
+        <v>27006</v>
+      </c>
+      <c r="B45" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C45" s="15">
         <v>4</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D45" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="I45" s="15">
+        <v>27003</v>
+      </c>
+      <c r="J45" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I40" s="15">
-        <v>27003</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="N40" s="15">
+      <c r="N45" s="15">
         <v>27006</v>
       </c>
     </row>
@@ -3279,20 +3115,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" customWidth="1"/>
-    <col min="5" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
@@ -3386,20 +3222,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="66.81640625" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
     <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
@@ -3569,23 +3405,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" style="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="9" customFormat="1" ht="16.5" customHeight="1">
@@ -3605,16 +3441,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3821,7 +3657,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>41</v>
@@ -3859,10 +3695,10 @@
         <v>12000</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>35</v>
@@ -3885,10 +3721,10 @@
         <v>13000</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>38</v>
@@ -3911,10 +3747,10 @@
         <v>15000</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>38</v>
@@ -3937,10 +3773,10 @@
         <v>15001</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>38</v>
@@ -3963,10 +3799,10 @@
         <v>15002</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>38</v>
@@ -3989,10 +3825,10 @@
         <v>15003</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>38</v>
@@ -4015,10 +3851,10 @@
         <v>15004</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>38</v>
@@ -4041,10 +3877,10 @@
         <v>15005</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>38</v>
@@ -4067,10 +3903,10 @@
         <v>15006</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>38</v>
@@ -4093,10 +3929,10 @@
         <v>15007</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>38</v>
@@ -4119,10 +3955,10 @@
         <v>15008</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>38</v>
@@ -4145,10 +3981,10 @@
         <v>15009</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>38</v>
@@ -4171,10 +4007,10 @@
         <v>15010</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>38</v>
@@ -4197,10 +4033,10 @@
         <v>15011</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>38</v>
@@ -4223,10 +4059,10 @@
         <v>15012</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>38</v>
@@ -4249,10 +4085,10 @@
         <v>15013</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>38</v>
@@ -4275,10 +4111,10 @@
         <v>15014</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>38</v>
@@ -4301,10 +4137,10 @@
         <v>15015</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>38</v>
@@ -4327,10 +4163,10 @@
         <v>15016</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>38</v>
@@ -4353,10 +4189,10 @@
         <v>15017</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>38</v>
@@ -4379,10 +4215,10 @@
         <v>15018</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>38</v>
@@ -4407,39 +4243,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="9"/>
-    <col min="2" max="2" width="10.7265625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="10.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
+    <row r="1" spans="1:5" ht="16.5">
       <c r="A1" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4450,7 +4286,7 @@
         <v>15000</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -4467,7 +4303,7 @@
         <v>15001</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -4484,7 +4320,7 @@
         <v>15002</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -4501,7 +4337,7 @@
         <v>15003</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -4518,7 +4354,7 @@
         <v>15004</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -4535,7 +4371,7 @@
         <v>15005</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -4552,7 +4388,7 @@
         <v>15006</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -4569,7 +4405,7 @@
         <v>15007</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -4586,7 +4422,7 @@
         <v>15008</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -4603,7 +4439,7 @@
         <v>15009</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -4620,7 +4456,7 @@
         <v>15010</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -4637,7 +4473,7 @@
         <v>15011</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -4654,7 +4490,7 @@
         <v>15012</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -4671,7 +4507,7 @@
         <v>15013</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -4688,7 +4524,7 @@
         <v>15014</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -4705,7 +4541,7 @@
         <v>15015</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D17" s="9">
         <v>3</v>
@@ -4722,7 +4558,7 @@
         <v>15016</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -4739,7 +4575,7 @@
         <v>15017</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -4756,7 +4592,7 @@
         <v>15018</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Slime\VR\SUPERmeta\KGA_SUPERmetaVR\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohgo\Desktop\Unity\SUPERmetaVR\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA00017-3EEA-4F4C-89EB-4FFE03E432B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
-    <sheet name="NPCSheet" sheetId="7" r:id="rId2"/>
-    <sheet name="NPCDialogue" sheetId="5" r:id="rId3"/>
-    <sheet name="PeekabooCustomizing" sheetId="2" r:id="rId4"/>
-    <sheet name="SpeechBubbleSheet" sheetId="3" r:id="rId5"/>
-    <sheet name="ItemSheet" sheetId="4" r:id="rId6"/>
-    <sheet name="RewardSheet" sheetId="6" r:id="rId7"/>
+    <sheet name="NPCDialogue" sheetId="5" r:id="rId2"/>
+    <sheet name="PeekabooCustomizing" sheetId="2" r:id="rId3"/>
+    <sheet name="SpeechBubbleSheet" sheetId="3" r:id="rId4"/>
+    <sheet name="ItemSheet" sheetId="4" r:id="rId5"/>
+    <sheet name="RewardSheet" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="185">
   <si>
     <t>id</t>
   </si>
@@ -585,6 +585,9 @@
 네 잎 클로버를 4개 모으면 말해!</t>
   </si>
   <si>
+    <t>코스튬이 갖고 싶으면 네 잎 클로버 4개를 가져와!</t>
+  </si>
+  <si>
     <t>안녕, 친구.
 재미있는 놀이가 하나 있는데 이야기해줄까?</t>
   </si>
@@ -813,6 +816,564 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모았으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>언제든지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>말을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>걸어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>안녕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>나는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>코티야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>잎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>클로버를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가져오면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>코스튬으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>변화시켜줄게</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>됐어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이쁘게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>착용해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>좋아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ~
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>우리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>미니마니모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마을엔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인간과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사이좋게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지내고싶은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>도깨비들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>많아</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>네잎클로버</t>
   </si>
   <si>
@@ -984,167 +1545,13 @@
   </si>
   <si>
     <t>Sword</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SoudEffect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetItemID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetItemEA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutItemID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutItemEA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Animation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TT_Mo_1.wav</t>
-  </si>
-  <si>
-    <t>TT_Mo_2.wav</t>
-  </si>
-  <si>
-    <t>TT_Mo_3.wav</t>
-  </si>
-  <si>
-    <t>TT_Cu_1.wav</t>
-  </si>
-  <si>
-    <t>TT_Cu_3.mp3</t>
-  </si>
-  <si>
-    <t>TT_Cu_2.mp3</t>
-  </si>
-  <si>
-    <t>안녕? 적응은 잘 하고있어? 즐거운 하루 보내!</t>
-  </si>
-  <si>
-    <t>나는 여기서 항상 새로운 어린이들을 인도해!</t>
-  </si>
-  <si>
-    <t>쿠가 좀 까칠하지? 하지만 마음은 따듯한 녀석이야-</t>
-  </si>
-  <si>
-    <t>이 쿠님이 보고싶어서 왔나?</t>
-  </si>
-  <si>
-    <t>어린이- 저기가서 놀아- 이 쿠님은 바쁘다고-</t>
-  </si>
-  <si>
-    <t>안녕- 나는 코티야. 네 잎 클로버를 4개 가져오면 코스튬으로 변화시켜줄게</t>
-  </si>
-  <si>
-    <t>CC_Coty_1.mp3</t>
-  </si>
-  <si>
-    <t>4개를 모았으면 언제든지 말을 걸어!</t>
-  </si>
-  <si>
-    <t>CC_Coty_2.mp3</t>
-  </si>
-  <si>
-    <t>CC_Coty_3.mp3</t>
-  </si>
-  <si>
-    <t>다 됐어-! 이쁘게 착용해-!</t>
-  </si>
-  <si>
-    <t>CC_Coty_4.mp3</t>
-  </si>
-  <si>
-    <t>음? 코스튬이 갖고 싶으면 네 잎 클로버 4개를 가져와!</t>
-  </si>
-  <si>
-    <t>CC_Coty_5.mp3</t>
-  </si>
-  <si>
-    <t>PK_BOO_1.mp3</t>
-  </si>
-  <si>
-    <t>좋아 ~
-우리 미니마니모 마을엔 인간과 사이좋게 지내고싶은 도깨비들이 많아</t>
-  </si>
-  <si>
-    <t>PK_BOO_2.mp3</t>
-  </si>
-  <si>
-    <t>모</t>
-  </si>
-  <si>
-    <t>쿠</t>
-  </si>
-  <si>
-    <t>코티</t>
-  </si>
-  <si>
-    <t>부</t>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ame</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ype</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nimation</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -1514,23 +1921,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="9" customWidth="1"/>
     <col min="3" max="3" width="92" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="9" customWidth="1"/>
     <col min="6" max="7" width="9" style="9" customWidth="1"/>
-    <col min="8" max="27" width="8.7109375" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="9"/>
+    <col min="8" max="27" width="8.7265625" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="14.453125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1">
@@ -1572,7 +1979,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="30">
+    <row r="2" spans="1:27" ht="29">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1837,7 +2244,7 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="30">
+    <row r="9" spans="1:27" ht="29">
       <c r="A9" s="11">
         <v>52004</v>
       </c>
@@ -2022,7 +2429,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="30">
+    <row r="14" spans="1:27" ht="29">
       <c r="A14" s="11">
         <v>52009</v>
       </c>
@@ -2082,168 +2489,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="3" width="9.1796875" style="15"/>
+    <col min="4" max="4" width="82.54296875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="15" customWidth="1"/>
+    <col min="6" max="9" width="29.26953125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="15" customWidth="1"/>
+    <col min="11" max="14" width="29.26953125" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1">
-      <c r="A1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="9">
-        <v>20000</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="9">
-        <v>20001</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="9">
-        <v>20300</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="9">
-        <v>20600</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" style="15"/>
-    <col min="4" max="4" width="82.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="15" customWidth="1"/>
-    <col min="6" max="9" width="29.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
-    <col min="11" max="14" width="29.28515625" style="15" customWidth="1"/>
-    <col min="15" max="20" width="14.85546875" style="16" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="15" customFormat="1">
+    <row r="1" spans="1:14" s="15" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="I1" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="15">
-        <v>21000</v>
+        <v>21001</v>
       </c>
       <c r="B2" s="15">
         <v>20000</v>
@@ -2252,10 +2562,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="29">
       <c r="A3" s="15">
         <v>21001</v>
       </c>
@@ -2263,16 +2573,13 @@
         <v>20000</v>
       </c>
       <c r="C3" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="30">
+    </row>
+    <row r="4" spans="1:14" ht="29">
       <c r="A4" s="15">
         <v>21001</v>
       </c>
@@ -2280,16 +2587,13 @@
         <v>20000</v>
       </c>
       <c r="C4" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30">
+    </row>
+    <row r="5" spans="1:14" ht="29">
       <c r="A5" s="15">
         <v>21001</v>
       </c>
@@ -2297,13 +2601,13 @@
         <v>20000</v>
       </c>
       <c r="C5" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="29">
       <c r="A6" s="15">
         <v>21001</v>
       </c>
@@ -2311,13 +2615,13 @@
         <v>20000</v>
       </c>
       <c r="C6" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:14">
       <c r="A7" s="15">
         <v>21001</v>
       </c>
@@ -2325,13 +2629,13 @@
         <v>20000</v>
       </c>
       <c r="C7" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="30">
+    <row r="8" spans="1:14" ht="29">
       <c r="A8" s="15">
         <v>21001</v>
       </c>
@@ -2339,16 +2643,13 @@
         <v>20000</v>
       </c>
       <c r="C8" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="20" customFormat="1" ht="30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="20" customFormat="1" ht="29">
       <c r="A9" s="18">
         <v>21002</v>
       </c>
@@ -2372,7 +2673,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:20" ht="30">
+    <row r="10" spans="1:14" ht="29">
       <c r="A10" s="15">
         <v>21003</v>
       </c>
@@ -2383,13 +2684,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="15">
         <v>21003</v>
       </c>
@@ -2403,7 +2701,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="20" customFormat="1">
+    <row r="12" spans="1:14" s="20" customFormat="1">
       <c r="A12" s="18">
         <v>21004</v>
       </c>
@@ -2414,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -2426,11 +2724,8 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
-      <c r="O12" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="20" customFormat="1" ht="30">
+    </row>
+    <row r="13" spans="1:14" s="20" customFormat="1" ht="29">
       <c r="A13" s="18">
         <v>21004</v>
       </c>
@@ -2441,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -2454,7 +2749,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:20" ht="30">
+    <row r="14" spans="1:14" ht="29">
       <c r="A14" s="15">
         <v>21005</v>
       </c>
@@ -2468,7 +2763,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30">
+    <row r="15" spans="1:14" ht="29">
       <c r="A15" s="15">
         <v>21005</v>
       </c>
@@ -2482,7 +2777,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30">
+    <row r="16" spans="1:14" ht="29">
       <c r="A16" s="15">
         <v>21005</v>
       </c>
@@ -2496,7 +2791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30">
+    <row r="17" spans="1:14" ht="29">
       <c r="A17" s="15">
         <v>21005</v>
       </c>
@@ -2507,13 +2802,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="29">
       <c r="A18" s="15">
         <v>21005</v>
       </c>
@@ -2524,10 +2816,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="15">
         <v>21005</v>
       </c>
@@ -2538,21 +2830,21 @@
         <v>6</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="20" customFormat="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="20" customFormat="1">
       <c r="A20" s="18">
-        <v>21006</v>
+        <v>24000</v>
       </c>
       <c r="B20" s="18">
-        <v>20000</v>
+        <v>20300</v>
       </c>
       <c r="C20" s="18">
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -2564,22 +2856,19 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="20" customFormat="1">
+    </row>
+    <row r="21" spans="1:14" s="20" customFormat="1">
       <c r="A21" s="18">
-        <v>21007</v>
+        <v>24000</v>
       </c>
       <c r="B21" s="18">
-        <v>20000</v>
+        <v>20300</v>
       </c>
       <c r="C21" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -2591,39 +2880,48 @@
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
-      <c r="O21" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="15">
-        <v>21008</v>
+        <v>24001</v>
       </c>
       <c r="B22" s="15">
-        <v>20000</v>
+        <v>20300</v>
       </c>
       <c r="C22" s="15">
         <v>1</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="20" customFormat="1">
+        <v>81</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="15">
+        <v>24002</v>
+      </c>
+      <c r="I22" s="15">
+        <v>24003</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="15">
+        <v>24004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="20" customFormat="1">
       <c r="A23" s="18">
-        <v>21009</v>
+        <v>24002</v>
       </c>
       <c r="B23" s="18">
-        <v>20001</v>
+        <v>20300</v>
       </c>
       <c r="C23" s="18">
         <v>1</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -2636,18 +2934,18 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:19" s="20" customFormat="1">
+    <row r="24" spans="1:14" s="20" customFormat="1">
       <c r="A24" s="18">
-        <v>21010</v>
+        <v>24002</v>
       </c>
       <c r="B24" s="18">
-        <v>20001</v>
+        <v>20300</v>
       </c>
       <c r="C24" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -2660,9 +2958,9 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:14" ht="29">
       <c r="A25" s="15">
-        <v>24000</v>
+        <v>24003</v>
       </c>
       <c r="B25" s="15">
         <v>20300</v>
@@ -2671,24 +2969,21 @@
         <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="20" customFormat="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="20" customFormat="1">
       <c r="A26" s="18">
-        <v>24000</v>
+        <v>24004</v>
       </c>
       <c r="B26" s="18">
         <v>20300</v>
       </c>
       <c r="C26" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -2701,56 +2996,44 @@
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:14" ht="29">
       <c r="A27" s="15">
-        <v>24001</v>
+        <v>27000</v>
       </c>
       <c r="B27" s="15">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="C27" s="15">
         <v>1</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="15">
-        <v>12000</v>
-      </c>
-      <c r="G27" s="15">
-        <v>4</v>
-      </c>
-      <c r="H27" s="15">
-        <v>24002</v>
+        <v>88</v>
       </c>
       <c r="I27" s="15">
-        <v>24003</v>
+        <v>27002</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N27" s="15">
-        <v>24004</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="20" customFormat="1">
+        <v>27001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="20" customFormat="1" ht="29">
       <c r="A28" s="18">
-        <v>24002</v>
+        <v>27001</v>
       </c>
       <c r="B28" s="18">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="C28" s="18">
         <v>1</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -2762,116 +3045,92 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
-      <c r="O28" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+    </row>
+    <row r="29" spans="1:14" ht="29">
       <c r="A29" s="15">
-        <v>24002</v>
+        <v>27002</v>
       </c>
       <c r="B29" s="15">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="29">
+      <c r="A30" s="15">
+        <v>27002</v>
+      </c>
+      <c r="B30" s="15">
+        <v>20600</v>
+      </c>
+      <c r="C30" s="15">
         <v>2</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="P29" s="16">
-        <v>13000</v>
-      </c>
-      <c r="Q29" s="16">
-        <v>1</v>
-      </c>
-      <c r="R29" s="16">
-        <v>12000</v>
-      </c>
-      <c r="S29" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="30">
-      <c r="A30" s="15">
-        <v>24003</v>
-      </c>
-      <c r="B30" s="15">
-        <v>20300</v>
-      </c>
-      <c r="C30" s="15">
-        <v>1</v>
-      </c>
       <c r="D30" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="29">
       <c r="A31" s="15">
-        <v>24004</v>
+        <v>27002</v>
       </c>
       <c r="B31" s="15">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="C31" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="30">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="15">
-        <v>27000</v>
+        <v>27002</v>
       </c>
       <c r="B32" s="15">
         <v>20600</v>
       </c>
       <c r="C32" s="15">
-        <v>1</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="15">
+        <v>4</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="29">
+      <c r="A33" s="15">
         <v>27002</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N32" s="15">
-        <v>27001</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="30">
-      <c r="A33" s="15">
-        <v>27001</v>
       </c>
       <c r="B33" s="15">
         <v>20600</v>
       </c>
       <c r="C33" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="20" customFormat="1" ht="30">
+        <v>94</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="15">
+        <v>27006</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N33" s="15">
+        <v>27003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="20" customFormat="1" ht="29">
       <c r="A34" s="18">
-        <v>27002</v>
+        <v>27003</v>
       </c>
       <c r="B34" s="18">
         <v>20600</v>
@@ -2880,231 +3139,136 @@
         <v>1</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" s="18"/>
+        <v>97</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="I34" s="18">
+        <v>27004</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="1:15" ht="30">
+      <c r="N34" s="18">
+        <v>27001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="29">
       <c r="A35" s="15">
-        <v>27002</v>
+        <v>27004</v>
       </c>
       <c r="B35" s="15">
         <v>20600</v>
       </c>
       <c r="C35" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="20" customFormat="1" ht="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1">
       <c r="A36" s="18">
-        <v>27002</v>
+        <v>27005</v>
       </c>
       <c r="B36" s="18">
         <v>20600</v>
       </c>
       <c r="C36" s="18">
-        <v>3</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
+      <c r="I36" s="18">
+        <v>27004</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:14">
       <c r="A37" s="15">
-        <v>27002</v>
+        <v>27006</v>
       </c>
       <c r="B37" s="15">
         <v>20600</v>
       </c>
       <c r="C37" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="30">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="29">
       <c r="A38" s="15">
-        <v>27002</v>
+        <v>27006</v>
       </c>
       <c r="B38" s="15">
         <v>20600</v>
       </c>
       <c r="C38" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="15">
         <v>27006</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="N38" s="15">
-        <v>27003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="30">
-      <c r="A39" s="15">
-        <v>27003</v>
       </c>
       <c r="B39" s="15">
         <v>20600</v>
       </c>
       <c r="C39" s="15">
-        <v>1</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="15">
-        <v>27004</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N39" s="15">
-        <v>27001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="30">
+        <v>3</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="15">
-        <v>27004</v>
+        <v>27006</v>
       </c>
       <c r="B40" s="15">
         <v>20600</v>
       </c>
       <c r="C40" s="15">
-        <v>1</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="15">
-        <v>27005</v>
-      </c>
-      <c r="B41" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C41" s="15">
-        <v>1</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I41" s="15">
-        <v>27004</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="O41" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="15">
-        <v>27006</v>
-      </c>
-      <c r="B42" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C42" s="15">
-        <v>1</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="30">
-      <c r="A43" s="15">
-        <v>27006</v>
-      </c>
-      <c r="B43" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C43" s="15">
-        <v>2</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="15">
-        <v>27006</v>
-      </c>
-      <c r="B44" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C44" s="15">
-        <v>3</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="15">
-        <v>27006</v>
-      </c>
-      <c r="B45" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C45" s="15">
         <v>4</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="15" t="s">
+      <c r="D40" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I45" s="15">
+      <c r="E40" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="15">
         <v>27003</v>
       </c>
-      <c r="J45" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N45" s="15">
+      <c r="J40" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="N40" s="15">
         <v>27006</v>
       </c>
     </row>
@@ -3115,20 +3279,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
@@ -3222,20 +3386,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.81640625" customWidth="1"/>
     <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
@@ -3405,23 +3569,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="78.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
     <col min="5" max="5" width="13" style="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="9" customFormat="1" ht="16.5" customHeight="1">
@@ -3441,16 +3605,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3657,7 +3821,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>41</v>
@@ -3695,10 +3859,10 @@
         <v>12000</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>35</v>
@@ -3721,10 +3885,10 @@
         <v>13000</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>38</v>
@@ -3747,10 +3911,10 @@
         <v>15000</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>38</v>
@@ -3773,10 +3937,10 @@
         <v>15001</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>38</v>
@@ -3799,10 +3963,10 @@
         <v>15002</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>38</v>
@@ -3825,10 +3989,10 @@
         <v>15003</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>38</v>
@@ -3851,10 +4015,10 @@
         <v>15004</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>38</v>
@@ -3877,10 +4041,10 @@
         <v>15005</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>38</v>
@@ -3903,10 +4067,10 @@
         <v>15006</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>38</v>
@@ -3929,10 +4093,10 @@
         <v>15007</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>38</v>
@@ -3955,10 +4119,10 @@
         <v>15008</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>38</v>
@@ -3981,10 +4145,10 @@
         <v>15009</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>38</v>
@@ -4007,10 +4171,10 @@
         <v>15010</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>38</v>
@@ -4033,10 +4197,10 @@
         <v>15011</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>38</v>
@@ -4059,10 +4223,10 @@
         <v>15012</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>38</v>
@@ -4085,10 +4249,10 @@
         <v>15013</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>38</v>
@@ -4111,10 +4275,10 @@
         <v>15014</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>38</v>
@@ -4137,10 +4301,10 @@
         <v>15015</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>38</v>
@@ -4163,10 +4327,10 @@
         <v>15016</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>38</v>
@@ -4189,10 +4353,10 @@
         <v>15017</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>38</v>
@@ -4215,10 +4379,10 @@
         <v>15018</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>38</v>
@@ -4243,39 +4407,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="10.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.1796875" style="9"/>
+    <col min="2" max="2" width="10.7265625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4286,7 +4450,7 @@
         <v>15000</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -4303,7 +4467,7 @@
         <v>15001</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -4320,7 +4484,7 @@
         <v>15002</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -4337,7 +4501,7 @@
         <v>15003</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -4354,7 +4518,7 @@
         <v>15004</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -4371,7 +4535,7 @@
         <v>15005</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -4388,7 +4552,7 @@
         <v>15006</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -4405,7 +4569,7 @@
         <v>15007</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -4422,7 +4586,7 @@
         <v>15008</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -4439,7 +4603,7 @@
         <v>15009</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -4456,7 +4620,7 @@
         <v>15010</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -4473,7 +4637,7 @@
         <v>15011</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -4490,7 +4654,7 @@
         <v>15012</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -4507,7 +4671,7 @@
         <v>15013</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -4524,7 +4688,7 @@
         <v>15014</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -4541,7 +4705,7 @@
         <v>15015</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D17" s="9">
         <v>3</v>
@@ -4558,7 +4722,7 @@
         <v>15016</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -4575,7 +4739,7 @@
         <v>15017</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -4592,7 +4756,7 @@
         <v>15018</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Slime\VR\SUPERmeta\KGA_SUPERmetaVR\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohgo\Desktop\Unity\SUPERmetaVR\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C862C13-77C8-4277-AA6B-A4E6370A648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="217">
   <si>
     <t>id</t>
   </si>
@@ -1140,11 +1141,14 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>FourLeafClover</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -1514,23 +1518,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="9" customWidth="1"/>
     <col min="3" max="3" width="92" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="9" customWidth="1"/>
     <col min="6" max="7" width="9" style="9" customWidth="1"/>
-    <col min="8" max="27" width="8.7109375" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="9"/>
+    <col min="8" max="27" width="8.7265625" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="14.453125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1">
@@ -1572,7 +1576,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="30">
+    <row r="2" spans="1:27" ht="29">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1837,7 +1841,7 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="30">
+    <row r="9" spans="1:27" ht="29">
       <c r="A9" s="11">
         <v>52004</v>
       </c>
@@ -2022,7 +2026,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="30">
+    <row r="14" spans="1:27" ht="29">
       <c r="A14" s="11">
         <v>52009</v>
       </c>
@@ -2082,17 +2086,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="3" width="9.1796875" style="9"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1">
@@ -2160,23 +2164,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="15"/>
-    <col min="4" max="4" width="82.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="15" customWidth="1"/>
-    <col min="6" max="9" width="29.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
-    <col min="11" max="14" width="29.28515625" style="15" customWidth="1"/>
-    <col min="15" max="20" width="14.85546875" style="16" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="3" width="9.1796875" style="15"/>
+    <col min="4" max="4" width="82.54296875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="15" customWidth="1"/>
+    <col min="6" max="9" width="29.26953125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="15" customWidth="1"/>
+    <col min="11" max="14" width="29.26953125" style="15" customWidth="1"/>
+    <col min="15" max="20" width="14.81640625" style="16" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="15" customFormat="1">
@@ -2255,7 +2259,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="30">
+    <row r="3" spans="1:20" ht="29">
       <c r="A3" s="15">
         <v>21001</v>
       </c>
@@ -2272,7 +2276,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="30">
+    <row r="4" spans="1:20" ht="29">
       <c r="A4" s="15">
         <v>21001</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="30">
+    <row r="5" spans="1:20" ht="29">
       <c r="A5" s="15">
         <v>21001</v>
       </c>
@@ -2303,7 +2307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="30">
+    <row r="6" spans="1:20" ht="29">
       <c r="A6" s="15">
         <v>21001</v>
       </c>
@@ -2331,7 +2335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="30">
+    <row r="8" spans="1:20" ht="29">
       <c r="A8" s="15">
         <v>21001</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="20" customFormat="1" ht="30">
+    <row r="9" spans="1:20" s="20" customFormat="1" ht="29">
       <c r="A9" s="18">
         <v>21002</v>
       </c>
@@ -2372,7 +2376,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:20" ht="30">
+    <row r="10" spans="1:20" ht="29">
       <c r="A10" s="15">
         <v>21003</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="20" customFormat="1" ht="30">
+    <row r="13" spans="1:20" s="20" customFormat="1" ht="29">
       <c r="A13" s="18">
         <v>21004</v>
       </c>
@@ -2454,7 +2458,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:20" ht="30">
+    <row r="14" spans="1:20" ht="29">
       <c r="A14" s="15">
         <v>21005</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30">
+    <row r="15" spans="1:20" ht="29">
       <c r="A15" s="15">
         <v>21005</v>
       </c>
@@ -2482,7 +2486,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30">
+    <row r="16" spans="1:20" ht="29">
       <c r="A16" s="15">
         <v>21005</v>
       </c>
@@ -2496,7 +2500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30">
+    <row r="17" spans="1:19" ht="29">
       <c r="A17" s="15">
         <v>21005</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="30">
+    <row r="18" spans="1:19" ht="29">
       <c r="A18" s="15">
         <v>21005</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="30">
+    <row r="30" spans="1:19" ht="29">
       <c r="A30" s="15">
         <v>24003</v>
       </c>
@@ -2826,7 +2830,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="30">
+    <row r="32" spans="1:19" ht="29">
       <c r="A32" s="15">
         <v>27000</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30">
+    <row r="33" spans="1:15" ht="29">
       <c r="A33" s="15">
         <v>27001</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="20" customFormat="1" ht="30">
+    <row r="34" spans="1:15" s="20" customFormat="1" ht="29">
       <c r="A34" s="18">
         <v>27002</v>
       </c>
@@ -2893,7 +2897,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="30">
+    <row r="35" spans="1:15" ht="29">
       <c r="A35" s="15">
         <v>27002</v>
       </c>
@@ -2907,7 +2911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="20" customFormat="1" ht="30">
+    <row r="36" spans="1:15" s="20" customFormat="1" ht="29">
       <c r="A36" s="18">
         <v>27002</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="30">
+    <row r="38" spans="1:15" ht="29">
       <c r="A38" s="15">
         <v>27002</v>
       </c>
@@ -2974,7 +2978,7 @@
         <v>27003</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="30">
+    <row r="39" spans="1:15" ht="29">
       <c r="A39" s="15">
         <v>27003</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="30">
+    <row r="40" spans="1:15" ht="29">
       <c r="A40" s="15">
         <v>27004</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30">
+    <row r="43" spans="1:15" ht="29">
       <c r="A43" s="15">
         <v>27006</v>
       </c>
@@ -3116,19 +3120,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
@@ -3223,19 +3227,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.81640625" customWidth="1"/>
     <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
@@ -3406,22 +3410,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="78.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
     <col min="5" max="5" width="13" style="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="9" customFormat="1" ht="16.5" customHeight="1">
@@ -3701,7 +3705,7 @@
         <v>130</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>36</v>
@@ -4244,24 +4248,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="10.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.1796875" style="9"/>
+    <col min="2" max="2" width="10.7265625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="10" t="s">
         <v>177</v>
       </c>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohgo\Desktop\Unity\SUPERmetaVR\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Slime\VR\SUPERmeta\KGA_SUPERmetaVR\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C862C13-77C8-4277-AA6B-A4E6370A648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
@@ -1148,7 +1147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -1227,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1303,6 +1302,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,23 +1520,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="92" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="9" customWidth="1"/>
     <col min="6" max="7" width="9" style="9" customWidth="1"/>
-    <col min="8" max="27" width="8.7265625" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="14.453125" style="9"/>
+    <col min="8" max="27" width="8.7109375" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1">
@@ -1576,7 +1578,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="29">
+    <row r="2" spans="1:27" ht="30">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1841,7 +1843,7 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="29">
+    <row r="9" spans="1:27" ht="30">
       <c r="A9" s="11">
         <v>52004</v>
       </c>
@@ -2026,7 +2028,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="29">
+    <row r="14" spans="1:27" ht="30">
       <c r="A14" s="11">
         <v>52009</v>
       </c>
@@ -2086,17 +2088,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="9"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1">
@@ -2164,23 +2166,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="15"/>
-    <col min="4" max="4" width="82.54296875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="15" customWidth="1"/>
-    <col min="6" max="9" width="29.26953125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="15" customWidth="1"/>
-    <col min="11" max="14" width="29.26953125" style="15" customWidth="1"/>
-    <col min="15" max="20" width="14.81640625" style="16" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="16"/>
+    <col min="1" max="3" width="9.140625" style="15"/>
+    <col min="4" max="4" width="82.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="15" customWidth="1"/>
+    <col min="6" max="9" width="29.28515625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
+    <col min="11" max="14" width="29.28515625" style="15" customWidth="1"/>
+    <col min="15" max="20" width="14.85546875" style="16" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="15" customFormat="1">
@@ -2259,7 +2261,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="29">
+    <row r="3" spans="1:20" ht="30">
       <c r="A3" s="15">
         <v>21001</v>
       </c>
@@ -2276,7 +2278,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="29">
+    <row r="4" spans="1:20" ht="30">
       <c r="A4" s="15">
         <v>21001</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="29">
+    <row r="5" spans="1:20" ht="30">
       <c r="A5" s="15">
         <v>21001</v>
       </c>
@@ -2307,7 +2309,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="29">
+    <row r="6" spans="1:20" ht="30">
       <c r="A6" s="15">
         <v>21001</v>
       </c>
@@ -2335,7 +2337,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="29">
+    <row r="8" spans="1:20" ht="30">
       <c r="A8" s="15">
         <v>21001</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="20" customFormat="1" ht="29">
+    <row r="9" spans="1:20" s="20" customFormat="1" ht="30">
       <c r="A9" s="18">
         <v>21002</v>
       </c>
@@ -2376,7 +2378,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:20" ht="29">
+    <row r="10" spans="1:20" ht="30">
       <c r="A10" s="15">
         <v>21003</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="20" customFormat="1" ht="29">
+    <row r="13" spans="1:20" s="20" customFormat="1" ht="30">
       <c r="A13" s="18">
         <v>21004</v>
       </c>
@@ -2458,7 +2460,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:20" ht="29">
+    <row r="14" spans="1:20" ht="30">
       <c r="A14" s="15">
         <v>21005</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="29">
+    <row r="15" spans="1:20" ht="30">
       <c r="A15" s="15">
         <v>21005</v>
       </c>
@@ -2486,7 +2488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="29">
+    <row r="16" spans="1:20" ht="30">
       <c r="A16" s="15">
         <v>21005</v>
       </c>
@@ -2500,7 +2502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="29">
+    <row r="17" spans="1:19" ht="30">
       <c r="A17" s="15">
         <v>21005</v>
       </c>
@@ -2517,7 +2519,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="29">
+    <row r="18" spans="1:19" ht="30">
       <c r="A18" s="15">
         <v>21005</v>
       </c>
@@ -2694,7 +2696,7 @@
       <c r="D26" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -2796,7 +2798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="29">
+    <row r="30" spans="1:19" ht="30">
       <c r="A30" s="15">
         <v>24003</v>
       </c>
@@ -2830,7 +2832,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="29">
+    <row r="32" spans="1:19" ht="30">
       <c r="A32" s="15">
         <v>27000</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="29">
+    <row r="33" spans="1:15" ht="30">
       <c r="A33" s="15">
         <v>27001</v>
       </c>
@@ -2873,7 +2875,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="20" customFormat="1" ht="29">
+    <row r="34" spans="1:15" s="20" customFormat="1" ht="30">
       <c r="A34" s="18">
         <v>27002</v>
       </c>
@@ -2897,7 +2899,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="29">
+    <row r="35" spans="1:15" ht="30">
       <c r="A35" s="15">
         <v>27002</v>
       </c>
@@ -2911,7 +2913,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="20" customFormat="1" ht="29">
+    <row r="36" spans="1:15" s="20" customFormat="1" ht="30">
       <c r="A36" s="18">
         <v>27002</v>
       </c>
@@ -2952,7 +2954,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="29">
+    <row r="38" spans="1:15" ht="30">
       <c r="A38" s="15">
         <v>27002</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>27003</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="29">
+    <row r="39" spans="1:15" ht="30">
       <c r="A39" s="15">
         <v>27003</v>
       </c>
@@ -3004,7 +3006,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="29">
+    <row r="40" spans="1:15" ht="30">
       <c r="A40" s="15">
         <v>27004</v>
       </c>
@@ -3058,7 +3060,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="29">
+    <row r="43" spans="1:15" ht="30">
       <c r="A43" s="15">
         <v>27006</v>
       </c>
@@ -3120,19 +3122,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" customWidth="1"/>
-    <col min="5" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
@@ -3227,19 +3229,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="66.81640625" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
     <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
@@ -3410,22 +3412,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" style="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="9" customFormat="1" ht="16.5" customHeight="1">
@@ -4248,24 +4250,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="9"/>
-    <col min="2" max="2" width="10.7265625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="10.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
+    <row r="1" spans="1:5" ht="16.5">
       <c r="A1" s="10" t="s">
         <v>177</v>
       </c>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Slime\VR\SUPERmeta\KGA_SUPERmetaVR\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohgo\Desktop\Unity\SUPERmetaVR\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C862C13-77C8-4277-AA6B-A4E6370A648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
@@ -1147,7 +1148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -1226,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1302,9 +1303,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1520,23 +1518,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="9" customWidth="1"/>
     <col min="3" max="3" width="92" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="9" customWidth="1"/>
     <col min="6" max="7" width="9" style="9" customWidth="1"/>
-    <col min="8" max="27" width="8.7109375" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="9"/>
+    <col min="8" max="27" width="8.7265625" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="14.453125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1">
@@ -1578,7 +1576,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="30">
+    <row r="2" spans="1:27" ht="29">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1843,7 +1841,7 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="30">
+    <row r="9" spans="1:27" ht="29">
       <c r="A9" s="11">
         <v>52004</v>
       </c>
@@ -2028,7 +2026,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="30">
+    <row r="14" spans="1:27" ht="29">
       <c r="A14" s="11">
         <v>52009</v>
       </c>
@@ -2088,17 +2086,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="3" width="9.1796875" style="9"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1">
@@ -2166,23 +2164,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="15"/>
-    <col min="4" max="4" width="82.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="15" customWidth="1"/>
-    <col min="6" max="9" width="29.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
-    <col min="11" max="14" width="29.28515625" style="15" customWidth="1"/>
-    <col min="15" max="20" width="14.85546875" style="16" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="3" width="9.1796875" style="15"/>
+    <col min="4" max="4" width="82.54296875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="15" customWidth="1"/>
+    <col min="6" max="9" width="29.26953125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="15" customWidth="1"/>
+    <col min="11" max="14" width="29.26953125" style="15" customWidth="1"/>
+    <col min="15" max="20" width="14.81640625" style="16" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="15" customFormat="1">
@@ -2261,7 +2259,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="30">
+    <row r="3" spans="1:20" ht="29">
       <c r="A3" s="15">
         <v>21001</v>
       </c>
@@ -2278,7 +2276,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="30">
+    <row r="4" spans="1:20" ht="29">
       <c r="A4" s="15">
         <v>21001</v>
       </c>
@@ -2295,7 +2293,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="30">
+    <row r="5" spans="1:20" ht="29">
       <c r="A5" s="15">
         <v>21001</v>
       </c>
@@ -2309,7 +2307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="30">
+    <row r="6" spans="1:20" ht="29">
       <c r="A6" s="15">
         <v>21001</v>
       </c>
@@ -2337,7 +2335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="30">
+    <row r="8" spans="1:20" ht="29">
       <c r="A8" s="15">
         <v>21001</v>
       </c>
@@ -2354,7 +2352,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="20" customFormat="1" ht="30">
+    <row r="9" spans="1:20" s="20" customFormat="1" ht="29">
       <c r="A9" s="18">
         <v>21002</v>
       </c>
@@ -2378,7 +2376,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:20" ht="30">
+    <row r="10" spans="1:20" ht="29">
       <c r="A10" s="15">
         <v>21003</v>
       </c>
@@ -2436,7 +2434,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="20" customFormat="1" ht="30">
+    <row r="13" spans="1:20" s="20" customFormat="1" ht="29">
       <c r="A13" s="18">
         <v>21004</v>
       </c>
@@ -2460,7 +2458,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:20" ht="30">
+    <row r="14" spans="1:20" ht="29">
       <c r="A14" s="15">
         <v>21005</v>
       </c>
@@ -2474,7 +2472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30">
+    <row r="15" spans="1:20" ht="29">
       <c r="A15" s="15">
         <v>21005</v>
       </c>
@@ -2488,7 +2486,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30">
+    <row r="16" spans="1:20" ht="29">
       <c r="A16" s="15">
         <v>21005</v>
       </c>
@@ -2502,7 +2500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30">
+    <row r="17" spans="1:19" ht="29">
       <c r="A17" s="15">
         <v>21005</v>
       </c>
@@ -2519,7 +2517,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="30">
+    <row r="18" spans="1:19" ht="29">
       <c r="A18" s="15">
         <v>21005</v>
       </c>
@@ -2696,7 +2694,7 @@
       <c r="D26" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="26"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -2798,7 +2796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="30">
+    <row r="30" spans="1:19" ht="29">
       <c r="A30" s="15">
         <v>24003</v>
       </c>
@@ -2832,7 +2830,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="30">
+    <row r="32" spans="1:19" ht="29">
       <c r="A32" s="15">
         <v>27000</v>
       </c>
@@ -2861,7 +2859,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30">
+    <row r="33" spans="1:15" ht="29">
       <c r="A33" s="15">
         <v>27001</v>
       </c>
@@ -2875,7 +2873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="20" customFormat="1" ht="30">
+    <row r="34" spans="1:15" s="20" customFormat="1" ht="29">
       <c r="A34" s="18">
         <v>27002</v>
       </c>
@@ -2899,7 +2897,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="30">
+    <row r="35" spans="1:15" ht="29">
       <c r="A35" s="15">
         <v>27002</v>
       </c>
@@ -2913,7 +2911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="20" customFormat="1" ht="30">
+    <row r="36" spans="1:15" s="20" customFormat="1" ht="29">
       <c r="A36" s="18">
         <v>27002</v>
       </c>
@@ -2954,7 +2952,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="30">
+    <row r="38" spans="1:15" ht="29">
       <c r="A38" s="15">
         <v>27002</v>
       </c>
@@ -2980,7 +2978,7 @@
         <v>27003</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="30">
+    <row r="39" spans="1:15" ht="29">
       <c r="A39" s="15">
         <v>27003</v>
       </c>
@@ -3006,7 +3004,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="30">
+    <row r="40" spans="1:15" ht="29">
       <c r="A40" s="15">
         <v>27004</v>
       </c>
@@ -3060,7 +3058,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30">
+    <row r="43" spans="1:15" ht="29">
       <c r="A43" s="15">
         <v>27006</v>
       </c>
@@ -3122,19 +3120,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
@@ -3229,19 +3227,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.81640625" customWidth="1"/>
     <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
@@ -3412,22 +3410,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="78.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
     <col min="5" max="5" width="13" style="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="9" customFormat="1" ht="16.5" customHeight="1">
@@ -4250,24 +4248,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="10.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.1796875" style="9"/>
+    <col min="2" max="2" width="10.7265625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="10" t="s">
         <v>177</v>
       </c>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="235">
   <si>
     <t>id</t>
   </si>
@@ -535,32 +535,10 @@
     <t>SELECT1</t>
   </si>
   <si>
-    <t>잘했어-! 방금처럼 레이로 최대 세 칸까지 이동할 수 있어!
-앗 소개가 늦었네! 내 이름은 모! 네 이름은?</t>
-  </si>
-  <si>
-    <t>이름 멋지다! &lt;&lt;유저의 닉네임&gt;&gt;!! 미니마니모 마을에 온걸 환영해-!
-여긴 도깨비불과 다양한 요괴들이 모여 사는 세상이야-!</t>
-  </si>
-  <si>
     <t>나는 여기가 정--말 좋아-! 아무 생각 없이 재밌게 놀면 되거든-!
 너도 이 세계가 맘에 들길 바라-</t>
   </si>
   <si>
-    <t>아 맞다-! 이걸 줄게. 이게 너의 생활에 도움이 될 거야!</t>
-  </si>
-  <si>
-    <t>그래그래- 그런 식으로 사용하는 거야! 이제 들어갈 준비됐지?
-이제 문을 열어줄게! 다시 한번 환영해-!</t>
-  </si>
-  <si>
-    <t>자 옆에 있는 나무에 매달려있는 호박을 쳐봐-!</t>
-  </si>
-  <si>
-    <t>잘하는데? 근데 축구공 다시 내가 가져갈게
-또 너 같은 신참이 들어오면 가르쳐 줘야 해서 필요해-</t>
-  </si>
-  <si>
     <t>아 그리고-! 인벤토리 공간이 가득 차면 아이템을 보관할 수 없어!
 가득 찬 상태로 아이템을 받게 되면 파괴되니까 조심하라고-</t>
   </si>
@@ -656,37 +634,8 @@
     <t>다시 한 번 말해줘</t>
   </si>
   <si>
-    <t>여어--! 이리 와봐-!</t>
-  </si>
-  <si>
-    <t>뭐-? 나는 사람 아니냐고?
-하하 맞아-! 너처럼 이 세계에 들어온 어린이들도 많아!</t>
-  </si>
-  <si>
-    <t>짠~ 모모 워치야! 이 마을에서 사용하는 홀로그램이지-
-한번 왼쪽 손목에 레이를 갖다 대볼래?</t>
-  </si>
-  <si>
-    <t>뭐야 새로운 어린이잖아-
-이 울트라 멋진 쿠님이 기본적인 것 좀 알려주지! 영광인 줄 알라고?</t>
-  </si>
-  <si>
-    <t>어때-? 스트레스 좀 풀리지?</t>
-  </si>
-  <si>
-    <t>그럼 앞에 있는 축구공을 그립키로 잡아봐-
-그리고 인벤토리에 한 번 넣어볼래? 인벤토리는 자동으로 열릴 거야-</t>
-  </si>
-  <si>
     <t>후후.. 그건 그렇고 잘 따라와 준 너에게 선물을 하나 줄게!
 초초초특급 레어 한정 간지 작살 코스튬이다!</t>
-  </si>
-  <si>
-    <t>참고로 기간제야-
-착용한 시점부터 시간이 흐르니까 이 점 유의해라-!</t>
-  </si>
-  <si>
-    <t>자 이제 귀찮게 하지 말고 가서 놀아-!</t>
   </si>
   <si>
     <r>
@@ -1020,28 +969,10 @@
     <t>TT_Mo_3.wav</t>
   </si>
   <si>
-    <t>TT_Cu_1.wav</t>
-  </si>
-  <si>
-    <t>TT_Cu_3.mp3</t>
-  </si>
-  <si>
-    <t>TT_Cu_2.mp3</t>
-  </si>
-  <si>
     <t>안녕? 적응은 잘 하고있어? 즐거운 하루 보내!</t>
   </si>
   <si>
     <t>나는 여기서 항상 새로운 어린이들을 인도해!</t>
-  </si>
-  <si>
-    <t>쿠가 좀 까칠하지? 하지만 마음은 따듯한 녀석이야-</t>
-  </si>
-  <si>
-    <t>이 쿠님이 보고싶어서 왔나?</t>
-  </si>
-  <si>
-    <t>어린이- 저기가서 놀아- 이 쿠님은 바쁘다고-</t>
   </si>
   <si>
     <t>안녕- 나는 코티야. 네 잎 클로버를 4개 가져오면 코스튬으로 변화시켜줄게</t>
@@ -1142,6 +1073,140 @@
   </si>
   <si>
     <t>FourLeafClover</t>
+  </si>
+  <si>
+    <t>안녕 내 이름은 모 너처럼 다른 세계에서 넘어온 아이들이 잘 적응할 수 있게
+도움을 주는게 내 인생의 낙이야!
+나 말고 다른 녀석에게 말을 걸고 싶으면 방금처럼 머리위 아이콘을 클릭하라구!</t>
+  </si>
+  <si>
+    <t>Mo_Hi.fbx</t>
+  </si>
+  <si>
+    <t>그건 그렇구 내가 널 뭐라고 부르면 될까?</t>
+  </si>
+  <si>
+    <t>Mo_Talking.fbx</t>
+  </si>
+  <si>
+    <t>이름 멋지다!! 미니마니모 마을에 온걸 환영해!!
+여긴 너 처럼 다른세계에서 온 아이들이 귀여운 유령들과 놀 수 있는 재미있는 곳이야!</t>
+  </si>
+  <si>
+    <t>Mo_Gesture.fbx</t>
+  </si>
+  <si>
+    <t>뭐라구?? 내가 사람 맞냐구?? 맞아 나도 너희들과 같은 다른세계에서 넘어왔지만
+이곳이 너무 좋아 다른 아이들도 여기서 즐겼으면 좋겠어서 이렇게 도와주고 있다구~</t>
+  </si>
+  <si>
+    <t>Mo_talking2.fbx</t>
+  </si>
+  <si>
+    <t>Mo_Excited.fbx</t>
+  </si>
+  <si>
+    <t>여기 네잎 클로버가 있어! 한번 손으로 잡아볼래? 그립버튼을 누르면 잡을 수 있어!</t>
+  </si>
+  <si>
+    <t>네잎 클로버를 집으면 아공간이 허리에 생길거야!
+아공간에 클로버를 닿게 한후 손을 놔봐!</t>
+  </si>
+  <si>
+    <t>그래 그렇게 아이템을 넣는거야! 잘하는데?
+네잎클로버는 나중에 사용해봐! 좋은걸 줄지도??</t>
+  </si>
+  <si>
+    <t>자 이제 알려줄건 다 알려 줬으니 문을 열어줄게~
+다음 신입은 어떤 녀석이 오려나~</t>
+  </si>
+  <si>
+    <t>TT_BBororoong1.mp3</t>
+  </si>
+  <si>
+    <t>Mo_finger1.fbx</t>
+  </si>
+  <si>
+    <t>Boo_Ya.fbx</t>
+  </si>
+  <si>
+    <t>Boo_Attack.fbx</t>
+  </si>
+  <si>
+    <t>Yo! 안녕-! 내 이름은 포!
+너 춤 좀 추게 생겼는데-</t>
+  </si>
+  <si>
+    <t>faw_Hi.FBX</t>
+  </si>
+  <si>
+    <t>Do you want to dance-?!
+너의 춤 실력을 보고 싶어! 출래?</t>
+  </si>
+  <si>
+    <t>응! 출래!</t>
+  </si>
+  <si>
+    <t>아니, 안출래</t>
+  </si>
+  <si>
+    <t>faw_Yoho.FBX</t>
+  </si>
+  <si>
+    <t>HaHa-! 녀석 두려운 거냐?
+다음에 한판 땡기고싶을 때 말을 걸도록 해!</t>
+  </si>
+  <si>
+    <t>faw_No.FBX</t>
+  </si>
+  <si>
+    <t>Good-! 댄스 방식은 간단해!
+화면에 나오는 원안에 손을 맞추면 되지-!</t>
+  </si>
+  <si>
+    <t>faw_Ye.FBX</t>
+  </si>
+  <si>
+    <t>아아- 참고로 3번 연속 맞추지 못하면
+매우 Bed-하니까 강제로 노래를 멈출 거야-</t>
+  </si>
+  <si>
+    <t>하지만 총 15번 맞추면!
+매우 Excellent한 선물을 주지!</t>
+  </si>
+  <si>
+    <t>그만 설명은 됐고-
+이제 너의 Feel을 보여줘-- 간다잇-!</t>
+  </si>
+  <si>
+    <t>faw_Go.FBX</t>
+  </si>
+  <si>
+    <t>춤추는데 방해하지 마!
+추고 싶으면 옆에 '포'에게 말을 걸어</t>
+  </si>
+  <si>
+    <t>후-- 하-- 후--- 예--</t>
+  </si>
+  <si>
+    <t>Coty_CCMK.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coty_Happy.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coty_No.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coty_Shrugging.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coty_Jump.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1200,18 +1265,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1226,7 +1285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1270,41 +1329,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2106,13 +2159,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2120,7 +2173,7 @@
         <v>20000</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -2131,7 +2184,7 @@
         <v>20001</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -2142,7 +2195,7 @@
         <v>20300</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -2153,7 +2206,7 @@
         <v>20600</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -2169,949 +2222,974 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="15"/>
-    <col min="4" max="4" width="82.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="15" customWidth="1"/>
-    <col min="6" max="9" width="29.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
-    <col min="11" max="14" width="29.28515625" style="15" customWidth="1"/>
-    <col min="15" max="20" width="14.85546875" style="16" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="3" width="9.140625" style="17"/>
+    <col min="4" max="4" width="82.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="17" customWidth="1"/>
+    <col min="6" max="9" width="29.28515625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="17" customWidth="1"/>
+    <col min="11" max="14" width="29.28515625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" style="17" customWidth="1"/>
+    <col min="16" max="19" width="14.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" style="17" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="15" customFormat="1">
-      <c r="A1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="15" t="s">
+    <row r="1" spans="1:20" s="17" customFormat="1">
+      <c r="A1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" s="15" t="s">
+      <c r="F1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="45">
+      <c r="A2" s="17">
+        <v>21000</v>
+      </c>
+      <c r="B2" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="17">
+        <v>21001</v>
+      </c>
+      <c r="B3" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30">
+      <c r="A4" s="17">
+        <v>21001</v>
+      </c>
+      <c r="B4" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30">
+      <c r="A5" s="17">
+        <v>21001</v>
+      </c>
+      <c r="B5" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30">
+      <c r="A6" s="17">
+        <v>21001</v>
+      </c>
+      <c r="B6" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="17">
+        <v>21002</v>
+      </c>
+      <c r="B7" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30">
+      <c r="A8" s="17">
+        <v>21002</v>
+      </c>
+      <c r="B8" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30">
+      <c r="A9" s="17">
+        <v>21002</v>
+      </c>
+      <c r="B9" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C9" s="17">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="30">
+      <c r="A10" s="17">
+        <v>21002</v>
+      </c>
+      <c r="B10" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C10" s="17">
+        <v>4</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="30">
+      <c r="A11" s="17">
+        <v>21003</v>
+      </c>
+      <c r="B11" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="30">
+      <c r="A12" s="17">
+        <v>21003</v>
+      </c>
+      <c r="B12" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="30">
+      <c r="A13" s="17">
+        <v>21003</v>
+      </c>
+      <c r="B13" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="17">
+        <v>21006</v>
+      </c>
+      <c r="B14" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="17">
+        <v>21007</v>
+      </c>
+      <c r="B15" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="17">
+        <v>24000</v>
+      </c>
+      <c r="B16" s="17">
+        <v>20300</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="17">
+        <v>24000</v>
+      </c>
+      <c r="B17" s="17">
+        <v>20300</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="17">
+        <v>24001</v>
+      </c>
+      <c r="B18" s="17">
+        <v>20300</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="17">
+        <v>12000</v>
+      </c>
+      <c r="G18" s="17">
+        <v>4</v>
+      </c>
+      <c r="H18" s="17">
+        <v>24002</v>
+      </c>
+      <c r="I18" s="17">
+        <v>24003</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="17">
+        <v>24004</v>
+      </c>
+      <c r="O18" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="15" t="s">
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="17">
+        <v>24002</v>
+      </c>
+      <c r="B19" s="17">
+        <v>20300</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="T19" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="17">
+        <v>24002</v>
+      </c>
+      <c r="B20" s="17">
+        <v>20300</v>
+      </c>
+      <c r="C20" s="17">
+        <v>2</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="P20" s="19">
+        <v>13000</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>1</v>
+      </c>
+      <c r="R20" s="19">
+        <v>12000</v>
+      </c>
+      <c r="S20" s="19">
+        <v>4</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="30">
+      <c r="A21" s="17">
+        <v>24003</v>
+      </c>
+      <c r="B21" s="17">
+        <v>20300</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T21" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="17">
+        <v>24004</v>
+      </c>
+      <c r="B22" s="17">
+        <v>20300</v>
+      </c>
+      <c r="C22" s="17">
+        <v>1</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="O22" s="17" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="15">
-        <v>21000</v>
-      </c>
-      <c r="B2" s="15">
-        <v>20000</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30">
-      <c r="A3" s="15">
-        <v>21001</v>
-      </c>
-      <c r="B3" s="15">
-        <v>20000</v>
-      </c>
-      <c r="C3" s="15">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="16" t="s">
+      <c r="T22" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="30">
+      <c r="A23" s="17">
+        <v>27000</v>
+      </c>
+      <c r="B23" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C23" s="17">
+        <v>1</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="17">
+        <v>27002</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="17">
+        <v>27001</v>
+      </c>
+      <c r="O23" s="17" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="30">
-      <c r="A4" s="15">
-        <v>21001</v>
-      </c>
-      <c r="B4" s="15">
-        <v>20000</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="T23" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="30">
+      <c r="A24" s="17">
+        <v>27001</v>
+      </c>
+      <c r="B24" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C24" s="17">
+        <v>1</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="30">
+      <c r="A25" s="17">
+        <v>27002</v>
+      </c>
+      <c r="B25" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="30">
+      <c r="A26" s="17">
+        <v>27002</v>
+      </c>
+      <c r="B26" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C26" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30">
-      <c r="A5" s="15">
-        <v>21001</v>
-      </c>
-      <c r="B5" s="15">
-        <v>20000</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="D26" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:20" ht="30">
+      <c r="A27" s="17">
+        <v>27002</v>
+      </c>
+      <c r="B27" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C27" s="17">
         <v>3</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30">
-      <c r="A6" s="15">
-        <v>21001</v>
-      </c>
-      <c r="B6" s="15">
-        <v>20000</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="D27" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="17">
+        <v>27002</v>
+      </c>
+      <c r="B28" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C28" s="17">
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="15">
-        <v>21001</v>
-      </c>
-      <c r="B7" s="15">
-        <v>20000</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="D28" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="T28" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="30">
+      <c r="A29" s="17">
+        <v>27002</v>
+      </c>
+      <c r="B29" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C29" s="17">
         <v>5</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30">
-      <c r="A8" s="15">
-        <v>21001</v>
-      </c>
-      <c r="B8" s="15">
-        <v>20000</v>
-      </c>
-      <c r="C8" s="15">
-        <v>6</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="20" customFormat="1" ht="30">
-      <c r="A9" s="18">
-        <v>21002</v>
-      </c>
-      <c r="B9" s="18">
-        <v>20000</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-    </row>
-    <row r="10" spans="1:20" ht="30">
-      <c r="A10" s="15">
-        <v>21003</v>
-      </c>
-      <c r="B10" s="15">
-        <v>20001</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="15">
-        <v>21003</v>
-      </c>
-      <c r="B11" s="15">
-        <v>20001</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="D29" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="17">
+        <v>27006</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="17">
+        <v>27003</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="30">
+      <c r="A30" s="17">
+        <v>27003</v>
+      </c>
+      <c r="B30" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="17">
+        <v>27004</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="N30" s="17">
+        <v>27001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="30">
+      <c r="A31" s="17">
+        <v>27004</v>
+      </c>
+      <c r="B31" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="17">
+        <v>27005</v>
+      </c>
+      <c r="B32" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="17">
+        <v>27004</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="17">
+        <v>27006</v>
+      </c>
+      <c r="B33" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C33" s="17">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="30">
+      <c r="A34" s="17">
+        <v>27006</v>
+      </c>
+      <c r="B34" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C34" s="17">
         <v>2</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="20" customFormat="1">
-      <c r="A12" s="18">
-        <v>21004</v>
-      </c>
-      <c r="B12" s="18">
-        <v>20001</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="20" customFormat="1" ht="30">
-      <c r="A13" s="18">
-        <v>21004</v>
-      </c>
-      <c r="B13" s="18">
-        <v>20001</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="D34" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="17">
+        <v>27006</v>
+      </c>
+      <c r="B35" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="T35" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="17">
+        <v>27006</v>
+      </c>
+      <c r="B36" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C36" s="17">
+        <v>4</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="17">
+        <v>27003</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="N36" s="17">
+        <v>27006</v>
+      </c>
+      <c r="T36" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="30">
+      <c r="A37" s="17">
+        <v>25000</v>
+      </c>
+      <c r="B37" s="17">
+        <v>20401</v>
+      </c>
+      <c r="C37" s="17">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="30">
+      <c r="A38" s="17">
+        <v>25000</v>
+      </c>
+      <c r="B38" s="17">
+        <v>20401</v>
+      </c>
+      <c r="C38" s="17">
         <v>2</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="1:20" ht="30">
-      <c r="A14" s="15">
-        <v>21005</v>
-      </c>
-      <c r="B14" s="15">
-        <v>20001</v>
-      </c>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="30">
-      <c r="A15" s="15">
-        <v>21005</v>
-      </c>
-      <c r="B15" s="15">
-        <v>20001</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="D38" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" s="17">
+        <v>25002</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="N38" s="17">
+        <v>25001</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="30">
+      <c r="A39" s="17">
+        <v>25001</v>
+      </c>
+      <c r="B39" s="17">
+        <v>20401</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="T39" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="30">
+      <c r="A40" s="17">
+        <v>25002</v>
+      </c>
+      <c r="B40" s="17">
+        <v>20401</v>
+      </c>
+      <c r="C40" s="17">
+        <v>1</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="30">
+      <c r="A41" s="17">
+        <v>25002</v>
+      </c>
+      <c r="B41" s="17">
+        <v>20401</v>
+      </c>
+      <c r="C41" s="17">
         <v>2</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="30">
-      <c r="A16" s="15">
-        <v>21005</v>
-      </c>
-      <c r="B16" s="15">
-        <v>20001</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="D41" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="30">
+      <c r="A42" s="17">
+        <v>25002</v>
+      </c>
+      <c r="B42" s="17">
+        <v>20401</v>
+      </c>
+      <c r="C42" s="17">
         <v>3</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="30">
-      <c r="A17" s="15">
-        <v>21005</v>
-      </c>
-      <c r="B17" s="15">
-        <v>20001</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="D42" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="30">
+      <c r="A43" s="17">
+        <v>25002</v>
+      </c>
+      <c r="B43" s="17">
+        <v>20401</v>
+      </c>
+      <c r="C43" s="17">
         <v>4</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="30">
-      <c r="A18" s="15">
-        <v>21005</v>
-      </c>
-      <c r="B18" s="15">
-        <v>20001</v>
-      </c>
-      <c r="C18" s="15">
-        <v>5</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="15">
-        <v>21005</v>
-      </c>
-      <c r="B19" s="15">
-        <v>20001</v>
-      </c>
-      <c r="C19" s="15">
-        <v>6</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="20" customFormat="1">
-      <c r="A20" s="18">
-        <v>21006</v>
-      </c>
-      <c r="B20" s="18">
-        <v>20000</v>
-      </c>
-      <c r="C20" s="18">
-        <v>1</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="20" customFormat="1">
-      <c r="A21" s="18">
-        <v>21007</v>
-      </c>
-      <c r="B21" s="18">
-        <v>20000</v>
-      </c>
-      <c r="C21" s="18">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="15">
-        <v>21008</v>
-      </c>
-      <c r="B22" s="15">
-        <v>20000</v>
-      </c>
-      <c r="C22" s="15">
-        <v>1</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="20" customFormat="1">
-      <c r="A23" s="18">
-        <v>21009</v>
-      </c>
-      <c r="B23" s="18">
-        <v>20001</v>
-      </c>
-      <c r="C23" s="18">
-        <v>1</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="1:19" s="20" customFormat="1">
-      <c r="A24" s="18">
-        <v>21010</v>
-      </c>
-      <c r="B24" s="18">
-        <v>20001</v>
-      </c>
-      <c r="C24" s="18">
-        <v>1</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="15">
-        <v>24000</v>
-      </c>
-      <c r="B25" s="15">
-        <v>20300</v>
-      </c>
-      <c r="C25" s="15">
-        <v>1</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="20" customFormat="1">
-      <c r="A26" s="18">
-        <v>24000</v>
-      </c>
-      <c r="B26" s="18">
-        <v>20300</v>
-      </c>
-      <c r="C26" s="18">
-        <v>2</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="15">
-        <v>24001</v>
-      </c>
-      <c r="B27" s="15">
-        <v>20300</v>
-      </c>
-      <c r="C27" s="15">
-        <v>1</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="15">
-        <v>12000</v>
-      </c>
-      <c r="G27" s="15">
-        <v>4</v>
-      </c>
-      <c r="H27" s="15">
-        <v>24002</v>
-      </c>
-      <c r="I27" s="15">
-        <v>24003</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N27" s="15">
-        <v>24004</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="20" customFormat="1">
-      <c r="A28" s="18">
-        <v>24002</v>
-      </c>
-      <c r="B28" s="18">
-        <v>20300</v>
-      </c>
-      <c r="C28" s="18">
-        <v>1</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="15">
-        <v>24002</v>
-      </c>
-      <c r="B29" s="15">
-        <v>20300</v>
-      </c>
-      <c r="C29" s="15">
-        <v>2</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="P29" s="16">
-        <v>13000</v>
-      </c>
-      <c r="Q29" s="16">
-        <v>1</v>
-      </c>
-      <c r="R29" s="16">
-        <v>12000</v>
-      </c>
-      <c r="S29" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="30">
-      <c r="A30" s="15">
-        <v>24003</v>
-      </c>
-      <c r="B30" s="15">
-        <v>20300</v>
-      </c>
-      <c r="C30" s="15">
-        <v>1</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="15">
-        <v>24004</v>
-      </c>
-      <c r="B31" s="15">
-        <v>20300</v>
-      </c>
-      <c r="C31" s="15">
-        <v>1</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="30">
-      <c r="A32" s="15">
-        <v>27000</v>
-      </c>
-      <c r="B32" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C32" s="15">
-        <v>1</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="15">
-        <v>27002</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N32" s="15">
-        <v>27001</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="30">
-      <c r="A33" s="15">
-        <v>27001</v>
-      </c>
-      <c r="B33" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C33" s="15">
-        <v>1</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="20" customFormat="1" ht="30">
-      <c r="A34" s="18">
-        <v>27002</v>
-      </c>
-      <c r="B34" s="18">
-        <v>20600</v>
-      </c>
-      <c r="C34" s="18">
-        <v>1</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="1:15" ht="30">
-      <c r="A35" s="15">
-        <v>27002</v>
-      </c>
-      <c r="B35" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C35" s="15">
-        <v>2</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="20" customFormat="1" ht="30">
-      <c r="A36" s="18">
-        <v>27002</v>
-      </c>
-      <c r="B36" s="18">
-        <v>20600</v>
-      </c>
-      <c r="C36" s="18">
-        <v>3</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="15">
-        <v>27002</v>
-      </c>
-      <c r="B37" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C37" s="15">
-        <v>4</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="30">
-      <c r="A38" s="15">
-        <v>27002</v>
-      </c>
-      <c r="B38" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C38" s="15">
-        <v>5</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="15">
-        <v>27006</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="N38" s="15">
-        <v>27003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="30">
-      <c r="A39" s="15">
-        <v>27003</v>
-      </c>
-      <c r="B39" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C39" s="15">
-        <v>1</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="15">
-        <v>27004</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N39" s="15">
-        <v>27001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="30">
-      <c r="A40" s="15">
-        <v>27004</v>
-      </c>
-      <c r="B40" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C40" s="15">
-        <v>1</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="15">
-        <v>27005</v>
-      </c>
-      <c r="B41" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C41" s="15">
-        <v>1</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I41" s="15">
-        <v>27004</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="O41" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="15">
-        <v>27006</v>
-      </c>
-      <c r="B42" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C42" s="15">
-        <v>1</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="30">
-      <c r="A43" s="15">
-        <v>27006</v>
-      </c>
-      <c r="B43" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C43" s="15">
-        <v>2</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="15">
-        <v>27006</v>
-      </c>
-      <c r="B44" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C44" s="15">
-        <v>3</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="15">
-        <v>27006</v>
-      </c>
-      <c r="B45" s="15">
-        <v>20600</v>
-      </c>
-      <c r="C45" s="15">
-        <v>4</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I45" s="15">
-        <v>27003</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N45" s="15">
-        <v>27006</v>
+      <c r="D43" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="T43" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="30">
+      <c r="A44" s="17">
+        <v>25003</v>
+      </c>
+      <c r="B44" s="17">
+        <v>20400</v>
+      </c>
+      <c r="C44" s="17">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="17">
+        <v>25004</v>
+      </c>
+      <c r="B45" s="17">
+        <v>20402</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3233,7 +3311,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3447,16 +3525,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3663,7 +3741,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>41</v>
@@ -3701,13 +3779,13 @@
         <v>12000</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>36</v>
@@ -3727,10 +3805,10 @@
         <v>13000</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>38</v>
@@ -3753,10 +3831,10 @@
         <v>15000</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>38</v>
@@ -3779,10 +3857,10 @@
         <v>15001</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>38</v>
@@ -3805,10 +3883,10 @@
         <v>15002</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>38</v>
@@ -3831,10 +3909,10 @@
         <v>15003</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>38</v>
@@ -3857,10 +3935,10 @@
         <v>15004</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>38</v>
@@ -3883,10 +3961,10 @@
         <v>15005</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>38</v>
@@ -3909,10 +3987,10 @@
         <v>15006</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>38</v>
@@ -3935,10 +4013,10 @@
         <v>15007</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>38</v>
@@ -3961,10 +4039,10 @@
         <v>15008</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>38</v>
@@ -3987,10 +4065,10 @@
         <v>15009</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>38</v>
@@ -4013,10 +4091,10 @@
         <v>15010</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>38</v>
@@ -4039,10 +4117,10 @@
         <v>15011</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>38</v>
@@ -4065,10 +4143,10 @@
         <v>15012</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>38</v>
@@ -4091,10 +4169,10 @@
         <v>15013</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>38</v>
@@ -4117,10 +4195,10 @@
         <v>15014</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>38</v>
@@ -4143,10 +4221,10 @@
         <v>15015</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>38</v>
@@ -4169,10 +4247,10 @@
         <v>15016</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>38</v>
@@ -4195,10 +4273,10 @@
         <v>15017</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>38</v>
@@ -4221,10 +4299,10 @@
         <v>15018</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>38</v>
@@ -4269,19 +4347,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5">
       <c r="A1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>176</v>
+        <v>163</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>178</v>
+      <c r="D1" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4292,12 +4370,12 @@
         <v>15000</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="16">
         <v>6660.0000000000009</v>
       </c>
     </row>
@@ -4309,12 +4387,12 @@
         <v>15001</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="16">
         <v>6660.0000000000009</v>
       </c>
     </row>
@@ -4326,12 +4404,12 @@
         <v>15002</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="16">
         <v>6660.0000000000009</v>
       </c>
     </row>
@@ -4343,12 +4421,12 @@
         <v>15003</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="16">
         <v>6660.0000000000009</v>
       </c>
     </row>
@@ -4360,12 +4438,12 @@
         <v>15004</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="16">
         <v>6660.0000000000009</v>
       </c>
     </row>
@@ -4377,12 +4455,12 @@
         <v>15005</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="16">
         <v>6660.0000000000009</v>
       </c>
     </row>
@@ -4394,12 +4472,12 @@
         <v>15006</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="16">
         <v>1250</v>
       </c>
     </row>
@@ -4411,12 +4489,12 @@
         <v>15007</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="16">
         <v>1250</v>
       </c>
     </row>
@@ -4428,12 +4506,12 @@
         <v>15008</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="16">
         <v>1250</v>
       </c>
     </row>
@@ -4445,12 +4523,12 @@
         <v>15009</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="16">
         <v>1250</v>
       </c>
     </row>
@@ -4462,12 +4540,12 @@
         <v>15010</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="16">
         <v>1250</v>
       </c>
     </row>
@@ -4479,12 +4557,12 @@
         <v>15011</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="16">
         <v>1250</v>
       </c>
     </row>
@@ -4496,12 +4574,12 @@
         <v>15012</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="16">
         <v>1250</v>
       </c>
     </row>
@@ -4513,12 +4591,12 @@
         <v>15013</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="16">
         <v>1250</v>
       </c>
     </row>
@@ -4530,12 +4608,12 @@
         <v>15014</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="16">
         <v>2000</v>
       </c>
     </row>
@@ -4547,12 +4625,12 @@
         <v>15015</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D17" s="9">
         <v>3</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="16">
         <v>1990.0000000000002</v>
       </c>
     </row>
@@ -4564,12 +4642,12 @@
         <v>15016</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="16">
         <v>10</v>
       </c>
     </row>
@@ -4581,12 +4659,12 @@
         <v>15017</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="16">
         <v>500</v>
       </c>
     </row>
@@ -4598,12 +4676,12 @@
         <v>15018</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="16">
         <v>500</v>
       </c>
     </row>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="SpeechBubbleSheet" sheetId="3" r:id="rId5"/>
     <sheet name="ItemSheet" sheetId="4" r:id="rId6"/>
     <sheet name="RewardSheet" sheetId="6" r:id="rId7"/>
+    <sheet name="BadNickname" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="976">
   <si>
     <t>id</t>
   </si>
@@ -1206,6 +1207,2244 @@
   </si>
   <si>
     <t>Coty_Jump.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ickname</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>^노^</t>
+  </si>
+  <si>
+    <t>￣</t>
+  </si>
+  <si>
+    <t>⊥</t>
+  </si>
+  <si>
+    <t>─ ─</t>
+  </si>
+  <si>
+    <t>━ ━</t>
+  </si>
+  <si>
+    <t>──</t>
+  </si>
+  <si>
+    <t>━━</t>
+  </si>
+  <si>
+    <t>┴</t>
+  </si>
+  <si>
+    <t>้</t>
+  </si>
+  <si>
+    <t>1빠</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>2빠</t>
+  </si>
+  <si>
+    <t>D쥐고</t>
+  </si>
+  <si>
+    <t>D지고</t>
+  </si>
+  <si>
+    <t>jonna</t>
+  </si>
+  <si>
+    <t>jot같</t>
+  </si>
+  <si>
+    <t>mi쳤</t>
+  </si>
+  <si>
+    <t>tlqkf</t>
+  </si>
+  <si>
+    <t>wlfkf</t>
+  </si>
+  <si>
+    <t>갈틱폰</t>
+  </si>
+  <si>
+    <t>gartic</t>
+  </si>
+  <si>
+    <t>같은 새끼</t>
+  </si>
+  <si>
+    <t>같은새끼</t>
+  </si>
+  <si>
+    <t>개 새끼</t>
+  </si>
+  <si>
+    <t>개같아</t>
+  </si>
+  <si>
+    <t>개같은</t>
+  </si>
+  <si>
+    <t>개같을</t>
+  </si>
+  <si>
+    <t>개같게</t>
+  </si>
+  <si>
+    <t>개나 소나</t>
+  </si>
+  <si>
+    <t>개나대</t>
+  </si>
+  <si>
+    <t>개나소나</t>
+  </si>
+  <si>
+    <t>개넷</t>
+  </si>
+  <si>
+    <t>개년</t>
+  </si>
+  <si>
+    <t>개념빠가</t>
+  </si>
+  <si>
+    <t>느갭</t>
+  </si>
+  <si>
+    <t>도태남</t>
+  </si>
+  <si>
+    <t>도태녀</t>
+  </si>
+  <si>
+    <t>도.태</t>
+  </si>
+  <si>
+    <t>도1태</t>
+  </si>
+  <si>
+    <t>개독</t>
+  </si>
+  <si>
+    <t>개돼지</t>
+  </si>
+  <si>
+    <t>개련</t>
+  </si>
+  <si>
+    <t>개부랄</t>
+  </si>
+  <si>
+    <t>개삼성</t>
+  </si>
+  <si>
+    <t>개새기</t>
+  </si>
+  <si>
+    <t>개새끼</t>
+  </si>
+  <si>
+    <t>개섹</t>
+  </si>
+  <si>
+    <t>풀발</t>
+  </si>
+  <si>
+    <t>씹선</t>
+  </si>
+  <si>
+    <t>개셈</t>
+  </si>
+  <si>
+    <t>개소리</t>
+  </si>
+  <si>
+    <t>개쓰래기</t>
+  </si>
+  <si>
+    <t>개저씨</t>
+  </si>
+  <si>
+    <t>거지같</t>
+  </si>
+  <si>
+    <t>그지</t>
+  </si>
+  <si>
+    <t>계새끼</t>
+  </si>
+  <si>
+    <t>골 빈</t>
+  </si>
+  <si>
+    <t>골1빈</t>
+  </si>
+  <si>
+    <t>골빈</t>
+  </si>
+  <si>
+    <t>괘새끼</t>
+  </si>
+  <si>
+    <t>그1켬</t>
+  </si>
+  <si>
+    <t>그지 같</t>
+  </si>
+  <si>
+    <t>그지같</t>
+  </si>
+  <si>
+    <t>김치녀</t>
+  </si>
+  <si>
+    <t>김치남</t>
+  </si>
+  <si>
+    <t>김치놈</t>
+  </si>
+  <si>
+    <t>김치년</t>
+  </si>
+  <si>
+    <t>한녀</t>
+  </si>
+  <si>
+    <t>한.녀</t>
+  </si>
+  <si>
+    <t>한남들</t>
+  </si>
+  <si>
+    <t>한.남</t>
+  </si>
+  <si>
+    <t>그남들</t>
+  </si>
+  <si>
+    <t>자들자들</t>
+  </si>
+  <si>
+    <t>된장녀</t>
+  </si>
+  <si>
+    <t>피싸개</t>
+  </si>
+  <si>
+    <t>앙기모띠</t>
+  </si>
+  <si>
+    <t>보이루</t>
+  </si>
+  <si>
+    <t>소추</t>
+  </si>
+  <si>
+    <t>퍄퍄</t>
+  </si>
+  <si>
+    <t>방구석</t>
+  </si>
+  <si>
+    <t>석 스</t>
+  </si>
+  <si>
+    <t>형보수지</t>
+  </si>
+  <si>
+    <t>눈나</t>
+  </si>
+  <si>
+    <t>김여사</t>
+  </si>
+  <si>
+    <t>여적여</t>
+  </si>
+  <si>
+    <t>자적자</t>
+  </si>
+  <si>
+    <t>남적남</t>
+  </si>
+  <si>
+    <t>보적보</t>
+  </si>
+  <si>
+    <t>삼일한</t>
+  </si>
+  <si>
+    <t>보슬아치</t>
+  </si>
+  <si>
+    <t>보징어</t>
+  </si>
+  <si>
+    <t>엑윽</t>
+  </si>
+  <si>
+    <t>헤으응</t>
+  </si>
+  <si>
+    <t>이기야</t>
+  </si>
+  <si>
+    <t>부왘</t>
+  </si>
+  <si>
+    <t>보픈카</t>
+  </si>
+  <si>
+    <t>보라니</t>
+  </si>
+  <si>
+    <t>상폐녀</t>
+  </si>
+  <si>
+    <t>배빵</t>
+  </si>
+  <si>
+    <t>누보햄</t>
+  </si>
+  <si>
+    <t>자박꼼</t>
+  </si>
+  <si>
+    <t>로린</t>
+  </si>
+  <si>
+    <t>아몰랑</t>
+  </si>
+  <si>
+    <t>업계포상</t>
+  </si>
+  <si>
+    <t>번녀</t>
+  </si>
+  <si>
+    <t>번남</t>
+  </si>
+  <si>
+    <t>번 녀</t>
+  </si>
+  <si>
+    <t>번 남</t>
+  </si>
+  <si>
+    <t>대남</t>
+  </si>
+  <si>
+    <t>대녀</t>
+  </si>
+  <si>
+    <t>개념녀</t>
+  </si>
+  <si>
+    <t>개념남</t>
+  </si>
+  <si>
+    <t>냄저</t>
+  </si>
+  <si>
+    <t>빨갱</t>
+  </si>
+  <si>
+    <t>뷔페미</t>
+  </si>
+  <si>
+    <t>급남</t>
+  </si>
+  <si>
+    <t>등남</t>
+  </si>
+  <si>
+    <t>급녀</t>
+  </si>
+  <si>
+    <t>등녀</t>
+  </si>
+  <si>
+    <t>꼴페</t>
+  </si>
+  <si>
+    <t>-2-</t>
+  </si>
+  <si>
+    <t>-1-</t>
+  </si>
+  <si>
+    <t>문재앙</t>
+  </si>
+  <si>
+    <t>윤재앙</t>
+  </si>
+  <si>
+    <t>렬.이다</t>
+  </si>
+  <si>
+    <t>렬이다</t>
+  </si>
+  <si>
+    <t>쿵쾅</t>
+  </si>
+  <si>
+    <t>쿵.쾅</t>
+  </si>
+  <si>
+    <t>펨베</t>
+  </si>
+  <si>
+    <t>펨코</t>
+  </si>
+  <si>
+    <t>펨.코</t>
+  </si>
+  <si>
+    <t>엠팍</t>
+  </si>
+  <si>
+    <t>쿰.척</t>
+  </si>
+  <si>
+    <t>쿰척</t>
+  </si>
+  <si>
+    <t>ㅗㅜㅑ</t>
+  </si>
+  <si>
+    <t>오우야</t>
+  </si>
+  <si>
+    <t>껒여</t>
+  </si>
+  <si>
+    <t>꺼지세요</t>
+  </si>
+  <si>
+    <t>꺼져요</t>
+  </si>
+  <si>
+    <t>로 꺼져</t>
+  </si>
+  <si>
+    <t>로꺼져</t>
+  </si>
+  <si>
+    <t>로 꺼.져</t>
+  </si>
+  <si>
+    <t>꺼.지</t>
+  </si>
+  <si>
+    <t>꼴데</t>
+  </si>
+  <si>
+    <t>설거지론</t>
+  </si>
+  <si>
+    <t>퐁퐁남</t>
+  </si>
+  <si>
+    <t>퐁퐁녀</t>
+  </si>
+  <si>
+    <t>나빼썅</t>
+  </si>
+  <si>
+    <t>나쁜 새끼</t>
+  </si>
+  <si>
+    <t>넌씨눈</t>
+  </si>
+  <si>
+    <t>년놈</t>
+  </si>
+  <si>
+    <t>노알라</t>
+  </si>
+  <si>
+    <t>노인네</t>
+  </si>
+  <si>
+    <t>노친네</t>
+  </si>
+  <si>
+    <t>느그</t>
+  </si>
+  <si>
+    <t>느금</t>
+  </si>
+  <si>
+    <t>뇌 텅</t>
+  </si>
+  <si>
+    <t>뇌1텅</t>
+  </si>
+  <si>
+    <t>뇌텅</t>
+  </si>
+  <si>
+    <t>눈깔 파</t>
+  </si>
+  <si>
+    <t>눈깔파</t>
+  </si>
+  <si>
+    <t>눈새</t>
+  </si>
+  <si>
+    <t>늬믜</t>
+  </si>
+  <si>
+    <t>늬미</t>
+  </si>
+  <si>
+    <t>니년</t>
+  </si>
+  <si>
+    <t>니믜</t>
+  </si>
+  <si>
+    <t>니미럴</t>
+  </si>
+  <si>
+    <t>닝기리</t>
+  </si>
+  <si>
+    <t>닥1</t>
+  </si>
+  <si>
+    <t>닥2</t>
+  </si>
+  <si>
+    <t>닥전</t>
+  </si>
+  <si>
+    <t>닥쳐라</t>
+  </si>
+  <si>
+    <t>닥치세</t>
+  </si>
+  <si>
+    <t>닥후</t>
+  </si>
+  <si>
+    <t>대가리</t>
+  </si>
+  <si>
+    <t>머가리</t>
+  </si>
+  <si>
+    <t>머.가리</t>
+  </si>
+  <si>
+    <t>대.가리</t>
+  </si>
+  <si>
+    <t>꽃밭</t>
+  </si>
+  <si>
+    <t>꽃.밭</t>
+  </si>
+  <si>
+    <t>대갈</t>
+  </si>
+  <si>
+    <t>덬</t>
+  </si>
+  <si>
+    <t>도라이</t>
+  </si>
+  <si>
+    <t>도랏</t>
+  </si>
+  <si>
+    <t>도랐</t>
+  </si>
+  <si>
+    <t>도른</t>
+  </si>
+  <si>
+    <t>돌앗구만</t>
+  </si>
+  <si>
+    <t>돌앗나</t>
+  </si>
+  <si>
+    <t>돌앗네</t>
+  </si>
+  <si>
+    <t>돌았구만</t>
+  </si>
+  <si>
+    <t>돌았나</t>
+  </si>
+  <si>
+    <t>돌았네</t>
+  </si>
+  <si>
+    <t>둄마</t>
+  </si>
+  <si>
+    <t>뒈져</t>
+  </si>
+  <si>
+    <t>뒤져라</t>
+  </si>
+  <si>
+    <t>뒤져버</t>
+  </si>
+  <si>
+    <t>뒤져야</t>
+  </si>
+  <si>
+    <t>뒤져야지</t>
+  </si>
+  <si>
+    <t>뒤져요</t>
+  </si>
+  <si>
+    <t>뒤졌</t>
+  </si>
+  <si>
+    <t>뒤지겠</t>
+  </si>
+  <si>
+    <t>뒤지고싶</t>
+  </si>
+  <si>
+    <t>뒤지길</t>
+  </si>
+  <si>
+    <t>뒤진다</t>
+  </si>
+  <si>
+    <t>뒤질</t>
+  </si>
+  <si>
+    <t>듣보</t>
+  </si>
+  <si>
+    <t>디져라</t>
+  </si>
+  <si>
+    <t>디졌</t>
+  </si>
+  <si>
+    <t>디지고</t>
+  </si>
+  <si>
+    <t>디질</t>
+  </si>
+  <si>
+    <t>딴년</t>
+  </si>
+  <si>
+    <t>또라이</t>
+  </si>
+  <si>
+    <t>또라인</t>
+  </si>
+  <si>
+    <t>똘아이</t>
+  </si>
+  <si>
+    <t>아재</t>
+  </si>
+  <si>
+    <t>네 아줌마</t>
+  </si>
+  <si>
+    <t>네 아저씨</t>
+  </si>
+  <si>
+    <t>네아줌마</t>
+  </si>
+  <si>
+    <t>네아저씨</t>
+  </si>
+  <si>
+    <t>뚝배기깨</t>
+  </si>
+  <si>
+    <t>뚝배기 깨</t>
+  </si>
+  <si>
+    <t>뚫린 입</t>
+  </si>
+  <si>
+    <t>뚫린입</t>
+  </si>
+  <si>
+    <t>라면갤</t>
+  </si>
+  <si>
+    <t>런놈</t>
+  </si>
+  <si>
+    <t>런년</t>
+  </si>
+  <si>
+    <t>럼들</t>
+  </si>
+  <si>
+    <t>레1친</t>
+  </si>
+  <si>
+    <t>레기같</t>
+  </si>
+  <si>
+    <t>레기네</t>
+  </si>
+  <si>
+    <t>레기다</t>
+  </si>
+  <si>
+    <t>레친</t>
+  </si>
+  <si>
+    <t>xy들</t>
+  </si>
+  <si>
+    <t>xx들</t>
+  </si>
+  <si>
+    <t>련들</t>
+  </si>
+  <si>
+    <t>롬들</t>
+  </si>
+  <si>
+    <t>ㅁ.ㄱ</t>
+  </si>
+  <si>
+    <t>ㅁㅊ</t>
+  </si>
+  <si>
+    <t>ㅁ친</t>
+  </si>
+  <si>
+    <t>미새</t>
+  </si>
+  <si>
+    <t>맘충</t>
+  </si>
+  <si>
+    <t>🤏🏻</t>
+  </si>
+  <si>
+    <t>🤏</t>
+  </si>
+  <si>
+    <t>망돌</t>
+  </si>
+  <si>
+    <t>머갈</t>
+  </si>
+  <si>
+    <t>머리 텅</t>
+  </si>
+  <si>
+    <t>머리텅</t>
+  </si>
+  <si>
+    <t>먹.금</t>
+  </si>
+  <si>
+    <t>먹.끔</t>
+  </si>
+  <si>
+    <t>먹1금</t>
+  </si>
+  <si>
+    <t>먹금</t>
+  </si>
+  <si>
+    <t>먹끔</t>
+  </si>
+  <si>
+    <t>명존</t>
+  </si>
+  <si>
+    <t>뭔솔</t>
+  </si>
+  <si>
+    <t>믜칀</t>
+  </si>
+  <si>
+    <t>믜친</t>
+  </si>
+  <si>
+    <t>미1친</t>
+  </si>
+  <si>
+    <t>미놈</t>
+  </si>
+  <si>
+    <t>미시친발</t>
+  </si>
+  <si>
+    <t>미쳣네</t>
+  </si>
+  <si>
+    <t>미쳤니</t>
+  </si>
+  <si>
+    <t>미췬</t>
+  </si>
+  <si>
+    <t>미칀</t>
+  </si>
+  <si>
+    <t>미친 새</t>
+  </si>
+  <si>
+    <t>미친~</t>
+  </si>
+  <si>
+    <t>미친개</t>
+  </si>
+  <si>
+    <t>미친새</t>
+  </si>
+  <si>
+    <t>미친색</t>
+  </si>
+  <si>
+    <t>미틴</t>
+  </si>
+  <si>
+    <t>및힌</t>
+  </si>
+  <si>
+    <t>줘패</t>
+  </si>
+  <si>
+    <t>꼬추</t>
+  </si>
+  <si>
+    <t>미치ㄴ</t>
+  </si>
+  <si>
+    <t>ㅅ.ㄲ</t>
+  </si>
+  <si>
+    <t>색퀴</t>
+  </si>
+  <si>
+    <t>ㅅ끼</t>
+  </si>
+  <si>
+    <t>흉자</t>
+  </si>
+  <si>
+    <t>미친넘</t>
+  </si>
+  <si>
+    <t>및친</t>
+  </si>
+  <si>
+    <t>GR도</t>
+  </si>
+  <si>
+    <t>미핀놈</t>
+  </si>
+  <si>
+    <t>샛기</t>
+  </si>
+  <si>
+    <t>폐급</t>
+  </si>
+  <si>
+    <t>xportsnews</t>
+  </si>
+  <si>
+    <t>G랄</t>
+  </si>
+  <si>
+    <t>세키</t>
+  </si>
+  <si>
+    <t>미치누</t>
+  </si>
+  <si>
+    <t>d져</t>
+  </si>
+  <si>
+    <t>ㅂㅁㄱ</t>
+  </si>
+  <si>
+    <t>ㅂㅊ</t>
+  </si>
+  <si>
+    <t>ㅂ크</t>
+  </si>
+  <si>
+    <t>발놈</t>
+  </si>
+  <si>
+    <t>별창</t>
+  </si>
+  <si>
+    <t>병1신</t>
+  </si>
+  <si>
+    <t>병맛</t>
+  </si>
+  <si>
+    <t>병신</t>
+  </si>
+  <si>
+    <t>봊</t>
+  </si>
+  <si>
+    <t>보전깨</t>
+  </si>
+  <si>
+    <t>싸개</t>
+  </si>
+  <si>
+    <t>븅신</t>
+  </si>
+  <si>
+    <t>빠큐</t>
+  </si>
+  <si>
+    <t>빡새끼</t>
+  </si>
+  <si>
+    <t>빻았</t>
+  </si>
+  <si>
+    <t>빻은</t>
+  </si>
+  <si>
+    <t>뻐규</t>
+  </si>
+  <si>
+    <t>뻐큐</t>
+  </si>
+  <si>
+    <t>뻑유</t>
+  </si>
+  <si>
+    <t>뻑큐</t>
+  </si>
+  <si>
+    <t>뻨큐</t>
+  </si>
+  <si>
+    <t>뼈큐</t>
+  </si>
+  <si>
+    <t>쉰내</t>
+  </si>
+  <si>
+    <t>ㅄ</t>
+  </si>
+  <si>
+    <t>ㅅ</t>
+  </si>
+  <si>
+    <t>ㅂ</t>
+  </si>
+  <si>
+    <t>ㅅ.ㅂ</t>
+  </si>
+  <si>
+    <t>ㅅ1ㅂ</t>
+  </si>
+  <si>
+    <t>ㅅ1발</t>
+  </si>
+  <si>
+    <t>ㅅㄲ네</t>
+  </si>
+  <si>
+    <t>ㅅㄲ들</t>
+  </si>
+  <si>
+    <t>친ㅅㄲ</t>
+  </si>
+  <si>
+    <t>친 ㅅㄲ</t>
+  </si>
+  <si>
+    <t>ㅅ1ㄲ</t>
+  </si>
+  <si>
+    <t>ㅅ루</t>
+  </si>
+  <si>
+    <t>ㅅㅋ</t>
+  </si>
+  <si>
+    <t>ㅅㅌㅊ</t>
+  </si>
+  <si>
+    <t>사새끼</t>
+  </si>
+  <si>
+    <t>새.끼</t>
+  </si>
+  <si>
+    <t>새1끼</t>
+  </si>
+  <si>
+    <t>새1키</t>
+  </si>
+  <si>
+    <t>새77ㅣ</t>
+  </si>
+  <si>
+    <t>새끼라</t>
+  </si>
+  <si>
+    <t>새끼야</t>
+  </si>
+  <si>
+    <t>새퀴</t>
+  </si>
+  <si>
+    <t>새킈</t>
+  </si>
+  <si>
+    <t>새키</t>
+  </si>
+  <si>
+    <t>색희</t>
+  </si>
+  <si>
+    <t>색히</t>
+  </si>
+  <si>
+    <t>샊기</t>
+  </si>
+  <si>
+    <t>샊히</t>
+  </si>
+  <si>
+    <t>샹년</t>
+  </si>
+  <si>
+    <t>섀키</t>
+  </si>
+  <si>
+    <t>서치해</t>
+  </si>
+  <si>
+    <t>섬숭이</t>
+  </si>
+  <si>
+    <t>성괴</t>
+  </si>
+  <si>
+    <t>솔1친</t>
+  </si>
+  <si>
+    <t>솔친</t>
+  </si>
+  <si>
+    <t>쉬발</t>
+  </si>
+  <si>
+    <t>쉬버</t>
+  </si>
+  <si>
+    <t>쉬이바</t>
+  </si>
+  <si>
+    <t>쉬이이</t>
+  </si>
+  <si>
+    <t>쉬펄</t>
+  </si>
+  <si>
+    <t>슈1발</t>
+  </si>
+  <si>
+    <t>슈레기</t>
+  </si>
+  <si>
+    <t>슈발</t>
+  </si>
+  <si>
+    <t>슈벌</t>
+  </si>
+  <si>
+    <t>슈우벌</t>
+  </si>
+  <si>
+    <t>슈ㅣ발</t>
+  </si>
+  <si>
+    <t>스벌</t>
+  </si>
+  <si>
+    <t>슨상님</t>
+  </si>
+  <si>
+    <t>싑창</t>
+  </si>
+  <si>
+    <t>시1발</t>
+  </si>
+  <si>
+    <t>시미발친</t>
+  </si>
+  <si>
+    <t>시미친발</t>
+  </si>
+  <si>
+    <t>시바라지</t>
+  </si>
+  <si>
+    <t>시바류</t>
+  </si>
+  <si>
+    <t>시바시바</t>
+  </si>
+  <si>
+    <t>시바알</t>
+  </si>
+  <si>
+    <t>시발</t>
+  </si>
+  <si>
+    <t>ㅅㅂ</t>
+  </si>
+  <si>
+    <t>닥 쳐</t>
+  </si>
+  <si>
+    <t>하남자</t>
+  </si>
+  <si>
+    <t>하여자</t>
+  </si>
+  <si>
+    <t>쌉스</t>
+  </si>
+  <si>
+    <t>썩열</t>
+  </si>
+  <si>
+    <t>썩렬</t>
+  </si>
+  <si>
+    <t>쎡열</t>
+  </si>
+  <si>
+    <t>쎡렬</t>
+  </si>
+  <si>
+    <t>먹버</t>
+  </si>
+  <si>
+    <t>대깨</t>
+  </si>
+  <si>
+    <t>야랄</t>
+  </si>
+  <si>
+    <t>ㅂㅅ</t>
+  </si>
+  <si>
+    <t>ㅂ.ㅅ</t>
+  </si>
+  <si>
+    <t>ㅂ1ㅅ</t>
+  </si>
+  <si>
+    <t>한남노</t>
+  </si>
+  <si>
+    <t>한1남</t>
+  </si>
+  <si>
+    <t>한남을</t>
+  </si>
+  <si>
+    <t>버튼눌</t>
+  </si>
+  <si>
+    <t>버튼 눌</t>
+  </si>
+  <si>
+    <t>egr</t>
+  </si>
+  <si>
+    <t>발작</t>
+  </si>
+  <si>
+    <t>발.작</t>
+  </si>
+  <si>
+    <t>싸튀</t>
+  </si>
+  <si>
+    <t>렬받</t>
+  </si>
+  <si>
+    <t>렬스</t>
+  </si>
+  <si>
+    <t>렬 한</t>
+  </si>
+  <si>
+    <t>렬 받</t>
+  </si>
+  <si>
+    <t>렬 하</t>
+  </si>
+  <si>
+    <t>렬 스</t>
+  </si>
+  <si>
+    <t>멍.청</t>
+  </si>
+  <si>
+    <t>- 2 -</t>
+  </si>
+  <si>
+    <t>- 1 -</t>
+  </si>
+  <si>
+    <t>아줌내</t>
+  </si>
+  <si>
+    <t>머깨</t>
+  </si>
+  <si>
+    <t>ㅅㄹ스</t>
+  </si>
+  <si>
+    <t>ㅅㄹ하</t>
+  </si>
+  <si>
+    <t>ㅅㄹ같</t>
+  </si>
+  <si>
+    <t>석열하</t>
+  </si>
+  <si>
+    <t>석열스</t>
+  </si>
+  <si>
+    <t>ㅅㅇ스</t>
+  </si>
+  <si>
+    <t>ㅅㅇ같</t>
+  </si>
+  <si>
+    <t>ㅅㅇ하</t>
+  </si>
+  <si>
+    <t>등신아</t>
+  </si>
+  <si>
+    <t>미친것</t>
+  </si>
+  <si>
+    <t>개때리</t>
+  </si>
+  <si>
+    <t>개떄려</t>
+  </si>
+  <si>
+    <t>염병하</t>
+  </si>
+  <si>
+    <t>염병짓</t>
+  </si>
+  <si>
+    <t>종간나</t>
+  </si>
+  <si>
+    <t>빠가사리</t>
+  </si>
+  <si>
+    <t>새기들</t>
+  </si>
+  <si>
+    <t>애새기</t>
+  </si>
+  <si>
+    <t>ktestone</t>
+  </si>
+  <si>
+    <t>시방새</t>
+  </si>
+  <si>
+    <t>시벌탱</t>
+  </si>
+  <si>
+    <t>시볼탱</t>
+  </si>
+  <si>
+    <t>시부럴</t>
+  </si>
+  <si>
+    <t>시부렬</t>
+  </si>
+  <si>
+    <t>시부울</t>
+  </si>
+  <si>
+    <t>시뷰럴</t>
+  </si>
+  <si>
+    <t>시뷰렬</t>
+  </si>
+  <si>
+    <t>시빨</t>
+  </si>
+  <si>
+    <t>시새발끼</t>
+  </si>
+  <si>
+    <t>시이발</t>
+  </si>
+  <si>
+    <t>시친발미</t>
+  </si>
+  <si>
+    <t>시키가</t>
+  </si>
+  <si>
+    <t>시팔</t>
+  </si>
+  <si>
+    <t>시펄</t>
+  </si>
+  <si>
+    <t>십창</t>
+  </si>
+  <si>
+    <t>퐁퐁단</t>
+  </si>
+  <si>
+    <t>십팔</t>
+  </si>
+  <si>
+    <t>ㅆ1ㄺ</t>
+  </si>
+  <si>
+    <t>ㅆ1ㅂ</t>
+  </si>
+  <si>
+    <t>ㅆㄹㄱ</t>
+  </si>
+  <si>
+    <t>ㅆㄺ</t>
+  </si>
+  <si>
+    <t>ㅆㅂ</t>
+  </si>
+  <si>
+    <t>싸가지 없</t>
+  </si>
+  <si>
+    <t>싸가지없</t>
+  </si>
+  <si>
+    <t>싸물어</t>
+  </si>
+  <si>
+    <t>쌍년</t>
+  </si>
+  <si>
+    <t>쌍놈</t>
+  </si>
+  <si>
+    <t>쌔끼</t>
+  </si>
+  <si>
+    <t>썅</t>
+  </si>
+  <si>
+    <t>썌끼</t>
+  </si>
+  <si>
+    <t>쒸펄</t>
+  </si>
+  <si>
+    <t>쓰1레기</t>
+  </si>
+  <si>
+    <t>쓰래기같</t>
+  </si>
+  <si>
+    <t>쓰레기 새</t>
+  </si>
+  <si>
+    <t>쓰레기새</t>
+  </si>
+  <si>
+    <t>쓰렉</t>
+  </si>
+  <si>
+    <t>씝창</t>
+  </si>
+  <si>
+    <t>씨1발</t>
+  </si>
+  <si>
+    <t>씨바라</t>
+  </si>
+  <si>
+    <t>씨바알</t>
+  </si>
+  <si>
+    <t>씨발</t>
+  </si>
+  <si>
+    <t>씨.발</t>
+  </si>
+  <si>
+    <t>씨방새</t>
+  </si>
+  <si>
+    <t>씨버럼</t>
+  </si>
+  <si>
+    <t>씨벌</t>
+  </si>
+  <si>
+    <t>씨벌탱</t>
+  </si>
+  <si>
+    <t>씨볼탱</t>
+  </si>
+  <si>
+    <t>씨부럴</t>
+  </si>
+  <si>
+    <t>link.coupang</t>
+  </si>
+  <si>
+    <t>씨부렬</t>
+  </si>
+  <si>
+    <t>씨뷰럴</t>
+  </si>
+  <si>
+    <t>씨뷰렬</t>
+  </si>
+  <si>
+    <t>씨빠빠</t>
+  </si>
+  <si>
+    <t>씨빨</t>
+  </si>
+  <si>
+    <t>씨뻘</t>
+  </si>
+  <si>
+    <t>씨새발끼</t>
+  </si>
+  <si>
+    <t>씨이발</t>
+  </si>
+  <si>
+    <t>씨팔</t>
+  </si>
+  <si>
+    <t>씹귀</t>
+  </si>
+  <si>
+    <t>씹못</t>
+  </si>
+  <si>
+    <t>씹뻐럴</t>
+  </si>
+  <si>
+    <t>씹새끼</t>
+  </si>
+  <si>
+    <t>씹쌔</t>
+  </si>
+  <si>
+    <t>씹창</t>
+  </si>
+  <si>
+    <t>씹치</t>
+  </si>
+  <si>
+    <t>씹팔</t>
+  </si>
+  <si>
+    <t>씹할</t>
+  </si>
+  <si>
+    <t>ㅇㅍㅊㅌ</t>
+  </si>
+  <si>
+    <t>아가리</t>
+  </si>
+  <si>
+    <t>아닥</t>
+  </si>
+  <si>
+    <t>더쿠</t>
+  </si>
+  <si>
+    <t>더.쿠</t>
+  </si>
+  <si>
+    <t>ㄷㅋ</t>
+  </si>
+  <si>
+    <t>아오 ㅅㅂ</t>
+  </si>
+  <si>
+    <t>아오 시바</t>
+  </si>
+  <si>
+    <t>아오ㅅㅂ</t>
+  </si>
+  <si>
+    <t>아오시바</t>
+  </si>
+  <si>
+    <t>안물안궁</t>
+  </si>
+  <si>
+    <t>애미</t>
+  </si>
+  <si>
+    <t>앰창</t>
+  </si>
+  <si>
+    <t>닥눈삼</t>
+  </si>
+  <si>
+    <t>에라이 퉤</t>
+  </si>
+  <si>
+    <t>에라이 퉷</t>
+  </si>
+  <si>
+    <t>에라이퉤</t>
+  </si>
+  <si>
+    <t>에라이퉷</t>
+  </si>
+  <si>
+    <t>엠뷩신</t>
+  </si>
+  <si>
+    <t>엠븽신</t>
+  </si>
+  <si>
+    <t>엠빙신</t>
+  </si>
+  <si>
+    <t>시녀</t>
+  </si>
+  <si>
+    <t>엠생</t>
+  </si>
+  <si>
+    <t>엠창</t>
+  </si>
+  <si>
+    <t>엿같</t>
+  </si>
+  <si>
+    <t>엿이나</t>
+  </si>
+  <si>
+    <t>예.질</t>
+  </si>
+  <si>
+    <t>예1질</t>
+  </si>
+  <si>
+    <t>예질</t>
+  </si>
+  <si>
+    <t>옘병</t>
+  </si>
+  <si>
+    <t>외1퀴</t>
+  </si>
+  <si>
+    <t>외퀴</t>
+  </si>
+  <si>
+    <t>웅앵</t>
+  </si>
+  <si>
+    <t>웅엥</t>
+  </si>
+  <si>
+    <t>은년</t>
+  </si>
+  <si>
+    <t>은새끼</t>
+  </si>
+  <si>
+    <t>이 새끼</t>
+  </si>
+  <si>
+    <t>이새끼</t>
+  </si>
+  <si>
+    <t>一 一</t>
+  </si>
+  <si>
+    <t>一 ㅡ</t>
+  </si>
+  <si>
+    <t>一一</t>
+  </si>
+  <si>
+    <t>一ㅡ</t>
+  </si>
+  <si>
+    <t>입 털</t>
+  </si>
+  <si>
+    <t>입털</t>
+  </si>
+  <si>
+    <t>ㅈ.ㄴ</t>
+  </si>
+  <si>
+    <t>ㅈ소</t>
+  </si>
+  <si>
+    <t>ㅈㄴ</t>
+  </si>
+  <si>
+    <t>ㅈㄹ</t>
+  </si>
+  <si>
+    <t>지잡</t>
+  </si>
+  <si>
+    <t>절라</t>
+  </si>
+  <si>
+    <t>정신나갓</t>
+  </si>
+  <si>
+    <t>정신나갔</t>
+  </si>
+  <si>
+    <t>젖 같</t>
+  </si>
+  <si>
+    <t>젗같</t>
+  </si>
+  <si>
+    <t>젼나</t>
+  </si>
+  <si>
+    <t>젼낰</t>
+  </si>
+  <si>
+    <t>졀라</t>
+  </si>
+  <si>
+    <t>졀리</t>
+  </si>
+  <si>
+    <t>졌같은</t>
+  </si>
+  <si>
+    <t>졏 같</t>
+  </si>
+  <si>
+    <t>조온</t>
+  </si>
+  <si>
+    <t>조온나</t>
+  </si>
+  <si>
+    <t>족까</t>
+  </si>
+  <si>
+    <t>존 나</t>
+  </si>
+  <si>
+    <t>존</t>
+  </si>
+  <si>
+    <t>나</t>
+  </si>
+  <si>
+    <t>존.나</t>
+  </si>
+  <si>
+    <t>존1</t>
+  </si>
+  <si>
+    <t>존1나</t>
+  </si>
+  <si>
+    <t>🚬</t>
+  </si>
+  <si>
+    <t>멍청</t>
+  </si>
+  <si>
+    <t>?feature=share</t>
+  </si>
+  <si>
+    <t>능지</t>
+  </si>
+  <si>
+    <t>조센징</t>
+  </si>
+  <si>
+    <t>짱깨</t>
+  </si>
+  <si>
+    <t>짱개</t>
+  </si>
+  <si>
+    <t>짱꼴라</t>
+  </si>
+  <si>
+    <t>착짱</t>
+  </si>
+  <si>
+    <t>착.</t>
+  </si>
+  <si>
+    <t>챡.</t>
+  </si>
+  <si>
+    <t>죽짱</t>
+  </si>
+  <si>
+    <t>쥭.</t>
+  </si>
+  <si>
+    <t>쨩.</t>
+  </si>
+  <si>
+    <t>짱.</t>
+  </si>
+  <si>
+    <t>쨩1</t>
+  </si>
+  <si>
+    <t>착1</t>
+  </si>
+  <si>
+    <t>쥭1</t>
+  </si>
+  <si>
+    <t>짱골라</t>
+  </si>
+  <si>
+    <t>좃</t>
+  </si>
+  <si>
+    <t>종나</t>
+  </si>
+  <si>
+    <t>곱창났</t>
+  </si>
+  <si>
+    <t>곱창나</t>
+  </si>
+  <si>
+    <t>좆</t>
+  </si>
+  <si>
+    <t>좁밥</t>
+  </si>
+  <si>
+    <t>좋소</t>
+  </si>
+  <si>
+    <t>좇같</t>
+  </si>
+  <si>
+    <t>죠낸</t>
+  </si>
+  <si>
+    <t>죠온나</t>
+  </si>
+  <si>
+    <t>죤나</t>
+  </si>
+  <si>
+    <t>죤내</t>
+  </si>
+  <si>
+    <t>죵나</t>
+  </si>
+  <si>
+    <t>죶</t>
+  </si>
+  <si>
+    <t>죽어버려</t>
+  </si>
+  <si>
+    <t>죽여 버리고</t>
+  </si>
+  <si>
+    <t>죽여버리고</t>
+  </si>
+  <si>
+    <t>죽여불고</t>
+  </si>
+  <si>
+    <t>죽여뿌고</t>
+  </si>
+  <si>
+    <t>줬같은</t>
+  </si>
+  <si>
+    <t>쥐랄</t>
+  </si>
+  <si>
+    <t>쥰나</t>
+  </si>
+  <si>
+    <t>쥰내</t>
+  </si>
+  <si>
+    <t>쥰니</t>
+  </si>
+  <si>
+    <t>쥰트</t>
+  </si>
+  <si>
+    <t>즤랄</t>
+  </si>
+  <si>
+    <t>지 랄</t>
+  </si>
+  <si>
+    <t>지1랄</t>
+  </si>
+  <si>
+    <t>지1뢰</t>
+  </si>
+  <si>
+    <t>지껄이</t>
+  </si>
+  <si>
+    <t>지들이</t>
+  </si>
+  <si>
+    <t>지랄</t>
+  </si>
+  <si>
+    <t>ezr</t>
+  </si>
+  <si>
+    <t>2zr</t>
+  </si>
+  <si>
+    <t>2gr</t>
+  </si>
+  <si>
+    <t>지롤</t>
+  </si>
+  <si>
+    <t>렬같</t>
+  </si>
+  <si>
+    <t>열같</t>
+  </si>
+  <si>
+    <t>렬 같</t>
+  </si>
+  <si>
+    <t>열 같</t>
+  </si>
+  <si>
+    <t>석 렬</t>
+  </si>
+  <si>
+    <t>썩 렬</t>
+  </si>
+  <si>
+    <t>썩 열</t>
+  </si>
+  <si>
+    <t>찢재</t>
+  </si>
+  <si>
+    <t>찢 재</t>
+  </si>
+  <si>
+    <t>찢1</t>
+  </si>
+  <si>
+    <t>우동사리</t>
+  </si>
+  <si>
+    <t>ㅁ청</t>
+  </si>
+  <si>
+    <t>석내</t>
+  </si>
+  <si>
+    <t>렬.하</t>
+  </si>
+  <si>
+    <t>열.하</t>
+  </si>
+  <si>
+    <t>ㅉ</t>
+  </si>
+  <si>
+    <t>ㅉ질한</t>
+  </si>
+  <si>
+    <t>꼴라</t>
+  </si>
+  <si>
+    <t>꿜라</t>
+  </si>
+  <si>
+    <t>짱께</t>
+  </si>
+  <si>
+    <t>쪼녜</t>
+  </si>
+  <si>
+    <t>쪼다</t>
+  </si>
+  <si>
+    <t>착짱죽짱</t>
+  </si>
+  <si>
+    <t>쪽본</t>
+  </si>
+  <si>
+    <t>쪽1바리</t>
+  </si>
+  <si>
+    <t>쪽바리</t>
+  </si>
+  <si>
+    <t>쪽발</t>
+  </si>
+  <si>
+    <t>쫀 맛</t>
+  </si>
+  <si>
+    <t>쫀1</t>
+  </si>
+  <si>
+    <t>쫀귀</t>
+  </si>
+  <si>
+    <t>쫀맛</t>
+  </si>
+  <si>
+    <t>쫂</t>
+  </si>
+  <si>
+    <t>쫓같</t>
+  </si>
+  <si>
+    <t>쬰잘</t>
+  </si>
+  <si>
+    <t>쬲</t>
+  </si>
+  <si>
+    <t>쯰질</t>
+  </si>
+  <si>
+    <t>찌1질</t>
+  </si>
+  <si>
+    <t>찌질한</t>
+  </si>
+  <si>
+    <t>찍찍이</t>
+  </si>
+  <si>
+    <t>찎찎이</t>
+  </si>
+  <si>
+    <t>찝째끼</t>
+  </si>
+  <si>
+    <t>창년</t>
+  </si>
+  <si>
+    <t>창녀</t>
+  </si>
+  <si>
+    <t>창남</t>
+  </si>
+  <si>
+    <t>창놈</t>
+  </si>
+  <si>
+    <t>창넘</t>
+  </si>
+  <si>
+    <t>처먹</t>
+  </si>
+  <si>
+    <t>凸</t>
+  </si>
+  <si>
+    <t>첫빠</t>
+  </si>
+  <si>
+    <t>쳐마</t>
+  </si>
+  <si>
+    <t>쳐먹</t>
+  </si>
+  <si>
+    <t>쳐받는</t>
+  </si>
+  <si>
+    <t>쳐발라</t>
+  </si>
+  <si>
+    <t>취ㅈ</t>
+  </si>
+  <si>
+    <t>취좃</t>
+  </si>
+  <si>
+    <t>친 년</t>
+  </si>
+  <si>
+    <t>한 년</t>
+  </si>
+  <si>
+    <t>친 놈</t>
+  </si>
+  <si>
+    <t>친구년</t>
+  </si>
+  <si>
+    <t>친년</t>
+  </si>
+  <si>
+    <t>한년</t>
+  </si>
+  <si>
+    <t>친노마</t>
+  </si>
+  <si>
+    <t>친놈</t>
+  </si>
+  <si>
+    <t>colormytree</t>
+  </si>
+  <si>
+    <t>ㅍㅌㅊ</t>
+  </si>
+  <si>
+    <t>핑1프</t>
+  </si>
+  <si>
+    <t>핑거프린세스</t>
+  </si>
+  <si>
+    <t>핑끄</t>
+  </si>
+  <si>
+    <t>핑프</t>
+  </si>
+  <si>
+    <t>ㅎㅃ</t>
+  </si>
+  <si>
+    <t>ㅎㅌㅊ</t>
+  </si>
+  <si>
+    <t>헛소리</t>
+  </si>
+  <si>
+    <t>손놈</t>
+  </si>
+  <si>
+    <t>혐석</t>
+  </si>
+  <si>
+    <t>호로새끼</t>
+  </si>
+  <si>
+    <t>호로잡</t>
+  </si>
+  <si>
+    <t>화낭년</t>
+  </si>
+  <si>
+    <t>화냥년</t>
+  </si>
+  <si>
+    <t>후.려</t>
+  </si>
+  <si>
+    <t>후1려</t>
+  </si>
+  <si>
+    <t>후1빨</t>
+  </si>
+  <si>
+    <t>후려</t>
+  </si>
+  <si>
+    <t>후빨</t>
+  </si>
+  <si>
+    <t>ㅗ</t>
+  </si>
+  <si>
+    <t>ㅡ 一</t>
+  </si>
+  <si>
+    <t>ㅡ ㅡ</t>
+  </si>
+  <si>
+    <t>ㅡ一</t>
+  </si>
+  <si>
+    <t>————</t>
+  </si>
+  <si>
+    <t>ㅡㅡ</t>
+  </si>
+  <si>
+    <t>ส</t>
+  </si>
+  <si>
+    <t>ค็</t>
+  </si>
+  <si>
+    <t>็</t>
+  </si>
+  <si>
+    <t>zoomin.cur</t>
+  </si>
+  <si>
+    <t>eventHostId</t>
+  </si>
+  <si>
+    <t>open.</t>
+  </si>
+  <si>
+    <t>onchat</t>
+  </si>
+  <si>
+    <t>ajax_comment</t>
+  </si>
+  <si>
+    <t>stub-extra</t>
+  </si>
+  <si>
+    <t>-stub</t>
+  </si>
+  <si>
+    <t>line.me</t>
+  </si>
+  <si>
+    <t>ask.fm</t>
+  </si>
+  <si>
+    <t>adinc.co.kr</t>
+  </si>
+  <si>
+    <t>vonvon</t>
+  </si>
+  <si>
+    <t>&amp;feature=share</t>
+  </si>
+  <si>
+    <t>superfeed</t>
+  </si>
+  <si>
+    <t>lumieyes</t>
+  </si>
+  <si>
+    <t>theqoo</t>
+  </si>
+  <si>
+    <t>dmitory</t>
+  </si>
+  <si>
+    <t>_enliple</t>
+  </si>
+  <si>
+    <t>apt_review</t>
+  </si>
+  <si>
+    <t>showcat</t>
+  </si>
+  <si>
+    <t>쇼캣</t>
+  </si>
+  <si>
+    <t>.pls</t>
+  </si>
+  <si>
+    <t>stype=3</t>
+  </si>
+  <si>
+    <t>$('</t>
+  </si>
+  <si>
+    <t>bitly</t>
+  </si>
+  <si>
+    <t>poomang.com</t>
+  </si>
+  <si>
+    <t>comment_memo</t>
+  </si>
+  <si>
+    <t>vote.php</t>
+  </si>
+  <si>
+    <t>onmouse</t>
+  </si>
+  <si>
+    <t>onkeyup</t>
+  </si>
+  <si>
+    <t>newsnack</t>
+  </si>
+  <si>
+    <t>onkeydown</t>
+  </si>
+  <si>
+    <t>̆̈</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2222,7 +4461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4690,4 +6929,6049 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B753"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
+      <selection activeCell="B571" sqref="B571"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="9" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="15">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="15">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="15">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="15">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="15">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="15">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="15">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="9">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="15">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="15">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="9">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="15">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="15">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="15">
+        <v>85</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="9">
+        <v>86</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="15">
+        <v>87</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="9">
+        <v>88</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="15">
+        <v>89</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="9">
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="15">
+        <v>91</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="9">
+        <v>92</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="15">
+        <v>93</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="9">
+        <v>94</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="15">
+        <v>95</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="9">
+        <v>96</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="15">
+        <v>97</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="9">
+        <v>98</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="15">
+        <v>99</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9">
+        <v>100</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="15">
+        <v>101</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9">
+        <v>102</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="15">
+        <v>103</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9">
+        <v>104</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="15">
+        <v>105</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9">
+        <v>106</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="15">
+        <v>107</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9">
+        <v>108</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="15">
+        <v>109</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9">
+        <v>110</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="15">
+        <v>111</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="9">
+        <v>112</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="15">
+        <v>113</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="9">
+        <v>114</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="15">
+        <v>115</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="9">
+        <v>116</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="15">
+        <v>117</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="9">
+        <v>118</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="15">
+        <v>119</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="9">
+        <v>120</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="15">
+        <v>121</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="9">
+        <v>122</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="15">
+        <v>123</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="9">
+        <v>124</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="15">
+        <v>125</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="9">
+        <v>126</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="15">
+        <v>127</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="9">
+        <v>128</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="15">
+        <v>129</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="9">
+        <v>130</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="15">
+        <v>131</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="9">
+        <v>132</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="15">
+        <v>133</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="9">
+        <v>134</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="15">
+        <v>135</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="9">
+        <v>136</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="15">
+        <v>137</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="9">
+        <v>138</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="15">
+        <v>139</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="9">
+        <v>140</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="15">
+        <v>141</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="9">
+        <v>142</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="15">
+        <v>143</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="9">
+        <v>144</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="15">
+        <v>145</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="9">
+        <v>146</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="15">
+        <v>147</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="9">
+        <v>148</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="15">
+        <v>149</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="9">
+        <v>150</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="15">
+        <v>151</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="9">
+        <v>152</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="15">
+        <v>153</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="9">
+        <v>154</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="15">
+        <v>155</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="9">
+        <v>156</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="15">
+        <v>157</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="9">
+        <v>158</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="15">
+        <v>159</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="9">
+        <v>160</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="15">
+        <v>161</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="9">
+        <v>162</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="15">
+        <v>163</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="9">
+        <v>164</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="15">
+        <v>165</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="9">
+        <v>166</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="15">
+        <v>167</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="9">
+        <v>168</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="15">
+        <v>169</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="9">
+        <v>170</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="15">
+        <v>171</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="9">
+        <v>172</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="15">
+        <v>173</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="9">
+        <v>174</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="15">
+        <v>175</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="9">
+        <v>176</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="15">
+        <v>177</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="9">
+        <v>178</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="15">
+        <v>179</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="9">
+        <v>180</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="15">
+        <v>181</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="9">
+        <v>182</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="15">
+        <v>183</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="9">
+        <v>184</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="15">
+        <v>185</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="9">
+        <v>186</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="15">
+        <v>187</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="9">
+        <v>188</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="15">
+        <v>189</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="9">
+        <v>190</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="15">
+        <v>191</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="9">
+        <v>192</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="15">
+        <v>193</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="9">
+        <v>194</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="15">
+        <v>195</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="9">
+        <v>196</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="15">
+        <v>197</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="9">
+        <v>198</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="15">
+        <v>199</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="9">
+        <v>200</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="15">
+        <v>201</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="9">
+        <v>202</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="15">
+        <v>203</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="9">
+        <v>204</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="15">
+        <v>205</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="9">
+        <v>206</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="15">
+        <v>207</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="9">
+        <v>208</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="15">
+        <v>209</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="9">
+        <v>210</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="15">
+        <v>211</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="9">
+        <v>212</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="15">
+        <v>213</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="9">
+        <v>214</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="15">
+        <v>215</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="9">
+        <v>216</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="15">
+        <v>217</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="9">
+        <v>218</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="15">
+        <v>219</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="9">
+        <v>220</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="15">
+        <v>221</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="9">
+        <v>222</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="15">
+        <v>223</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="9">
+        <v>224</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="15">
+        <v>225</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="9">
+        <v>226</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="15">
+        <v>227</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="9">
+        <v>228</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="15">
+        <v>229</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="9">
+        <v>230</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="15">
+        <v>231</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="9">
+        <v>232</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="15">
+        <v>233</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="9">
+        <v>234</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="15">
+        <v>235</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="9">
+        <v>236</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="15">
+        <v>237</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="9">
+        <v>238</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="15">
+        <v>239</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="9">
+        <v>240</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="15">
+        <v>241</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="9">
+        <v>242</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="15">
+        <v>243</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="9">
+        <v>244</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="15">
+        <v>245</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="9">
+        <v>246</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="15">
+        <v>247</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="9">
+        <v>248</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="15">
+        <v>249</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="9">
+        <v>250</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="15">
+        <v>251</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="9">
+        <v>252</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="15">
+        <v>253</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="9">
+        <v>254</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="15">
+        <v>255</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="9">
+        <v>256</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="15">
+        <v>257</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="9">
+        <v>258</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="15">
+        <v>259</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="9">
+        <v>260</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="15">
+        <v>261</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="9">
+        <v>262</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="15">
+        <v>263</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="9">
+        <v>264</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="15">
+        <v>265</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="9">
+        <v>266</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="15">
+        <v>267</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="9">
+        <v>268</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="15">
+        <v>269</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="9">
+        <v>270</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="15">
+        <v>271</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="9">
+        <v>272</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="15">
+        <v>273</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="9">
+        <v>274</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="15">
+        <v>275</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="9">
+        <v>276</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="15">
+        <v>277</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="9">
+        <v>278</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="15">
+        <v>279</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="9">
+        <v>280</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="15">
+        <v>281</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="9">
+        <v>282</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="15">
+        <v>283</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="9">
+        <v>284</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="15">
+        <v>285</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="9">
+        <v>286</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="15">
+        <v>287</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="9">
+        <v>288</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="15">
+        <v>289</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="9">
+        <v>290</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="15">
+        <v>291</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="9">
+        <v>292</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="15">
+        <v>293</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="9">
+        <v>294</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="15">
+        <v>295</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="9">
+        <v>296</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="15">
+        <v>297</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="9">
+        <v>298</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="15">
+        <v>299</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="9">
+        <v>300</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="15">
+        <v>301</v>
+      </c>
+      <c r="B302" s="9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="9">
+        <v>302</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="15">
+        <v>303</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="9">
+        <v>304</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="15">
+        <v>305</v>
+      </c>
+      <c r="B306" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="9">
+        <v>306</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="15">
+        <v>307</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="9">
+        <v>308</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="15">
+        <v>309</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="9">
+        <v>310</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="15">
+        <v>311</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="9">
+        <v>312</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="15">
+        <v>313</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="9">
+        <v>314</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="15">
+        <v>315</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="9">
+        <v>316</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="15">
+        <v>317</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="9">
+        <v>318</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="15">
+        <v>319</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="9">
+        <v>320</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="15">
+        <v>321</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="9">
+        <v>322</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="15">
+        <v>323</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="9">
+        <v>324</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="15">
+        <v>325</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="9">
+        <v>326</v>
+      </c>
+      <c r="B327" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="15">
+        <v>327</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="9">
+        <v>328</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="15">
+        <v>329</v>
+      </c>
+      <c r="B330" s="9" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="9">
+        <v>330</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="15">
+        <v>331</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="9">
+        <v>332</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="15">
+        <v>333</v>
+      </c>
+      <c r="B334" s="9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="9">
+        <v>334</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="15">
+        <v>335</v>
+      </c>
+      <c r="B336" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="9">
+        <v>336</v>
+      </c>
+      <c r="B337" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="15">
+        <v>337</v>
+      </c>
+      <c r="B338" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="9">
+        <v>338</v>
+      </c>
+      <c r="B339" s="9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="15">
+        <v>339</v>
+      </c>
+      <c r="B340" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="9">
+        <v>340</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="15">
+        <v>341</v>
+      </c>
+      <c r="B342" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="9">
+        <v>342</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="15">
+        <v>343</v>
+      </c>
+      <c r="B344" s="9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="9">
+        <v>344</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="15">
+        <v>345</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="9">
+        <v>346</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="15">
+        <v>347</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="9">
+        <v>348</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="15">
+        <v>349</v>
+      </c>
+      <c r="B350" s="9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="9">
+        <v>350</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="15">
+        <v>351</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="9">
+        <v>352</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="15">
+        <v>353</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="9">
+        <v>354</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="15">
+        <v>355</v>
+      </c>
+      <c r="B356" s="9" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="9">
+        <v>356</v>
+      </c>
+      <c r="B357" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="15">
+        <v>357</v>
+      </c>
+      <c r="B358" s="9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="9">
+        <v>358</v>
+      </c>
+      <c r="B359" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="15">
+        <v>359</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="9">
+        <v>360</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="15">
+        <v>361</v>
+      </c>
+      <c r="B362" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="9">
+        <v>362</v>
+      </c>
+      <c r="B363" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="15">
+        <v>363</v>
+      </c>
+      <c r="B364" s="9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="9">
+        <v>364</v>
+      </c>
+      <c r="B365" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="15">
+        <v>365</v>
+      </c>
+      <c r="B366" s="9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="9">
+        <v>366</v>
+      </c>
+      <c r="B367" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="15">
+        <v>367</v>
+      </c>
+      <c r="B368" s="9" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="9">
+        <v>368</v>
+      </c>
+      <c r="B369" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="15">
+        <v>369</v>
+      </c>
+      <c r="B370" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="9">
+        <v>370</v>
+      </c>
+      <c r="B371" s="9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="15">
+        <v>371</v>
+      </c>
+      <c r="B372" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="9">
+        <v>372</v>
+      </c>
+      <c r="B373" s="9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="15">
+        <v>373</v>
+      </c>
+      <c r="B374" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="9">
+        <v>374</v>
+      </c>
+      <c r="B375" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="15">
+        <v>375</v>
+      </c>
+      <c r="B376" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="9">
+        <v>376</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="15">
+        <v>377</v>
+      </c>
+      <c r="B378" s="9" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="9">
+        <v>378</v>
+      </c>
+      <c r="B379" s="9" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="15">
+        <v>379</v>
+      </c>
+      <c r="B380" s="9" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="9">
+        <v>380</v>
+      </c>
+      <c r="B381" s="9" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="15">
+        <v>381</v>
+      </c>
+      <c r="B382" s="9" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="9">
+        <v>382</v>
+      </c>
+      <c r="B383" s="9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="15">
+        <v>383</v>
+      </c>
+      <c r="B384" s="9" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="9">
+        <v>384</v>
+      </c>
+      <c r="B385" s="9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="15">
+        <v>385</v>
+      </c>
+      <c r="B386" s="9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="9">
+        <v>386</v>
+      </c>
+      <c r="B387" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="15">
+        <v>387</v>
+      </c>
+      <c r="B388" s="9" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="9">
+        <v>388</v>
+      </c>
+      <c r="B389" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="15">
+        <v>389</v>
+      </c>
+      <c r="B390" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="9">
+        <v>390</v>
+      </c>
+      <c r="B391" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="15">
+        <v>391</v>
+      </c>
+      <c r="B392" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="9">
+        <v>392</v>
+      </c>
+      <c r="B393" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="15">
+        <v>393</v>
+      </c>
+      <c r="B394" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="9">
+        <v>394</v>
+      </c>
+      <c r="B395" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="15">
+        <v>395</v>
+      </c>
+      <c r="B396" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="9">
+        <v>396</v>
+      </c>
+      <c r="B397" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="15">
+        <v>397</v>
+      </c>
+      <c r="B398" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="9">
+        <v>398</v>
+      </c>
+      <c r="B399" s="9" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="15">
+        <v>399</v>
+      </c>
+      <c r="B400" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="9">
+        <v>400</v>
+      </c>
+      <c r="B401" s="9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="15">
+        <v>401</v>
+      </c>
+      <c r="B402" s="9" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="9">
+        <v>402</v>
+      </c>
+      <c r="B403" s="9" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="15">
+        <v>403</v>
+      </c>
+      <c r="B404" s="9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="9">
+        <v>404</v>
+      </c>
+      <c r="B405" s="9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="15">
+        <v>405</v>
+      </c>
+      <c r="B406" s="9" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="9">
+        <v>406</v>
+      </c>
+      <c r="B407" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="15">
+        <v>407</v>
+      </c>
+      <c r="B408" s="9" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="9">
+        <v>408</v>
+      </c>
+      <c r="B409" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="15">
+        <v>409</v>
+      </c>
+      <c r="B410" s="9" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="9">
+        <v>410</v>
+      </c>
+      <c r="B411" s="9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="15">
+        <v>411</v>
+      </c>
+      <c r="B412" s="9" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="9">
+        <v>412</v>
+      </c>
+      <c r="B413" s="9" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="15">
+        <v>413</v>
+      </c>
+      <c r="B414" s="9" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="9">
+        <v>414</v>
+      </c>
+      <c r="B415" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="15">
+        <v>415</v>
+      </c>
+      <c r="B416" s="9" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="9">
+        <v>416</v>
+      </c>
+      <c r="B417" s="9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="15">
+        <v>417</v>
+      </c>
+      <c r="B418" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="9">
+        <v>418</v>
+      </c>
+      <c r="B419" s="9" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="15">
+        <v>419</v>
+      </c>
+      <c r="B420" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="9">
+        <v>420</v>
+      </c>
+      <c r="B421" s="9" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="15">
+        <v>421</v>
+      </c>
+      <c r="B422" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="9">
+        <v>422</v>
+      </c>
+      <c r="B423" s="9" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="15">
+        <v>423</v>
+      </c>
+      <c r="B424" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="9">
+        <v>424</v>
+      </c>
+      <c r="B425" s="9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="15">
+        <v>425</v>
+      </c>
+      <c r="B426" s="9" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="9">
+        <v>426</v>
+      </c>
+      <c r="B427" s="9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="15">
+        <v>427</v>
+      </c>
+      <c r="B428" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="9">
+        <v>428</v>
+      </c>
+      <c r="B429" s="9" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="15">
+        <v>429</v>
+      </c>
+      <c r="B430" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="9">
+        <v>430</v>
+      </c>
+      <c r="B431" s="9" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="15">
+        <v>431</v>
+      </c>
+      <c r="B432" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="9">
+        <v>432</v>
+      </c>
+      <c r="B433" s="9" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="15">
+        <v>433</v>
+      </c>
+      <c r="B434" s="9" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="9">
+        <v>434</v>
+      </c>
+      <c r="B435" s="9" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="15">
+        <v>435</v>
+      </c>
+      <c r="B436" s="9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="9">
+        <v>436</v>
+      </c>
+      <c r="B437" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="15">
+        <v>437</v>
+      </c>
+      <c r="B438" s="9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="9">
+        <v>438</v>
+      </c>
+      <c r="B439" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="15">
+        <v>439</v>
+      </c>
+      <c r="B440" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="9">
+        <v>440</v>
+      </c>
+      <c r="B441" s="9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="15">
+        <v>441</v>
+      </c>
+      <c r="B442" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="9">
+        <v>442</v>
+      </c>
+      <c r="B443" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="15">
+        <v>443</v>
+      </c>
+      <c r="B444" s="9" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="9">
+        <v>444</v>
+      </c>
+      <c r="B445" s="9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="15">
+        <v>445</v>
+      </c>
+      <c r="B446" s="9" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="9">
+        <v>446</v>
+      </c>
+      <c r="B447" s="9" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="15">
+        <v>447</v>
+      </c>
+      <c r="B448" s="9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="9">
+        <v>448</v>
+      </c>
+      <c r="B449" s="9" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="15">
+        <v>449</v>
+      </c>
+      <c r="B450" s="9" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="9">
+        <v>450</v>
+      </c>
+      <c r="B451" s="9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="15">
+        <v>451</v>
+      </c>
+      <c r="B452" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="9">
+        <v>452</v>
+      </c>
+      <c r="B453" s="9" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="15">
+        <v>453</v>
+      </c>
+      <c r="B454" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="9">
+        <v>454</v>
+      </c>
+      <c r="B455" s="9" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="15">
+        <v>455</v>
+      </c>
+      <c r="B456" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="9">
+        <v>456</v>
+      </c>
+      <c r="B457" s="9" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="15">
+        <v>457</v>
+      </c>
+      <c r="B458" s="9" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="9">
+        <v>458</v>
+      </c>
+      <c r="B459" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="15">
+        <v>459</v>
+      </c>
+      <c r="B460" s="9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="9">
+        <v>460</v>
+      </c>
+      <c r="B461" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="15">
+        <v>461</v>
+      </c>
+      <c r="B462" s="9" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="9">
+        <v>462</v>
+      </c>
+      <c r="B463" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="15">
+        <v>463</v>
+      </c>
+      <c r="B464" s="9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="9">
+        <v>464</v>
+      </c>
+      <c r="B465" s="9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="15">
+        <v>465</v>
+      </c>
+      <c r="B466" s="9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="9">
+        <v>466</v>
+      </c>
+      <c r="B467" s="9" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="15">
+        <v>467</v>
+      </c>
+      <c r="B468" s="9" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="9">
+        <v>468</v>
+      </c>
+      <c r="B469" s="9" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="15">
+        <v>469</v>
+      </c>
+      <c r="B470" s="9" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="9">
+        <v>470</v>
+      </c>
+      <c r="B471" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="15">
+        <v>471</v>
+      </c>
+      <c r="B472" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="9">
+        <v>472</v>
+      </c>
+      <c r="B473" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="15">
+        <v>473</v>
+      </c>
+      <c r="B474" s="9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="9">
+        <v>474</v>
+      </c>
+      <c r="B475" s="9" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="15">
+        <v>475</v>
+      </c>
+      <c r="B476" s="9" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="9">
+        <v>476</v>
+      </c>
+      <c r="B477" s="9" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="15">
+        <v>477</v>
+      </c>
+      <c r="B478" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="9">
+        <v>478</v>
+      </c>
+      <c r="B479" s="9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="15">
+        <v>479</v>
+      </c>
+      <c r="B480" s="9" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="9">
+        <v>480</v>
+      </c>
+      <c r="B481" s="9" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="15">
+        <v>481</v>
+      </c>
+      <c r="B482" s="9" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="9">
+        <v>482</v>
+      </c>
+      <c r="B483" s="9" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="15">
+        <v>483</v>
+      </c>
+      <c r="B484" s="9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="9">
+        <v>484</v>
+      </c>
+      <c r="B485" s="9" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="15">
+        <v>485</v>
+      </c>
+      <c r="B486" s="9" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="9">
+        <v>486</v>
+      </c>
+      <c r="B487" s="9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="15">
+        <v>487</v>
+      </c>
+      <c r="B488" s="9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="9">
+        <v>488</v>
+      </c>
+      <c r="B489" s="9" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="15">
+        <v>489</v>
+      </c>
+      <c r="B490" s="9" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="9">
+        <v>490</v>
+      </c>
+      <c r="B491" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="15">
+        <v>491</v>
+      </c>
+      <c r="B492" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="9">
+        <v>492</v>
+      </c>
+      <c r="B493" s="9" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="15">
+        <v>493</v>
+      </c>
+      <c r="B494" s="9" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="9">
+        <v>494</v>
+      </c>
+      <c r="B495" s="9" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="15">
+        <v>495</v>
+      </c>
+      <c r="B496" s="9" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="9">
+        <v>496</v>
+      </c>
+      <c r="B497" s="9" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="15">
+        <v>497</v>
+      </c>
+      <c r="B498" s="9" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="9">
+        <v>498</v>
+      </c>
+      <c r="B499" s="9" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="15">
+        <v>499</v>
+      </c>
+      <c r="B500" s="9" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="9">
+        <v>500</v>
+      </c>
+      <c r="B501" s="9" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="15">
+        <v>501</v>
+      </c>
+      <c r="B502" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="9">
+        <v>502</v>
+      </c>
+      <c r="B503" s="9" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="15">
+        <v>503</v>
+      </c>
+      <c r="B504" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="9">
+        <v>504</v>
+      </c>
+      <c r="B505" s="9" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="15">
+        <v>505</v>
+      </c>
+      <c r="B506" s="9" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="9">
+        <v>506</v>
+      </c>
+      <c r="B507" s="9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="15">
+        <v>507</v>
+      </c>
+      <c r="B508" s="9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="9">
+        <v>508</v>
+      </c>
+      <c r="B509" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="15">
+        <v>509</v>
+      </c>
+      <c r="B510" s="9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="9">
+        <v>510</v>
+      </c>
+      <c r="B511" s="9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="15">
+        <v>511</v>
+      </c>
+      <c r="B512" s="9" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="9">
+        <v>512</v>
+      </c>
+      <c r="B513" s="9" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="15">
+        <v>513</v>
+      </c>
+      <c r="B514" s="9" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="9">
+        <v>514</v>
+      </c>
+      <c r="B515" s="9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="15">
+        <v>515</v>
+      </c>
+      <c r="B516" s="9" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="9">
+        <v>516</v>
+      </c>
+      <c r="B517" s="9" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="15">
+        <v>517</v>
+      </c>
+      <c r="B518" s="9" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="9">
+        <v>518</v>
+      </c>
+      <c r="B519" s="9" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="15">
+        <v>519</v>
+      </c>
+      <c r="B520" s="9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="9">
+        <v>520</v>
+      </c>
+      <c r="B521" s="9" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="15">
+        <v>521</v>
+      </c>
+      <c r="B522" s="9" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="9">
+        <v>522</v>
+      </c>
+      <c r="B523" s="9" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="15">
+        <v>523</v>
+      </c>
+      <c r="B524" s="9" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="9">
+        <v>524</v>
+      </c>
+      <c r="B525" s="9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="15">
+        <v>525</v>
+      </c>
+      <c r="B526" s="9" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="9">
+        <v>526</v>
+      </c>
+      <c r="B527" s="9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="15">
+        <v>527</v>
+      </c>
+      <c r="B528" s="9" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="9">
+        <v>528</v>
+      </c>
+      <c r="B529" s="9" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="15">
+        <v>529</v>
+      </c>
+      <c r="B530" s="9" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="9">
+        <v>530</v>
+      </c>
+      <c r="B531" s="9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="15">
+        <v>531</v>
+      </c>
+      <c r="B532" s="9" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="9">
+        <v>532</v>
+      </c>
+      <c r="B533" s="9" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="15">
+        <v>533</v>
+      </c>
+      <c r="B534" s="9" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="9">
+        <v>534</v>
+      </c>
+      <c r="B535" s="9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="15">
+        <v>535</v>
+      </c>
+      <c r="B536" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="9">
+        <v>536</v>
+      </c>
+      <c r="B537" s="9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="15">
+        <v>537</v>
+      </c>
+      <c r="B538" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="9">
+        <v>538</v>
+      </c>
+      <c r="B539" s="9" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="15">
+        <v>539</v>
+      </c>
+      <c r="B540" s="9" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="9">
+        <v>540</v>
+      </c>
+      <c r="B541" s="9" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="15">
+        <v>541</v>
+      </c>
+      <c r="B542" s="9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="9">
+        <v>542</v>
+      </c>
+      <c r="B543" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="15">
+        <v>543</v>
+      </c>
+      <c r="B544" s="9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="9">
+        <v>544</v>
+      </c>
+      <c r="B545" s="9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="15">
+        <v>545</v>
+      </c>
+      <c r="B546" s="9" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="9">
+        <v>546</v>
+      </c>
+      <c r="B547" s="9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="15">
+        <v>547</v>
+      </c>
+      <c r="B548" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="9">
+        <v>548</v>
+      </c>
+      <c r="B549" s="9" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="15">
+        <v>549</v>
+      </c>
+      <c r="B550" s="9" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="9">
+        <v>550</v>
+      </c>
+      <c r="B551" s="9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="15">
+        <v>551</v>
+      </c>
+      <c r="B552" s="9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="9">
+        <v>552</v>
+      </c>
+      <c r="B553" s="9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="15">
+        <v>553</v>
+      </c>
+      <c r="B554" s="9" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="9">
+        <v>554</v>
+      </c>
+      <c r="B555" s="9" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="15">
+        <v>555</v>
+      </c>
+      <c r="B556" s="9" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="9">
+        <v>556</v>
+      </c>
+      <c r="B557" s="9" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="15">
+        <v>557</v>
+      </c>
+      <c r="B558" s="9" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="9">
+        <v>558</v>
+      </c>
+      <c r="B559" s="9" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="15">
+        <v>559</v>
+      </c>
+      <c r="B560" s="9" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="9">
+        <v>560</v>
+      </c>
+      <c r="B561" s="9" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="15">
+        <v>561</v>
+      </c>
+      <c r="B562" s="9" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="9">
+        <v>562</v>
+      </c>
+      <c r="B563" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="15">
+        <v>563</v>
+      </c>
+      <c r="B564" s="9" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="9">
+        <v>564</v>
+      </c>
+      <c r="B565" s="9" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="15">
+        <v>565</v>
+      </c>
+      <c r="B566" s="9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="9">
+        <v>566</v>
+      </c>
+      <c r="B567" s="9" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="15">
+        <v>567</v>
+      </c>
+      <c r="B568" s="9" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="9">
+        <v>568</v>
+      </c>
+      <c r="B569" s="9" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="15">
+        <v>569</v>
+      </c>
+      <c r="B570" s="9" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="9">
+        <v>570</v>
+      </c>
+      <c r="B571" s="9" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="15">
+        <v>571</v>
+      </c>
+      <c r="B572" s="9" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="9">
+        <v>572</v>
+      </c>
+      <c r="B573" s="9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="15">
+        <v>573</v>
+      </c>
+      <c r="B574" s="9" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="9">
+        <v>574</v>
+      </c>
+      <c r="B575" s="9" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="15">
+        <v>575</v>
+      </c>
+      <c r="B576" s="9" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="9">
+        <v>576</v>
+      </c>
+      <c r="B577" s="9" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="15">
+        <v>577</v>
+      </c>
+      <c r="B578" s="9" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="9">
+        <v>578</v>
+      </c>
+      <c r="B579" s="9" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="15">
+        <v>579</v>
+      </c>
+      <c r="B580" s="9" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="9">
+        <v>580</v>
+      </c>
+      <c r="B581" s="9" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="15">
+        <v>581</v>
+      </c>
+      <c r="B582" s="9" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="9">
+        <v>582</v>
+      </c>
+      <c r="B583" s="9" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="15">
+        <v>583</v>
+      </c>
+      <c r="B584" s="9" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="9">
+        <v>584</v>
+      </c>
+      <c r="B585" s="9" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="15">
+        <v>585</v>
+      </c>
+      <c r="B586" s="9" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="9">
+        <v>586</v>
+      </c>
+      <c r="B587" s="9" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="15">
+        <v>587</v>
+      </c>
+      <c r="B588" s="9" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="9">
+        <v>588</v>
+      </c>
+      <c r="B589" s="9" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="15">
+        <v>589</v>
+      </c>
+      <c r="B590" s="9" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="9">
+        <v>590</v>
+      </c>
+      <c r="B591" s="9" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="15">
+        <v>591</v>
+      </c>
+      <c r="B592" s="9" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="9">
+        <v>592</v>
+      </c>
+      <c r="B593" s="9" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="15">
+        <v>593</v>
+      </c>
+      <c r="B594" s="9" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="9">
+        <v>594</v>
+      </c>
+      <c r="B595" s="9" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="15">
+        <v>595</v>
+      </c>
+      <c r="B596" s="9" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="9">
+        <v>596</v>
+      </c>
+      <c r="B597" s="9" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="15">
+        <v>597</v>
+      </c>
+      <c r="B598" s="9" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="9">
+        <v>598</v>
+      </c>
+      <c r="B599" s="9" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="15">
+        <v>599</v>
+      </c>
+      <c r="B600" s="9" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="9">
+        <v>600</v>
+      </c>
+      <c r="B601" s="9" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="15">
+        <v>601</v>
+      </c>
+      <c r="B602" s="9" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="9">
+        <v>602</v>
+      </c>
+      <c r="B603" s="9" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="15">
+        <v>603</v>
+      </c>
+      <c r="B604" s="9" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="9">
+        <v>604</v>
+      </c>
+      <c r="B605" s="9" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="15">
+        <v>605</v>
+      </c>
+      <c r="B606" s="9" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="9">
+        <v>606</v>
+      </c>
+      <c r="B607" s="9" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="15">
+        <v>607</v>
+      </c>
+      <c r="B608" s="9" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="9">
+        <v>608</v>
+      </c>
+      <c r="B609" s="9" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="15">
+        <v>609</v>
+      </c>
+      <c r="B610" s="9" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="9">
+        <v>610</v>
+      </c>
+      <c r="B611" s="9" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="15">
+        <v>611</v>
+      </c>
+      <c r="B612" s="9" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="9">
+        <v>612</v>
+      </c>
+      <c r="B613" s="9" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="15">
+        <v>613</v>
+      </c>
+      <c r="B614" s="9" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="9">
+        <v>614</v>
+      </c>
+      <c r="B615" s="9" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="15">
+        <v>615</v>
+      </c>
+      <c r="B616" s="9" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="9">
+        <v>616</v>
+      </c>
+      <c r="B617" s="9" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="15">
+        <v>617</v>
+      </c>
+      <c r="B618" s="9" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="9">
+        <v>618</v>
+      </c>
+      <c r="B619" s="9" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="15">
+        <v>619</v>
+      </c>
+      <c r="B620" s="9" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="9">
+        <v>620</v>
+      </c>
+      <c r="B621" s="9" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="15">
+        <v>621</v>
+      </c>
+      <c r="B622" s="9" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="9">
+        <v>622</v>
+      </c>
+      <c r="B623" s="9" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="15">
+        <v>623</v>
+      </c>
+      <c r="B624" s="9" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="9">
+        <v>624</v>
+      </c>
+      <c r="B625" s="9" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="15">
+        <v>625</v>
+      </c>
+      <c r="B626" s="9" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="9">
+        <v>626</v>
+      </c>
+      <c r="B627" s="9" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="15">
+        <v>627</v>
+      </c>
+      <c r="B628" s="9" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="9">
+        <v>628</v>
+      </c>
+      <c r="B629" s="9" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="15">
+        <v>629</v>
+      </c>
+      <c r="B630" s="9" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="9">
+        <v>630</v>
+      </c>
+      <c r="B631" s="9" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="15">
+        <v>631</v>
+      </c>
+      <c r="B632" s="9" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="9">
+        <v>632</v>
+      </c>
+      <c r="B633" s="9" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="15">
+        <v>633</v>
+      </c>
+      <c r="B634" s="9" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="9">
+        <v>634</v>
+      </c>
+      <c r="B635" s="9" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="15">
+        <v>635</v>
+      </c>
+      <c r="B636" s="9" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="9">
+        <v>636</v>
+      </c>
+      <c r="B637" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="15">
+        <v>637</v>
+      </c>
+      <c r="B638" s="9" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="9">
+        <v>638</v>
+      </c>
+      <c r="B639" s="9" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="15">
+        <v>639</v>
+      </c>
+      <c r="B640" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="9">
+        <v>640</v>
+      </c>
+      <c r="B641" s="9" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="15">
+        <v>641</v>
+      </c>
+      <c r="B642" s="9" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="9">
+        <v>642</v>
+      </c>
+      <c r="B643" s="9" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="15">
+        <v>643</v>
+      </c>
+      <c r="B644" s="9" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="9">
+        <v>644</v>
+      </c>
+      <c r="B645" s="9" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="15">
+        <v>645</v>
+      </c>
+      <c r="B646" s="9" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="9">
+        <v>646</v>
+      </c>
+      <c r="B647" s="9" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="15">
+        <v>647</v>
+      </c>
+      <c r="B648" s="9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="9">
+        <v>648</v>
+      </c>
+      <c r="B649" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="15">
+        <v>649</v>
+      </c>
+      <c r="B650" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="9">
+        <v>650</v>
+      </c>
+      <c r="B651" s="9" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="15">
+        <v>651</v>
+      </c>
+      <c r="B652" s="9" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="9">
+        <v>652</v>
+      </c>
+      <c r="B653" s="9" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="15">
+        <v>653</v>
+      </c>
+      <c r="B654" s="9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="9">
+        <v>654</v>
+      </c>
+      <c r="B655" s="9" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="15">
+        <v>655</v>
+      </c>
+      <c r="B656" s="9" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="9">
+        <v>656</v>
+      </c>
+      <c r="B657" s="9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="15">
+        <v>657</v>
+      </c>
+      <c r="B658" s="9" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="9">
+        <v>658</v>
+      </c>
+      <c r="B659" s="9" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="15">
+        <v>659</v>
+      </c>
+      <c r="B660" s="9" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="9">
+        <v>660</v>
+      </c>
+      <c r="B661" s="9" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="15">
+        <v>661</v>
+      </c>
+      <c r="B662" s="9" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="9">
+        <v>662</v>
+      </c>
+      <c r="B663" s="9" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="15">
+        <v>663</v>
+      </c>
+      <c r="B664" s="9" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="9">
+        <v>664</v>
+      </c>
+      <c r="B665" s="9" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="15">
+        <v>665</v>
+      </c>
+      <c r="B666" s="9" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="9">
+        <v>666</v>
+      </c>
+      <c r="B667" s="9" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="15">
+        <v>667</v>
+      </c>
+      <c r="B668" s="9" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="9">
+        <v>668</v>
+      </c>
+      <c r="B669" s="9" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="15">
+        <v>669</v>
+      </c>
+      <c r="B670" s="9" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="9">
+        <v>670</v>
+      </c>
+      <c r="B671" s="9" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="15">
+        <v>671</v>
+      </c>
+      <c r="B672" s="9" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="9">
+        <v>672</v>
+      </c>
+      <c r="B673" s="9" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="15">
+        <v>673</v>
+      </c>
+      <c r="B674" s="9" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="9">
+        <v>674</v>
+      </c>
+      <c r="B675" s="9" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="15">
+        <v>675</v>
+      </c>
+      <c r="B676" s="9" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="9">
+        <v>676</v>
+      </c>
+      <c r="B677" s="9" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="15">
+        <v>677</v>
+      </c>
+      <c r="B678" s="9" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="9">
+        <v>678</v>
+      </c>
+      <c r="B679" s="9" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="15">
+        <v>679</v>
+      </c>
+      <c r="B680" s="9" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="9">
+        <v>680</v>
+      </c>
+      <c r="B681" s="9" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="15">
+        <v>681</v>
+      </c>
+      <c r="B682" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="9">
+        <v>682</v>
+      </c>
+      <c r="B683" s="9" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="15">
+        <v>683</v>
+      </c>
+      <c r="B684" s="9" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="9">
+        <v>684</v>
+      </c>
+      <c r="B685" s="9" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="15">
+        <v>685</v>
+      </c>
+      <c r="B686" s="9" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="9">
+        <v>686</v>
+      </c>
+      <c r="B687" s="9" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="15">
+        <v>687</v>
+      </c>
+      <c r="B688" s="9" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="9">
+        <v>688</v>
+      </c>
+      <c r="B689" s="9" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="15">
+        <v>689</v>
+      </c>
+      <c r="B690" s="9" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="9">
+        <v>690</v>
+      </c>
+      <c r="B691" s="9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="15">
+        <v>691</v>
+      </c>
+      <c r="B692" s="9" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="9">
+        <v>692</v>
+      </c>
+      <c r="B693" s="9" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="15">
+        <v>693</v>
+      </c>
+      <c r="B694" s="9" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="9">
+        <v>694</v>
+      </c>
+      <c r="B695" s="9" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="15">
+        <v>695</v>
+      </c>
+      <c r="B696" s="9" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="9">
+        <v>696</v>
+      </c>
+      <c r="B697" s="9" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="15">
+        <v>697</v>
+      </c>
+      <c r="B698" s="9" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="9">
+        <v>698</v>
+      </c>
+      <c r="B699" s="9" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="15">
+        <v>699</v>
+      </c>
+      <c r="B700" s="9" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="9">
+        <v>700</v>
+      </c>
+      <c r="B701" s="9" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="15">
+        <v>701</v>
+      </c>
+      <c r="B702" s="9" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="9">
+        <v>702</v>
+      </c>
+      <c r="B703" s="9" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="15">
+        <v>703</v>
+      </c>
+      <c r="B704" s="9" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="9">
+        <v>704</v>
+      </c>
+      <c r="B705" s="9" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="15">
+        <v>705</v>
+      </c>
+      <c r="B706" s="9" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="9">
+        <v>706</v>
+      </c>
+      <c r="B707" s="9" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="15">
+        <v>707</v>
+      </c>
+      <c r="B708" s="9" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="9">
+        <v>708</v>
+      </c>
+      <c r="B709" s="9" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="15">
+        <v>709</v>
+      </c>
+      <c r="B710" s="9" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="9">
+        <v>710</v>
+      </c>
+      <c r="B711" s="9" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="15">
+        <v>711</v>
+      </c>
+      <c r="B712" s="9" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="9">
+        <v>712</v>
+      </c>
+      <c r="B713" s="9" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="15">
+        <v>713</v>
+      </c>
+      <c r="B714" s="9" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="9">
+        <v>714</v>
+      </c>
+      <c r="B715" s="9" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="15">
+        <v>715</v>
+      </c>
+      <c r="B716" s="9" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="9">
+        <v>716</v>
+      </c>
+      <c r="B717" s="9" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="15">
+        <v>717</v>
+      </c>
+      <c r="B718" s="9" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="9">
+        <v>718</v>
+      </c>
+      <c r="B719" s="9" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="15">
+        <v>719</v>
+      </c>
+      <c r="B720" s="9" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="9">
+        <v>720</v>
+      </c>
+      <c r="B721" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="15">
+        <v>721</v>
+      </c>
+      <c r="B722" s="9" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="9">
+        <v>722</v>
+      </c>
+      <c r="B723" s="9" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="15">
+        <v>723</v>
+      </c>
+      <c r="B724" s="9" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="9">
+        <v>724</v>
+      </c>
+      <c r="B725" s="9" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="15">
+        <v>725</v>
+      </c>
+      <c r="B726" s="9" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="9">
+        <v>726</v>
+      </c>
+      <c r="B727" s="9" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="15">
+        <v>727</v>
+      </c>
+      <c r="B728" s="9" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="9">
+        <v>728</v>
+      </c>
+      <c r="B729" s="9" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="15">
+        <v>729</v>
+      </c>
+      <c r="B730" s="9" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="9">
+        <v>730</v>
+      </c>
+      <c r="B731" s="9" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="15">
+        <v>731</v>
+      </c>
+      <c r="B732" s="9" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="9">
+        <v>732</v>
+      </c>
+      <c r="B733" s="9" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="15">
+        <v>733</v>
+      </c>
+      <c r="B734" s="9" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="9">
+        <v>734</v>
+      </c>
+      <c r="B735" s="9" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="15">
+        <v>735</v>
+      </c>
+      <c r="B736" s="9" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="9">
+        <v>736</v>
+      </c>
+      <c r="B737" s="9" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="15">
+        <v>737</v>
+      </c>
+      <c r="B738" s="9" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="9">
+        <v>738</v>
+      </c>
+      <c r="B739" s="9" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="15">
+        <v>739</v>
+      </c>
+      <c r="B740" s="9" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="9">
+        <v>740</v>
+      </c>
+      <c r="B741" s="9" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="15">
+        <v>741</v>
+      </c>
+      <c r="B742" s="9" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="9">
+        <v>742</v>
+      </c>
+      <c r="B743" s="9" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="15">
+        <v>743</v>
+      </c>
+      <c r="B744" s="9" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="9">
+        <v>744</v>
+      </c>
+      <c r="B745" s="9" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="15">
+        <v>745</v>
+      </c>
+      <c r="B746" s="9" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="9">
+        <v>746</v>
+      </c>
+      <c r="B747" s="9" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="15">
+        <v>747</v>
+      </c>
+      <c r="B748" s="9" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="9">
+        <v>748</v>
+      </c>
+      <c r="B749" s="9" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="15">
+        <v>749</v>
+      </c>
+      <c r="B750" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="9">
+        <v>750</v>
+      </c>
+      <c r="B751" s="9" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="15">
+        <v>751</v>
+      </c>
+      <c r="B752" s="9" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="9">
+        <v>752</v>
+      </c>
+      <c r="B753" s="9" t="s">
+        <v>974</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Slime\VR\SUPERmeta\KGA_SUPERmetaVR\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohgo\Desktop\Unity\SUPERmetaVR\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6544434-8E04-40AF-B90B-94BDBA135590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1000">
   <si>
     <t>id</t>
   </si>
@@ -853,25 +854,13 @@
     <t>돌로 변하기 싫으면 쳐다보지마아</t>
   </si>
   <si>
-    <t>불면증 세트</t>
-  </si>
-  <si>
     <t>재워줘..</t>
   </si>
   <si>
-    <t>이불단추 캐스퍼 세트</t>
-  </si>
-  <si>
-    <t>포근해♡</t>
-  </si>
-  <si>
     <t>화가가된 캐스퍼 세트</t>
   </si>
   <si>
     <t>슥삭슥삭.. 너도 그려줄까?</t>
-  </si>
-  <si>
-    <t>화가가된 캐스퍼 세트 (3일)</t>
   </si>
   <si>
     <t>악동 메두사 1 세트</t>
@@ -1073,9 +1062,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FourLeafClover</t>
-  </si>
-  <si>
     <t>안녕 내 이름은 모 너처럼 다른 세계에서 넘어온 아이들이 잘 적응할 수 있게
 도움을 주는게 내 인생의 낙이야!
 나 말고 다른 녀석에게 말을 걸고 싶으면 방금처럼 머리위 아이콘을 클릭하라구!</t>
@@ -3447,15 +3433,109 @@
     <t>̆̈</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>선물 상자</t>
+  </si>
+  <si>
+    <t>이게 바로 우승자의 특권이지!</t>
+  </si>
+  <si>
+    <t>시계태엽캐스퍼</t>
+  </si>
+  <si>
+    <t>블랙캣유령</t>
+  </si>
+  <si>
+    <t>폭발작전</t>
+  </si>
+  <si>
+    <t>죠스캐스퍼</t>
+  </si>
+  <si>
+    <t>클레오냥트라</t>
+  </si>
+  <si>
+    <t>처키포키</t>
+  </si>
+  <si>
+    <t>도마뱀을입은도깨비</t>
+  </si>
+  <si>
+    <t>식탐쟁이악동</t>
+  </si>
+  <si>
+    <t>악동메두사2</t>
+  </si>
+  <si>
+    <t>슬리피 캐스퍼 세트</t>
+  </si>
+  <si>
+    <t>슬리피캐스퍼</t>
+  </si>
+  <si>
+    <t>화가가된캐스퍼</t>
+  </si>
+  <si>
+    <t>악동메두사1</t>
+  </si>
+  <si>
+    <t>악몽악동</t>
+  </si>
+  <si>
+    <t>추워요 세트</t>
+  </si>
+  <si>
+    <t>너무 추워-요오오오오...</t>
+  </si>
+  <si>
+    <t>추워요</t>
+  </si>
+  <si>
+    <t>구미호가 되고 싶은 캐스퍼 세트</t>
+  </si>
+  <si>
+    <t>너의 간이 먹고싶어!</t>
+  </si>
+  <si>
+    <t>구미호가되고싶은캐스퍼</t>
+  </si>
+  <si>
+    <t>FourLeafClover</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FourLeafCloverHairBand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개굴개굴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥의먹물유령</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈나라속눈썹어린이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>식탐쟁이천사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Present</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3503,16 +3583,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3520,11 +3612,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3597,6 +3704,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3812,23 +3928,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="9" customWidth="1"/>
     <col min="3" max="3" width="92" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="9" customWidth="1"/>
     <col min="6" max="7" width="9" style="9" customWidth="1"/>
-    <col min="8" max="27" width="8.7109375" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="9"/>
+    <col min="8" max="27" width="8.7265625" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="14.453125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1">
@@ -3870,7 +3986,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="30">
+    <row r="2" spans="1:27" ht="29">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -4135,7 +4251,7 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="30">
+    <row r="9" spans="1:27" ht="29">
       <c r="A9" s="11">
         <v>52004</v>
       </c>
@@ -4320,7 +4436,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="30">
+    <row r="14" spans="1:27" ht="29">
       <c r="A14" s="11">
         <v>52009</v>
       </c>
@@ -4380,17 +4496,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="3" width="9.1796875" style="9"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1">
@@ -4398,13 +4514,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4412,7 +4528,7 @@
         <v>20000</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -4423,7 +4539,7 @@
         <v>20001</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -4434,7 +4550,7 @@
         <v>20300</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -4445,7 +4561,7 @@
         <v>20600</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -4458,7 +4574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4468,18 +4584,18 @@
       <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="17"/>
-    <col min="4" max="4" width="82.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="17" customWidth="1"/>
-    <col min="6" max="9" width="29.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="17" customWidth="1"/>
-    <col min="11" max="14" width="29.28515625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" style="17" customWidth="1"/>
-    <col min="16" max="19" width="14.85546875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" style="17" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="3" width="9.1796875" style="17"/>
+    <col min="4" max="4" width="82.54296875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="17" customWidth="1"/>
+    <col min="6" max="9" width="29.26953125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="17" customWidth="1"/>
+    <col min="11" max="14" width="29.26953125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="21.7265625" style="17" customWidth="1"/>
+    <col min="16" max="19" width="14.81640625" style="19" customWidth="1"/>
+    <col min="20" max="20" width="19.54296875" style="17" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="17" customFormat="1">
@@ -4526,25 +4642,25 @@
         <v>114</v>
       </c>
       <c r="O1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="45">
+    </row>
+    <row r="2" spans="1:20" ht="43.5">
       <c r="A2" s="17">
         <v>21000</v>
       </c>
@@ -4555,13 +4671,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4575,16 +4691,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="30">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="29">
       <c r="A4" s="17">
         <v>21001</v>
       </c>
@@ -4595,16 +4711,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="29">
       <c r="A5" s="17">
         <v>21001</v>
       </c>
@@ -4615,16 +4731,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="29">
       <c r="A6" s="17">
         <v>21001</v>
       </c>
@@ -4638,10 +4754,10 @@
         <v>72</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -4655,16 +4771,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="29">
       <c r="A8" s="17">
         <v>21002</v>
       </c>
@@ -4675,16 +4791,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="29">
       <c r="A9" s="17">
         <v>21002</v>
       </c>
@@ -4695,16 +4811,16 @@
         <v>3</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T9" s="17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="29">
       <c r="A10" s="17">
         <v>21002</v>
       </c>
@@ -4718,13 +4834,13 @@
         <v>73</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="30">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="29">
       <c r="A11" s="17">
         <v>21003</v>
       </c>
@@ -4738,13 +4854,13 @@
         <v>74</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="30">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="29">
       <c r="A12" s="17">
         <v>21003</v>
       </c>
@@ -4758,13 +4874,13 @@
         <v>101</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="29">
       <c r="A13" s="17">
         <v>21003</v>
       </c>
@@ -4775,13 +4891,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -4795,13 +4911,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -4815,13 +4931,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -4835,13 +4951,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="T16" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -4855,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -4893,7 +5009,7 @@
         <v>24004</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -4910,10 +5026,10 @@
         <v>78</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -4927,7 +5043,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P20" s="19">
         <v>13000</v>
@@ -4942,10 +5058,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="30">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="29">
       <c r="A21" s="17">
         <v>24003</v>
       </c>
@@ -4959,10 +5075,10 @@
         <v>79</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -4976,16 +5092,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="30">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="29">
       <c r="A23" s="17">
         <v>27000</v>
       </c>
@@ -5011,13 +5127,13 @@
         <v>27001</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="T23" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="30">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="29">
       <c r="A24" s="17">
         <v>27001</v>
       </c>
@@ -5031,10 +5147,10 @@
         <v>83</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="30">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="29">
       <c r="A25" s="17">
         <v>27002</v>
       </c>
@@ -5045,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="30">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="29">
       <c r="A26" s="17">
         <v>27002</v>
       </c>
@@ -5063,7 +5179,7 @@
       </c>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:20" ht="30">
+    <row r="27" spans="1:20" ht="29">
       <c r="A27" s="17">
         <v>27002</v>
       </c>
@@ -5091,13 +5207,13 @@
         <v>86</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T28" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="30">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="29">
       <c r="A29" s="17">
         <v>27002</v>
       </c>
@@ -5123,10 +5239,10 @@
         <v>27003</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="30">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="29">
       <c r="A30" s="17">
         <v>27003</v>
       </c>
@@ -5152,7 +5268,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="30">
+    <row r="31" spans="1:20" ht="29">
       <c r="A31" s="17">
         <v>27004</v>
       </c>
@@ -5166,7 +5282,7 @@
         <v>93</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -5192,10 +5308,10 @@
         <v>92</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -5212,7 +5328,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="30">
+    <row r="34" spans="1:20" ht="29">
       <c r="A34" s="17">
         <v>27006</v>
       </c>
@@ -5240,7 +5356,7 @@
         <v>97</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -5269,10 +5385,10 @@
         <v>27006</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="30">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="29">
       <c r="A37" s="17">
         <v>25000</v>
       </c>
@@ -5283,13 +5399,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="30">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="29">
       <c r="A38" s="17">
         <v>25000</v>
       </c>
@@ -5300,25 +5416,25 @@
         <v>2</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I38" s="17">
         <v>25002</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="N38" s="17">
         <v>25001</v>
       </c>
       <c r="T38" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="30">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="29">
       <c r="A39" s="17">
         <v>25001</v>
       </c>
@@ -5329,13 +5445,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="30">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="29">
       <c r="A40" s="17">
         <v>25002</v>
       </c>
@@ -5346,13 +5462,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="T40" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="30">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="29">
       <c r="A41" s="17">
         <v>25002</v>
       </c>
@@ -5363,13 +5479,13 @@
         <v>2</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="30">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="29">
       <c r="A42" s="17">
         <v>25002</v>
       </c>
@@ -5380,13 +5496,13 @@
         <v>3</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="30">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="29">
       <c r="A43" s="17">
         <v>25002</v>
       </c>
@@ -5397,13 +5513,13 @@
         <v>4</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="30">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="29">
       <c r="A44" s="17">
         <v>25003</v>
       </c>
@@ -5414,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -5428,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5439,19 +5555,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
@@ -5546,19 +5662,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.81640625" customWidth="1"/>
     <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
@@ -5729,22 +5845,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="78.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" customWidth="1"/>
     <col min="5" max="5" width="13" style="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="9" customFormat="1" ht="16.5" customHeight="1">
@@ -5764,16 +5880,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -5969,7 +6085,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="16.5" customHeight="1">
+    <row r="6" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A6" s="6">
         <v>60005</v>
       </c>
@@ -5980,7 +6096,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>41</v>
@@ -6013,592 +6129,639 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="9">
+    <row r="7" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="25">
         <v>12000</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>196</v>
+      <c r="D7" s="25" t="s">
+        <v>993</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="25">
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="25">
+        <v>3</v>
+      </c>
+      <c r="H7" s="25">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="25">
+        <v>12001</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>971</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>972</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>999</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <v>3</v>
+      </c>
+      <c r="H8" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1">
-      <c r="A8" s="9">
+    <row r="9" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="25">
         <v>13000</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1">
-      <c r="A9" s="9">
-        <v>15000</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>38</v>
+      <c r="D9" s="25" t="s">
+        <v>994</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="F9" s="25">
+        <v>3</v>
+      </c>
+      <c r="G9" s="25">
+        <v>2</v>
+      </c>
+      <c r="H9" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1">
-      <c r="A10" s="9">
-        <v>15001</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>38</v>
+    <row r="10" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="25">
+        <v>15000</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>987</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>989</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="25">
         <v>1</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="25">
         <v>1</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1">
-      <c r="A11" s="9">
-        <v>15002</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>38</v>
+    <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="25">
+        <v>15001</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>990</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>991</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>992</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="25">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="25">
         <v>1</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1">
-      <c r="A12" s="9">
-        <v>15003</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
+    <row r="12" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="25">
+        <v>15002</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>996</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="25">
         <v>1</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="25">
         <v>1</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1">
-      <c r="A13" s="9">
-        <v>15004</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
+    <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A13" s="25">
+        <v>15003</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>973</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="25">
         <v>1</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="25">
         <v>1</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1">
-      <c r="A14" s="9">
-        <v>15005</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>38</v>
+    <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="25">
+        <v>15004</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>974</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="25">
         <v>1</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="25">
         <v>1</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1">
-      <c r="A15" s="9">
-        <v>15006</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>38</v>
+    <row r="15" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="25">
+        <v>15005</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>975</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="9">
-        <v>2</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="25">
         <v>1</v>
       </c>
-      <c r="H15" s="9">
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1">
-      <c r="A16" s="9">
-        <v>15007</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>38</v>
+    <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A16" s="25">
+        <v>15006</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>997</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="9">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="25">
         <v>1</v>
       </c>
-      <c r="H16" s="9">
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="A17" s="9">
-        <v>15008</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>38</v>
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="25">
+        <v>15007</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>976</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="9">
-        <v>2</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="25">
         <v>1</v>
       </c>
-      <c r="H17" s="9">
+      <c r="G17" s="25">
+        <v>1</v>
+      </c>
+      <c r="H17" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
-      <c r="A18" s="9">
-        <v>15009</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>38</v>
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A18" s="25">
+        <v>15008</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>977</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="25">
         <v>2</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="25">
         <v>1</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
-      <c r="A19" s="9">
-        <v>15010</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>38</v>
+    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A19" s="25">
+        <v>15009</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>978</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="25">
         <v>2</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="25">
         <v>1</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
-      <c r="A20" s="9">
-        <v>15011</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>38</v>
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="25">
+        <v>15010</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>995</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="25">
         <v>2</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="25">
         <v>1</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
-      <c r="A21" s="9">
-        <v>15012</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>38</v>
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A21" s="25">
+        <v>15011</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>998</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="25">
         <v>2</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="25">
         <v>1</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
-      <c r="A22" s="9">
-        <v>15013</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>38</v>
+    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A22" s="25">
+        <v>15012</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>979</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="25">
         <v>2</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="25">
         <v>1</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
-      <c r="A23" s="9">
-        <v>15014</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>38</v>
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="25">
+        <v>15013</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>980</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="9">
-        <v>3</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="F23" s="25">
+        <v>2</v>
+      </c>
+      <c r="G23" s="25">
         <v>1</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
-      <c r="A24" s="9">
-        <v>15015</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>38</v>
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="25">
+        <v>15014</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>981</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="9">
-        <v>3</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24" s="25">
+        <v>2</v>
+      </c>
+      <c r="G24" s="25">
         <v>1</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="9">
-        <v>15016</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>38</v>
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="25">
+        <v>15015</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>982</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>983</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="9">
-        <v>4</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="F25" s="25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="25">
         <v>1</v>
       </c>
-      <c r="H25" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="A26" s="9">
-        <v>15017</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>38</v>
+      <c r="H25" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A26" s="25">
+        <v>15016</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>984</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="9">
-        <v>4</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="25">
+        <v>3</v>
+      </c>
+      <c r="G26" s="25">
         <v>1</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
-      <c r="A27" s="9">
-        <v>15018</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>38</v>
+    <row r="27" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A27" s="25">
+        <v>15017</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>985</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="25">
         <v>4</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="25">
         <v>1</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="25">
         <v>0</v>
       </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A28" s="25">
+        <v>15018</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="25">
+        <v>4</v>
+      </c>
+      <c r="G28" s="25">
+        <v>1</v>
+      </c>
+      <c r="H28" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1"/>
+    <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E19" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="10.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.1796875" style="9"/>
+    <col min="2" max="2" width="10.7265625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6606,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="9">
-        <v>15000</v>
+        <v>15002</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -6623,10 +6786,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="9">
-        <v>15001</v>
+        <v>15003</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -6640,10 +6803,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9">
-        <v>15002</v>
+        <v>15004</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -6657,10 +6820,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9">
-        <v>15003</v>
+        <v>15005</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -6674,10 +6837,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <v>15004</v>
+        <v>15006</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -6691,10 +6854,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="9">
-        <v>15005</v>
+        <v>15007</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -6708,10 +6871,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9">
-        <v>15006</v>
+        <v>15008</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -6725,10 +6888,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="9">
-        <v>15007</v>
+        <v>15009</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -6742,10 +6905,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <v>15008</v>
+        <v>15010</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -6759,10 +6922,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="9">
-        <v>15009</v>
+        <v>15011</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -6776,10 +6939,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="9">
-        <v>15010</v>
+        <v>15012</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -6793,10 +6956,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="9">
-        <v>15011</v>
+        <v>15013</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -6810,10 +6973,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="9">
-        <v>15012</v>
+        <v>15014</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -6827,10 +6990,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="9">
-        <v>15013</v>
+        <v>15015</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -6844,16 +7007,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="9">
-        <v>15014</v>
+        <v>15016</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
       </c>
       <c r="E16" s="16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6861,16 +7024,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="9">
-        <v>15015</v>
+        <v>15017</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D17" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="16">
-        <v>1990.0000000000002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6878,51 +7041,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="9">
-        <v>15016</v>
+        <v>15018</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
       </c>
       <c r="E18" s="16">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9">
-        <v>15017</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>500</v>
-      </c>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9">
-        <v>15018</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>500</v>
-      </c>
+      <c r="E20" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6932,25 +7067,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B753"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
+    <sheetView topLeftCell="A640" workbookViewId="0">
       <selection activeCell="B571" sqref="B571"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="9" customFormat="1">
       <c r="A1" s="10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6958,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6966,7 +7101,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6974,7 +7109,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6982,7 +7117,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6990,7 +7125,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6998,7 +7133,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7006,7 +7141,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7014,7 +7149,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7022,7 +7157,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7030,7 +7165,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7038,7 +7173,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7046,7 +7181,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7054,7 +7189,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7062,7 +7197,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7070,7 +7205,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7078,7 +7213,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7086,7 +7221,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7094,7 +7229,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7102,7 +7237,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7110,7 +7245,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7118,7 +7253,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7126,7 +7261,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7134,7 +7269,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7142,7 +7277,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7150,7 +7285,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7158,7 +7293,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7166,7 +7301,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7174,7 +7309,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7182,7 +7317,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7190,7 +7325,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7198,7 +7333,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7206,7 +7341,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7214,7 +7349,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7222,7 +7357,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7230,7 +7365,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7238,7 +7373,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7246,7 +7381,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7254,7 +7389,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7262,7 +7397,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7270,7 +7405,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7278,7 +7413,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7286,7 +7421,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7294,7 +7429,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7302,7 +7437,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7310,7 +7445,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7318,7 +7453,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7326,7 +7461,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7334,7 +7469,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7342,7 +7477,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7350,7 +7485,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7358,7 +7493,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7366,7 +7501,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7374,7 +7509,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7382,7 +7517,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7390,7 +7525,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7398,7 +7533,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7406,7 +7541,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -7414,7 +7549,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7422,7 +7557,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -7430,7 +7565,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -7438,7 +7573,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -7446,7 +7581,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -7454,7 +7589,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -7462,7 +7597,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -7470,7 +7605,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -7478,7 +7613,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -7486,7 +7621,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7494,7 +7629,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -7502,7 +7637,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -7510,7 +7645,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -7518,7 +7653,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -7526,7 +7661,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -7534,7 +7669,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -7542,7 +7677,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -7550,7 +7685,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -7558,7 +7693,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7566,7 +7701,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -7574,7 +7709,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -7582,7 +7717,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -7590,7 +7725,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -7598,7 +7733,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -7606,7 +7741,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -7614,7 +7749,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -7622,7 +7757,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -7630,7 +7765,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -7638,7 +7773,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -7646,7 +7781,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7654,7 +7789,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -7662,7 +7797,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -7670,7 +7805,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -7678,7 +7813,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -7686,7 +7821,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -7694,7 +7829,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -7702,7 +7837,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -7710,7 +7845,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -7718,7 +7853,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -7726,7 +7861,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -7734,7 +7869,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -7742,7 +7877,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -7750,7 +7885,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -7758,7 +7893,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -7766,7 +7901,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -7774,7 +7909,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -7782,7 +7917,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -7790,7 +7925,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -7798,7 +7933,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -7806,7 +7941,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -7814,7 +7949,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -7822,7 +7957,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -7830,7 +7965,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -7838,7 +7973,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -7846,7 +7981,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -7854,7 +7989,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -7862,7 +7997,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -7870,7 +8005,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -7878,7 +8013,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -7886,7 +8021,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -7894,7 +8029,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -7902,7 +8037,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -7910,7 +8045,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -7918,7 +8053,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -7926,7 +8061,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -7934,7 +8069,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -7942,7 +8077,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -7950,7 +8085,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -7958,7 +8093,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -7966,7 +8101,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -7974,7 +8109,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -7982,7 +8117,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -7990,7 +8125,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -7998,7 +8133,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -8006,7 +8141,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -8014,7 +8149,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -8022,7 +8157,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -8030,7 +8165,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -8038,7 +8173,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -8046,7 +8181,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -8054,7 +8189,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -8062,7 +8197,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -8070,7 +8205,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -8078,7 +8213,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -8086,7 +8221,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -8094,7 +8229,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -8102,7 +8237,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -8110,7 +8245,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -8118,7 +8253,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -8126,7 +8261,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -8134,7 +8269,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -8142,7 +8277,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -8150,7 +8285,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -8158,7 +8293,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -8166,7 +8301,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -8174,7 +8309,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -8182,7 +8317,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -8190,7 +8325,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -8198,7 +8333,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -8206,7 +8341,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -8214,7 +8349,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -8222,7 +8357,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -8230,7 +8365,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -8238,7 +8373,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -8246,7 +8381,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -8254,7 +8389,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -8262,7 +8397,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -8270,7 +8405,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -8278,7 +8413,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -8286,7 +8421,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -8294,7 +8429,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -8302,7 +8437,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -8310,7 +8445,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -8318,7 +8453,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -8326,7 +8461,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -8334,7 +8469,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -8342,7 +8477,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -8350,7 +8485,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -8358,7 +8493,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -8366,7 +8501,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -8374,7 +8509,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -8382,7 +8517,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -8390,7 +8525,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -8398,7 +8533,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -8406,7 +8541,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -8414,7 +8549,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -8422,7 +8557,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -8430,7 +8565,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -8438,7 +8573,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -8446,7 +8581,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -8454,7 +8589,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -8462,7 +8597,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -8470,7 +8605,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -8478,7 +8613,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -8486,7 +8621,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -8494,7 +8629,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -8502,7 +8637,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -8510,7 +8645,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -8518,7 +8653,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -8526,7 +8661,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -8534,7 +8669,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -8542,7 +8677,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -8550,7 +8685,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -8558,7 +8693,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -8566,7 +8701,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -8574,7 +8709,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -8582,7 +8717,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -8590,7 +8725,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -8598,7 +8733,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -8606,7 +8741,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -8614,7 +8749,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -8622,7 +8757,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -8630,7 +8765,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -8638,7 +8773,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -8646,7 +8781,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -8654,7 +8789,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -8662,7 +8797,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -8670,7 +8805,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -8678,7 +8813,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -8686,7 +8821,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -8694,7 +8829,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -8702,7 +8837,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -8710,7 +8845,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -8718,7 +8853,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -8726,7 +8861,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -8734,7 +8869,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -8742,7 +8877,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -8750,7 +8885,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -8758,7 +8893,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -8766,7 +8901,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -8774,7 +8909,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -8782,7 +8917,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -8790,7 +8925,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -8798,7 +8933,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -8806,7 +8941,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -8814,7 +8949,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -8822,7 +8957,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -8830,7 +8965,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -8838,7 +8973,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -8846,7 +8981,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -8854,7 +8989,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -8862,7 +8997,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -8870,7 +9005,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -8878,7 +9013,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -8886,7 +9021,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -8894,7 +9029,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -8902,7 +9037,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -8910,7 +9045,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -8918,7 +9053,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -8926,7 +9061,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -8934,7 +9069,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -8942,7 +9077,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -8950,7 +9085,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -8958,7 +9093,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -8966,7 +9101,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -8974,7 +9109,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -8982,7 +9117,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -8990,7 +9125,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -8998,7 +9133,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -9006,7 +9141,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -9014,7 +9149,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -9022,7 +9157,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -9030,7 +9165,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -9038,7 +9173,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -9046,7 +9181,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -9054,7 +9189,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -9062,7 +9197,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -9070,7 +9205,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -9078,7 +9213,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -9086,7 +9221,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -9094,7 +9229,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -9102,7 +9237,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -9110,7 +9245,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -9118,7 +9253,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -9126,7 +9261,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -9134,7 +9269,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -9142,7 +9277,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -9150,7 +9285,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -9158,7 +9293,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -9166,7 +9301,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -9174,7 +9309,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -9182,7 +9317,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -9190,7 +9325,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -9198,7 +9333,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -9206,7 +9341,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -9214,7 +9349,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -9222,7 +9357,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -9230,7 +9365,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -9238,7 +9373,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -9246,7 +9381,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -9254,7 +9389,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -9262,7 +9397,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -9270,7 +9405,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -9278,7 +9413,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -9286,7 +9421,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -9294,7 +9429,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -9302,7 +9437,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -9310,7 +9445,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -9318,7 +9453,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -9326,7 +9461,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -9334,7 +9469,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -9342,7 +9477,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -9350,7 +9485,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -9358,7 +9493,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -9366,7 +9501,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -9374,7 +9509,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -9382,7 +9517,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -9390,7 +9525,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -9398,7 +9533,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -9406,7 +9541,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -9414,7 +9549,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -9422,7 +9557,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -9430,7 +9565,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -9438,7 +9573,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -9446,7 +9581,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -9454,7 +9589,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -9462,7 +9597,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -9470,7 +9605,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -9478,7 +9613,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -9486,7 +9621,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -9494,7 +9629,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -9502,7 +9637,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -9510,7 +9645,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -9518,7 +9653,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -9526,7 +9661,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -9534,7 +9669,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -9542,7 +9677,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -9550,7 +9685,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -9558,7 +9693,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -9566,7 +9701,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -9574,7 +9709,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -9582,7 +9717,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -9590,7 +9725,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -9598,7 +9733,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -9606,7 +9741,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -9614,7 +9749,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -9622,7 +9757,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -9630,7 +9765,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -9638,7 +9773,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -9646,7 +9781,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -9654,7 +9789,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -9662,7 +9797,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -9670,7 +9805,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -9678,7 +9813,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -9686,7 +9821,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -9694,7 +9829,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -9702,7 +9837,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -9710,7 +9845,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -9718,7 +9853,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -9726,7 +9861,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -9734,7 +9869,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -9742,7 +9877,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -9750,7 +9885,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -9758,7 +9893,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -9766,7 +9901,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -9774,7 +9909,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -9782,7 +9917,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -9790,7 +9925,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -9798,7 +9933,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -9806,7 +9941,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -9814,7 +9949,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -9822,7 +9957,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -9830,7 +9965,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -9838,7 +9973,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -9846,7 +9981,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -9854,7 +9989,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -9862,7 +9997,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -9870,7 +10005,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -9878,7 +10013,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -9886,7 +10021,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -9894,7 +10029,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -9902,7 +10037,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -9910,7 +10045,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -9918,7 +10053,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -9926,7 +10061,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -9934,7 +10069,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -9942,7 +10077,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -9950,7 +10085,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -9958,7 +10093,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -9966,7 +10101,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -9974,7 +10109,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -9982,7 +10117,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -9990,7 +10125,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -9998,7 +10133,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -10006,7 +10141,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -10014,7 +10149,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -10022,7 +10157,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -10030,7 +10165,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -10038,7 +10173,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -10046,7 +10181,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -10054,7 +10189,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -10062,7 +10197,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -10070,7 +10205,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -10078,7 +10213,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -10086,7 +10221,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -10094,7 +10229,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -10102,7 +10237,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -10110,7 +10245,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -10118,7 +10253,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -10126,7 +10261,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -10134,7 +10269,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -10142,7 +10277,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -10150,7 +10285,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -10158,7 +10293,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -10166,7 +10301,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -10174,7 +10309,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -10182,7 +10317,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -10190,7 +10325,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -10198,7 +10333,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -10206,7 +10341,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="9" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -10214,7 +10349,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="9" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -10222,7 +10357,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -10230,7 +10365,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -10238,7 +10373,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -10246,7 +10381,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -10254,7 +10389,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -10262,7 +10397,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -10270,7 +10405,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -10278,7 +10413,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -10286,7 +10421,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -10294,7 +10429,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -10302,7 +10437,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -10310,7 +10445,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -10318,7 +10453,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -10326,7 +10461,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -10334,7 +10469,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -10342,7 +10477,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -10350,7 +10485,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -10358,7 +10493,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="9" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -10366,7 +10501,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -10374,7 +10509,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -10382,7 +10517,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -10390,7 +10525,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -10398,7 +10533,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -10406,7 +10541,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -10414,7 +10549,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -10422,7 +10557,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -10430,7 +10565,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -10438,7 +10573,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -10446,7 +10581,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -10454,7 +10589,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -10462,7 +10597,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -10470,7 +10605,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -10478,7 +10613,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -10486,7 +10621,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -10494,7 +10629,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -10502,7 +10637,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -10510,7 +10645,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -10518,7 +10653,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -10526,7 +10661,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -10534,7 +10669,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -10542,7 +10677,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -10550,7 +10685,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="9" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -10558,7 +10693,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="9" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -10566,7 +10701,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -10574,7 +10709,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -10582,7 +10717,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -10590,7 +10725,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -10598,7 +10733,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -10606,7 +10741,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -10614,7 +10749,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -10622,7 +10757,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -10630,7 +10765,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -10638,7 +10773,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -10646,7 +10781,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -10654,7 +10789,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -10662,7 +10797,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -10670,7 +10805,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -10678,7 +10813,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="9" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -10686,7 +10821,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -10694,7 +10829,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -10702,7 +10837,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="9" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -10710,7 +10845,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="9" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -10718,7 +10853,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -10726,7 +10861,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -10734,7 +10869,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -10742,7 +10877,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -10750,7 +10885,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -10758,7 +10893,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -10766,7 +10901,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -10774,7 +10909,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -10782,7 +10917,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -10790,7 +10925,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -10798,7 +10933,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="9" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -10806,7 +10941,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -10814,7 +10949,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="9" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -10822,7 +10957,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -10830,7 +10965,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -10838,7 +10973,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="9" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -10846,7 +10981,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="9" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -10854,7 +10989,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="9" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -10862,7 +10997,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="9" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -10870,7 +11005,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="9" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -10878,7 +11013,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="9" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -10886,7 +11021,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="9" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -10894,7 +11029,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="9" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -10902,7 +11037,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="9" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -10910,7 +11045,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="9" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -10918,7 +11053,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="9" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -10926,7 +11061,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="9" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -10934,7 +11069,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="9" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -10942,7 +11077,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="9" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -10950,7 +11085,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="9" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -10958,7 +11093,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -10966,7 +11101,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -10974,7 +11109,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -10982,7 +11117,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="9" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -10990,7 +11125,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="9" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -10998,7 +11133,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="9" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -11006,7 +11141,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="9" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -11014,7 +11149,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="9" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -11022,7 +11157,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="9" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -11030,7 +11165,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="9" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -11038,7 +11173,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="9" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -11046,7 +11181,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="9" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -11054,7 +11189,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="9" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -11062,7 +11197,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="9" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -11070,7 +11205,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="9" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -11078,7 +11213,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="9" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -11086,7 +11221,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="9" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -11094,7 +11229,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="9" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -11102,7 +11237,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -11110,7 +11245,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="9" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -11118,7 +11253,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="9" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -11126,7 +11261,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="9" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -11134,7 +11269,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="9" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -11142,7 +11277,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="9" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -11150,7 +11285,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="9" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -11158,7 +11293,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="9" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -11166,7 +11301,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="9" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -11174,7 +11309,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="9" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -11182,7 +11317,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="9" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -11190,7 +11325,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="9" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -11198,7 +11333,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="9" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -11206,7 +11341,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="9" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -11214,7 +11349,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="9" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -11222,7 +11357,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -11230,7 +11365,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="9" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -11238,7 +11373,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="9" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -11246,7 +11381,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="9" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -11254,7 +11389,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -11262,7 +11397,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="9" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -11270,7 +11405,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="9" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -11278,7 +11413,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="9" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -11286,7 +11421,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="9" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -11294,7 +11429,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="9" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -11302,7 +11437,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="9" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -11310,7 +11445,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="9" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -11318,7 +11453,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="9" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -11326,7 +11461,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="9" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -11334,7 +11469,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="9" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -11342,7 +11477,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="9" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -11350,7 +11485,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="9" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -11358,7 +11493,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="9" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -11366,7 +11501,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="9" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -11374,7 +11509,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="9" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -11382,7 +11517,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="9" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -11390,7 +11525,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="9" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -11398,7 +11533,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="9" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -11406,7 +11541,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -11414,7 +11549,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="9" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -11422,7 +11557,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="9" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -11430,7 +11565,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="9" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -11438,7 +11573,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="9" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -11446,7 +11581,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="9" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -11454,7 +11589,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="9" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -11462,7 +11597,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="9" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -11470,7 +11605,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="9" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -11478,7 +11613,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="9" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -11486,7 +11621,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="9" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -11494,7 +11629,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="9" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -11502,7 +11637,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="9" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -11510,7 +11645,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="9" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -11518,7 +11653,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="9" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -11526,7 +11661,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="9" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -11534,7 +11669,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="9" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -11542,7 +11677,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="9" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -11550,7 +11685,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="9" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -11558,7 +11693,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="9" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -11566,7 +11701,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="9" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -11574,7 +11709,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="9" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -11582,7 +11717,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="9" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -11590,7 +11725,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="9" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -11598,7 +11733,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="9" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -11606,7 +11741,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="9" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -11614,7 +11749,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -11622,7 +11757,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="9" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -11630,7 +11765,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="9" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -11638,7 +11773,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="9" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -11646,7 +11781,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="9" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -11654,7 +11789,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="9" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -11662,7 +11797,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="9" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -11670,7 +11805,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="9" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -11678,7 +11813,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="9" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -11686,7 +11821,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="9" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -11694,7 +11829,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="9" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -11702,7 +11837,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="9" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -11710,7 +11845,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="9" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -11718,7 +11853,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="9" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -11726,7 +11861,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="9" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -11734,7 +11869,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="9" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -11742,7 +11877,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="9" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -11750,7 +11885,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -11758,7 +11893,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="9" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -11766,7 +11901,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="9" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -11774,7 +11909,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="9" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -11782,7 +11917,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="9" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -11790,7 +11925,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="9" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -11798,7 +11933,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="9" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -11806,7 +11941,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="9" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -11814,7 +11949,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="9" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -11822,7 +11957,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="9" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -11830,7 +11965,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="9" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -11838,7 +11973,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="9" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -11846,7 +11981,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="9" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -11854,7 +11989,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -11862,7 +11997,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="9" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -11870,7 +12005,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="9" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -11878,7 +12013,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="9" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -11886,7 +12021,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="9" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -11894,7 +12029,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="9" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -11902,7 +12037,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="9" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -11910,7 +12045,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="9" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -11918,7 +12053,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="9" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -11926,7 +12061,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="9" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -11934,7 +12069,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="9" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -11942,7 +12077,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="9" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -11950,7 +12085,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="9" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -11958,7 +12093,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="9" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -11966,7 +12101,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="9" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -11974,7 +12109,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="9" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -11982,7 +12117,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="9" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -11990,7 +12125,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="9" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -11998,7 +12133,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="9" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -12006,7 +12141,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="9" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -12014,7 +12149,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="9" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -12022,7 +12157,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="9" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -12030,7 +12165,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="9" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -12038,7 +12173,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="9" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -12046,7 +12181,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="9" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -12054,7 +12189,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="9" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -12062,7 +12197,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="9" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -12070,7 +12205,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="9" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -12078,7 +12213,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="9" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -12086,7 +12221,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="9" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -12094,7 +12229,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="9" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -12102,7 +12237,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="9" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -12110,7 +12245,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="9" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -12118,7 +12253,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="9" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -12126,7 +12261,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="9" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -12134,7 +12269,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="9" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -12142,7 +12277,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="9" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -12150,7 +12285,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="9" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -12158,7 +12293,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="9" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -12166,7 +12301,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -12174,7 +12309,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="9" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -12182,7 +12317,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="9" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -12190,7 +12325,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="9" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -12198,7 +12333,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="9" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -12206,7 +12341,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="9" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -12214,7 +12349,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="9" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -12222,7 +12357,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="9" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -12230,7 +12365,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="9" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -12238,7 +12373,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="9" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -12246,7 +12381,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="9" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -12254,7 +12389,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="9" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -12262,7 +12397,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="9" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -12270,7 +12405,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="9" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -12278,7 +12413,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="9" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -12286,7 +12421,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="9" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -12294,7 +12429,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="9" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -12302,7 +12437,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="9" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -12310,7 +12445,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="9" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -12318,7 +12453,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="9" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -12326,7 +12461,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="9" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -12334,7 +12469,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="9" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -12342,7 +12477,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="9" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -12350,7 +12485,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="9" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -12358,7 +12493,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="9" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -12366,7 +12501,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="9" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -12374,7 +12509,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="9" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -12382,7 +12517,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="9" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -12390,7 +12525,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -12398,7 +12533,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="9" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -12406,7 +12541,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="9" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -12414,7 +12549,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="9" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -12422,7 +12557,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="9" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -12430,7 +12565,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="9" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -12438,7 +12573,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="9" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -12446,7 +12581,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="9" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -12454,7 +12589,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="9" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -12462,7 +12597,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="9" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -12470,7 +12605,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="9" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -12478,7 +12613,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="9" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -12486,7 +12621,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="9" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -12494,7 +12629,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="9" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -12502,7 +12637,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="9" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -12510,7 +12645,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="9" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -12518,7 +12653,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="9" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -12526,7 +12661,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="9" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -12534,7 +12669,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="9" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -12542,7 +12677,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="9" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -12550,7 +12685,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="9" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -12558,7 +12693,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="9" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -12566,7 +12701,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="9" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -12574,7 +12709,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="9" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -12582,7 +12717,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="9" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -12590,7 +12725,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="9" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -12598,7 +12733,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="9" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -12606,7 +12741,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="9" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -12614,7 +12749,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="9" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -12622,7 +12757,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="9" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -12630,7 +12765,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="9" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -12638,7 +12773,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="9" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -12646,7 +12781,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="9" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -12654,7 +12789,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="9" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -12662,7 +12797,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="9" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -12670,7 +12805,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="9" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -12678,7 +12813,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="9" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -12686,7 +12821,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="9" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -12694,7 +12829,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="9" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -12702,7 +12837,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="9" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -12710,7 +12845,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -12718,7 +12853,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="9" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -12726,7 +12861,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="9" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -12734,7 +12869,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="9" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -12742,7 +12877,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="9" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -12750,7 +12885,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="9" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -12758,7 +12893,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="9" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -12766,7 +12901,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="9" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -12774,7 +12909,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="9" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -12782,7 +12917,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="9" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -12790,7 +12925,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="9" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -12798,7 +12933,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="9" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -12806,7 +12941,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="9" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -12814,7 +12949,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="9" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -12822,7 +12957,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="9" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -12830,7 +12965,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="9" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -12838,7 +12973,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="9" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -12846,7 +12981,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="9" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -12854,7 +12989,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="9" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -12862,7 +12997,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="9" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -12870,7 +13005,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="9" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -12878,7 +13013,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="9" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -12886,7 +13021,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="9" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -12894,7 +13029,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -12902,7 +13037,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="9" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -12910,7 +13045,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="9" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -12918,7 +13053,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="9" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -12926,7 +13061,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="9" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -12934,7 +13069,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="9" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -12942,7 +13077,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="9" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -12950,7 +13085,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="9" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -12958,7 +13093,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="9" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -12966,7 +13101,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="9" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohgo\Desktop\Unity\SUPERmetaVR\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Slime\VR\SUPERmeta\KGA_SUPERmetaVR\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6544434-8E04-40AF-B90B-94BDBA135590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="1003">
   <si>
     <t>id</t>
   </si>
@@ -537,18 +536,6 @@
     <t>SELECT1</t>
   </si>
   <si>
-    <t>나는 여기가 정--말 좋아-! 아무 생각 없이 재밌게 놀면 되거든-!
-너도 이 세계가 맘에 들길 바라-</t>
-  </si>
-  <si>
-    <t>아 그리고-! 인벤토리 공간이 가득 차면 아이템을 보관할 수 없어!
-가득 찬 상태로 아이템을 받게 되면 파괴되니까 조심하라고-</t>
-  </si>
-  <si>
-    <t>이제 기본적인 건 다 알려준 것 같은데..
-아! 조작키를 까먹었을 땐 언제든지 Y키를 눌러 확인할 수 있으니 걱정마!</t>
-  </si>
-  <si>
     <t>응-? 네 잎 클로버 4개 가져왔어?</t>
   </si>
   <si>
@@ -634,10 +621,6 @@
   </si>
   <si>
     <t>다시 한 번 말해줘</t>
-  </si>
-  <si>
-    <t>후후.. 그건 그렇고 잘 따라와 준 너에게 선물을 하나 줄게!
-초초초특급 레어 한정 간지 작살 코스튬이다!</t>
   </si>
   <si>
     <r>
@@ -959,12 +942,6 @@
     <t>TT_Mo_3.wav</t>
   </si>
   <si>
-    <t>안녕? 적응은 잘 하고있어? 즐거운 하루 보내!</t>
-  </si>
-  <si>
-    <t>나는 여기서 항상 새로운 어린이들을 인도해!</t>
-  </si>
-  <si>
     <t>안녕- 나는 코티야. 네 잎 클로버를 4개 가져오면 코스튬으로 변화시켜줄게</t>
   </si>
   <si>
@@ -975,9 +952,6 @@
   </si>
   <si>
     <t>CC_Coty_2.mp3</t>
-  </si>
-  <si>
-    <t>CC_Coty_3.mp3</t>
   </si>
   <si>
     <t>다 됐어-! 이쁘게 착용해-!</t>
@@ -1062,53 +1036,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>안녕 내 이름은 모 너처럼 다른 세계에서 넘어온 아이들이 잘 적응할 수 있게
-도움을 주는게 내 인생의 낙이야!
-나 말고 다른 녀석에게 말을 걸고 싶으면 방금처럼 머리위 아이콘을 클릭하라구!</t>
-  </si>
-  <si>
     <t>Mo_Hi.fbx</t>
   </si>
   <si>
-    <t>그건 그렇구 내가 널 뭐라고 부르면 될까?</t>
-  </si>
-  <si>
     <t>Mo_Talking.fbx</t>
   </si>
   <si>
-    <t>이름 멋지다!! 미니마니모 마을에 온걸 환영해!!
-여긴 너 처럼 다른세계에서 온 아이들이 귀여운 유령들과 놀 수 있는 재미있는 곳이야!</t>
-  </si>
-  <si>
     <t>Mo_Gesture.fbx</t>
   </si>
   <si>
-    <t>뭐라구?? 내가 사람 맞냐구?? 맞아 나도 너희들과 같은 다른세계에서 넘어왔지만
-이곳이 너무 좋아 다른 아이들도 여기서 즐겼으면 좋겠어서 이렇게 도와주고 있다구~</t>
-  </si>
-  <si>
     <t>Mo_talking2.fbx</t>
   </si>
   <si>
     <t>Mo_Excited.fbx</t>
-  </si>
-  <si>
-    <t>여기 네잎 클로버가 있어! 한번 손으로 잡아볼래? 그립버튼을 누르면 잡을 수 있어!</t>
-  </si>
-  <si>
-    <t>네잎 클로버를 집으면 아공간이 허리에 생길거야!
-아공간에 클로버를 닿게 한후 손을 놔봐!</t>
-  </si>
-  <si>
-    <t>그래 그렇게 아이템을 넣는거야! 잘하는데?
-네잎클로버는 나중에 사용해봐! 좋은걸 줄지도??</t>
-  </si>
-  <si>
-    <t>자 이제 알려줄건 다 알려 줬으니 문을 열어줄게~
-다음 신입은 어떤 녀석이 오려나~</t>
-  </si>
-  <si>
-    <t>TT_BBororoong1.mp3</t>
   </si>
   <si>
     <t>Mo_finger1.fbx</t>
@@ -1174,26 +1114,6 @@
   </si>
   <si>
     <t>후-- 하-- 후--- 예--</t>
-  </si>
-  <si>
-    <t>Coty_CCMK.fbx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coty_Happy.fbx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coty_No.fbx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coty_Shrugging.fbx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coty_Jump.fbx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3527,11 +3447,93 @@
     <t>Present</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>어서 와- 처음 보는 인간이네-
+여긴 어쩐 일이야? 놀러 온 거야?</t>
+  </si>
+  <si>
+    <t>역시- 그렇구나-
+너와 같은 이유로 이 세상에 놀러 오는 인간들이 많아-!</t>
+  </si>
+  <si>
+    <t>정말 잘 찾아왔어-! 
+여긴 미니 게임들이 마니 모인 요괴 마을-! 환상의 마을이지!</t>
+  </si>
+  <si>
+    <t>정말 반가워--! 내 이름은 모모!
+너는 누구야?</t>
+  </si>
+  <si>
+    <t>멋지다-!
+좋아- 그럼 이제 친구들이 있는 공간으로 데려다줄게-!</t>
+  </si>
+  <si>
+    <t>도착하면 나랑 똑같이 생긴
+쌍둥이 '모'가 앞에서 반겨줄 거야- 히히</t>
+  </si>
+  <si>
+    <t>아- 맞다- 너 왼쪽 손목을 보면 못 보던 시계가 있을 거야-</t>
+  </si>
+  <si>
+    <t>그건 '모모 워치' 라는거야-!
+가서 유용하게 쓰일 테니까 도착하면 확인해봐-!</t>
+  </si>
+  <si>
+    <t>이제 진짜 헤어져야겠다-!
+즐거운 시간 보내길 바라- 미니 마니 모!</t>
+  </si>
+  <si>
+    <t>안녕! 반가워-! 내 이름은 모!
+앞에서 아이들을 맞이해주는 게 내 삶의 낙이야!</t>
+  </si>
+  <si>
+    <t>입구로 들어가면 다양한 재미들이 널 기다리고 있어!
+오늘도 좋은 시간 보내길 바라!</t>
+  </si>
+  <si>
+    <t>Coty_Jump.fbx</t>
+  </si>
+  <si>
+    <t>CC_CotyCL.wav</t>
+  </si>
+  <si>
+    <t>Coty_CCMK.fbx</t>
+  </si>
+  <si>
+    <t>Coty_Happy.fbx</t>
+  </si>
+  <si>
+    <t>Coty_No.fbx</t>
+  </si>
+  <si>
+    <t>Coty_Shrugging.fbx</t>
+  </si>
+  <si>
+    <t>미니마니모에 온 걸 환영해</t>
+  </si>
+  <si>
+    <t>이렇게 신비한 장소 또 본적있어?</t>
+  </si>
+  <si>
+    <t>네잎클로버를 힘들게 찾았는데 손에서 놓치는순간 사라지고말았어..</t>
+  </si>
+  <si>
+    <t>미니마니모에서 즐거운 시간보내~</t>
+  </si>
+  <si>
+    <t>나무에 매달린 호박 쳐 본적있어? 가끔 좋은 물건을 준다는데</t>
+  </si>
+  <si>
+    <t>오늘도 피포팜 댄스 한번 어때?</t>
+  </si>
+  <si>
+    <t>아쉽게 1등을 놓치고말았어…</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -3631,7 +3633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3692,9 +3694,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3928,23 +3927,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="92" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="9" customWidth="1"/>
     <col min="6" max="7" width="9" style="9" customWidth="1"/>
-    <col min="8" max="27" width="8.7265625" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="14.453125" style="9"/>
+    <col min="8" max="27" width="8.7109375" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1">
@@ -3986,7 +3985,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="29">
+    <row r="2" spans="1:27" ht="30">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -4251,7 +4250,7 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="29">
+    <row r="9" spans="1:27" ht="30">
       <c r="A9" s="11">
         <v>52004</v>
       </c>
@@ -4436,7 +4435,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="29">
+    <row r="14" spans="1:27" ht="30">
       <c r="A14" s="11">
         <v>52009</v>
       </c>
@@ -4496,17 +4495,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="9"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1">
@@ -4514,13 +4513,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4528,7 +4527,7 @@
         <v>20000</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -4539,7 +4538,7 @@
         <v>20001</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -4550,7 +4549,7 @@
         <v>20300</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -4561,7 +4560,7 @@
         <v>20600</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -4574,275 +4573,257 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="N26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="17"/>
-    <col min="4" max="4" width="82.54296875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="17" customWidth="1"/>
-    <col min="6" max="9" width="29.26953125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="17" customWidth="1"/>
-    <col min="11" max="14" width="29.26953125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="21.7265625" style="17" customWidth="1"/>
-    <col min="16" max="19" width="14.81640625" style="19" customWidth="1"/>
-    <col min="20" max="20" width="19.54296875" style="17" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="3" width="9.140625" style="17"/>
+    <col min="4" max="4" width="82.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="17" customWidth="1"/>
+    <col min="6" max="9" width="29.28515625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="17" customWidth="1"/>
+    <col min="11" max="14" width="29.28515625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" style="17" customWidth="1"/>
+    <col min="16" max="19" width="14.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" style="17" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="17" customFormat="1">
       <c r="A1" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="O1" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="Q1" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="43.5">
+    </row>
+    <row r="2" spans="1:20" ht="30">
       <c r="A2" s="17">
         <v>21000</v>
       </c>
       <c r="B2" s="17">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>192</v>
+        <v>979</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="30">
       <c r="A3" s="17">
-        <v>21001</v>
+        <v>21000</v>
       </c>
       <c r="B3" s="17">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="C3" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>169</v>
+        <v>980</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="29">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30">
       <c r="A4" s="17">
-        <v>21001</v>
+        <v>21000</v>
       </c>
       <c r="B4" s="17">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="C4" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>169</v>
+        <v>981</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="29">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30">
       <c r="A5" s="17">
-        <v>21001</v>
+        <v>21000</v>
       </c>
       <c r="B5" s="17">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="C5" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>169</v>
+        <v>982</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="29">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30">
       <c r="A6" s="17">
         <v>21001</v>
       </c>
       <c r="B6" s="17">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>983</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30">
+      <c r="A7" s="17">
+        <v>21001</v>
+      </c>
+      <c r="B7" s="17">
+        <v>20001</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>984</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="17">
+        <v>21001</v>
+      </c>
+      <c r="B8" s="17">
+        <v>20001</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>985</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30">
+      <c r="A9" s="17">
+        <v>21001</v>
+      </c>
+      <c r="B9" s="17">
+        <v>20001</v>
+      </c>
+      <c r="C9" s="17">
         <v>4</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="17">
+      <c r="D9" s="20" t="s">
+        <v>986</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="30">
+      <c r="A10" s="17">
+        <v>21001</v>
+      </c>
+      <c r="B10" s="17">
+        <v>20001</v>
+      </c>
+      <c r="C10" s="17">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>987</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="30">
+      <c r="A11" s="17">
         <v>21002</v>
-      </c>
-      <c r="B7" s="17">
-        <v>20000</v>
-      </c>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="T7" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="29">
-      <c r="A8" s="17">
-        <v>21002</v>
-      </c>
-      <c r="B8" s="17">
-        <v>20000</v>
-      </c>
-      <c r="C8" s="17">
-        <v>2</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="29">
-      <c r="A9" s="17">
-        <v>21002</v>
-      </c>
-      <c r="B9" s="17">
-        <v>20000</v>
-      </c>
-      <c r="C9" s="17">
-        <v>3</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="29">
-      <c r="A10" s="17">
-        <v>21002</v>
-      </c>
-      <c r="B10" s="17">
-        <v>20000</v>
-      </c>
-      <c r="C10" s="17">
-        <v>4</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="29">
-      <c r="A11" s="17">
-        <v>21003</v>
       </c>
       <c r="B11" s="17">
         <v>20000</v>
@@ -4851,18 +4832,18 @@
         <v>1</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>74</v>
+        <v>988</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="29">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="30">
       <c r="A12" s="17">
-        <v>21003</v>
+        <v>21002</v>
       </c>
       <c r="B12" s="17">
         <v>20000</v>
@@ -4871,78 +4852,87 @@
         <v>2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>169</v>
+        <v>989</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="29">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="17">
-        <v>21003</v>
+        <v>24000</v>
       </c>
       <c r="B13" s="17">
-        <v>20000</v>
+        <v>20300</v>
       </c>
       <c r="C13" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>206</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="17">
-        <v>21006</v>
+        <v>24000</v>
       </c>
       <c r="B14" s="17">
-        <v>20000</v>
+        <v>20300</v>
       </c>
       <c r="C14" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="17">
-        <v>21007</v>
+        <v>24001</v>
       </c>
       <c r="B15" s="17">
-        <v>20000</v>
+        <v>20300</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>172</v>
+        <v>72</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="17">
+        <v>12000</v>
+      </c>
+      <c r="G15" s="17">
+        <v>4</v>
+      </c>
+      <c r="H15" s="17">
+        <v>24002</v>
+      </c>
+      <c r="I15" s="17">
+        <v>24003</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="17">
+        <v>24004</v>
       </c>
       <c r="O15" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="T15" s="17" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="17">
-        <v>24000</v>
+        <v>24002</v>
       </c>
       <c r="B16" s="17">
         <v>20300</v>
@@ -4951,18 +4941,18 @@
         <v>1</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>174</v>
+        <v>991</v>
       </c>
       <c r="T16" s="18" t="s">
-        <v>229</v>
+        <v>992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="17">
-        <v>24000</v>
+        <v>24002</v>
       </c>
       <c r="B17" s="17">
         <v>20300</v>
@@ -4971,12 +4961,27 @@
         <v>2</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>171</v>
+      </c>
+      <c r="P17" s="19">
+        <v>13000</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>1</v>
+      </c>
+      <c r="R17" s="19">
+        <v>12000</v>
+      </c>
+      <c r="S17" s="19">
+        <v>4</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="30">
       <c r="A18" s="17">
-        <v>24001</v>
+        <v>24003</v>
       </c>
       <c r="B18" s="17">
         <v>20300</v>
@@ -4985,36 +4990,18 @@
         <v>1</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="17">
-        <v>12000</v>
-      </c>
-      <c r="G18" s="17">
-        <v>4</v>
-      </c>
-      <c r="H18" s="17">
-        <v>24002</v>
-      </c>
-      <c r="I18" s="17">
-        <v>24003</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="17">
-        <v>24004</v>
-      </c>
       <c r="O18" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="17">
-        <v>24002</v>
+        <v>24004</v>
       </c>
       <c r="B19" s="17">
         <v>20300</v>
@@ -5023,134 +5010,108 @@
         <v>1</v>
       </c>
       <c r="D19" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="T19" s="18" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="30">
+      <c r="A20" s="17">
+        <v>27000</v>
+      </c>
+      <c r="B20" s="17">
+        <v>20600</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="O19" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="T19" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="17">
-        <v>24002</v>
-      </c>
-      <c r="B20" s="17">
-        <v>20300</v>
-      </c>
-      <c r="C20" s="17">
-        <v>2</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="P20" s="19">
-        <v>13000</v>
-      </c>
-      <c r="Q20" s="19">
-        <v>1</v>
-      </c>
-      <c r="R20" s="19">
-        <v>12000</v>
-      </c>
-      <c r="S20" s="19">
-        <v>4</v>
+      <c r="I20" s="17">
+        <v>27002</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" s="17">
+        <v>27001</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="29">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="30">
       <c r="A21" s="17">
-        <v>24003</v>
+        <v>27001</v>
       </c>
       <c r="B21" s="17">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="C21" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>179</v>
+      <c r="D21" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="30">
       <c r="A22" s="17">
-        <v>24004</v>
+        <v>27002</v>
       </c>
       <c r="B22" s="17">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="C22" s="17">
         <v>1</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="T22" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="29">
+      <c r="D22" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="T22" s="18"/>
+    </row>
+    <row r="23" spans="1:20" ht="30">
       <c r="A23" s="17">
-        <v>27000</v>
+        <v>27002</v>
       </c>
       <c r="B23" s="17">
         <v>20600</v>
       </c>
       <c r="C23" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="17">
+    </row>
+    <row r="24" spans="1:20" ht="30">
+      <c r="A24" s="17">
         <v>27002</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="N23" s="17">
-        <v>27001</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="T23" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="29">
-      <c r="A24" s="17">
-        <v>27001</v>
       </c>
       <c r="B24" s="17">
         <v>20600</v>
       </c>
       <c r="C24" s="17">
-        <v>1</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="T24" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="29">
+        <v>3</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="17">
         <v>27002</v>
       </c>
@@ -5158,13 +5119,19 @@
         <v>20600</v>
       </c>
       <c r="C25" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="29">
+        <v>83</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="30">
       <c r="A26" s="17">
         <v>27002</v>
       </c>
@@ -5172,79 +5139,102 @@
         <v>20600</v>
       </c>
       <c r="C26" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:20" ht="29">
+      <c r="E26" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="17">
+        <v>27006</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" s="17">
+        <v>27003</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="30">
       <c r="A27" s="17">
-        <v>27002</v>
+        <v>27003</v>
       </c>
       <c r="B27" s="17">
         <v>20600</v>
       </c>
       <c r="C27" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>87</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="17">
+        <v>27004</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="17">
+        <v>27001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="30">
       <c r="A28" s="17">
-        <v>27002</v>
+        <v>27004</v>
       </c>
       <c r="B28" s="17">
         <v>20600</v>
       </c>
       <c r="C28" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="T28" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="29">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="17">
-        <v>27002</v>
+        <v>27005</v>
       </c>
       <c r="B29" s="17">
         <v>20600</v>
       </c>
       <c r="C29" s="17">
-        <v>5</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>88</v>
       </c>
       <c r="I29" s="17">
-        <v>27006</v>
+        <v>27004</v>
       </c>
       <c r="J29" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="N29" s="17">
-        <v>27003</v>
+      <c r="O29" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="29">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="17">
-        <v>27003</v>
+        <v>27006</v>
       </c>
       <c r="B30" s="17">
         <v>20600</v>
@@ -5253,65 +5243,38 @@
         <v>1</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="17">
-        <v>27004</v>
-      </c>
-      <c r="J30" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="N30" s="17">
-        <v>27001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="29">
+    </row>
+    <row r="31" spans="1:20" ht="30">
       <c r="A31" s="17">
-        <v>27004</v>
+        <v>27006</v>
       </c>
       <c r="B31" s="17">
         <v>20600</v>
       </c>
       <c r="C31" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="T31" s="17" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="17">
-        <v>27005</v>
+        <v>27006</v>
       </c>
       <c r="B32" s="17">
         <v>20600</v>
       </c>
       <c r="C32" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="17">
-        <v>27004</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="O32" s="17" t="s">
-        <v>182</v>
-      </c>
       <c r="T32" s="17" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -5322,75 +5285,93 @@
         <v>20600</v>
       </c>
       <c r="C33" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="29">
+      <c r="E33" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="17">
+        <v>27003</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="17">
+        <v>27006</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="30">
       <c r="A34" s="17">
-        <v>27006</v>
+        <v>25000</v>
       </c>
       <c r="B34" s="17">
-        <v>20600</v>
+        <v>20401</v>
       </c>
       <c r="C34" s="17">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="30">
+      <c r="A35" s="17">
+        <v>25000</v>
+      </c>
+      <c r="B35" s="17">
+        <v>20401</v>
+      </c>
+      <c r="C35" s="17">
         <v>2</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="17">
-        <v>27006</v>
-      </c>
-      <c r="B35" s="17">
-        <v>20600</v>
-      </c>
-      <c r="C35" s="17">
-        <v>3</v>
-      </c>
       <c r="D35" s="20" t="s">
-        <v>97</v>
+        <v>195</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35" s="17">
+        <v>25002</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="N35" s="17">
+        <v>25001</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="30">
       <c r="A36" s="17">
-        <v>27006</v>
+        <v>25001</v>
       </c>
       <c r="B36" s="17">
-        <v>20600</v>
+        <v>20401</v>
       </c>
       <c r="C36" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="17">
-        <v>27003</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N36" s="17">
-        <v>27006</v>
+        <v>199</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="30">
       <c r="A37" s="17">
-        <v>25000</v>
+        <v>25002</v>
       </c>
       <c r="B37" s="17">
         <v>20401</v>
@@ -5399,15 +5380,15 @@
         <v>1</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="29">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="30">
       <c r="A38" s="17">
-        <v>25000</v>
+        <v>25002</v>
       </c>
       <c r="B38" s="17">
         <v>20401</v>
@@ -5416,42 +5397,30 @@
         <v>2</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="I38" s="17">
+        <v>203</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="30">
+      <c r="A39" s="17">
         <v>25002</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="N38" s="17">
-        <v>25001</v>
-      </c>
-      <c r="T38" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="29">
-      <c r="A39" s="17">
-        <v>25001</v>
       </c>
       <c r="B39" s="17">
         <v>20401</v>
       </c>
       <c r="C39" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="29">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="30">
       <c r="A40" s="17">
         <v>25002</v>
       </c>
@@ -5459,92 +5428,139 @@
         <v>20401</v>
       </c>
       <c r="C40" s="17">
+        <v>4</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="30">
+      <c r="A41" s="17">
+        <v>25003</v>
+      </c>
+      <c r="B41" s="17">
+        <v>20400</v>
+      </c>
+      <c r="C41" s="17">
         <v>1</v>
       </c>
-      <c r="D40" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="T40" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="29">
-      <c r="A41" s="17">
-        <v>25002</v>
-      </c>
-      <c r="B41" s="17">
-        <v>20401</v>
-      </c>
-      <c r="C41" s="17">
-        <v>2</v>
-      </c>
       <c r="D41" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="T41" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="29">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="17">
-        <v>25002</v>
+        <v>25004</v>
       </c>
       <c r="B42" s="17">
-        <v>20401</v>
+        <v>20402</v>
       </c>
       <c r="C42" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="T42" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="29">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="17">
-        <v>25002</v>
+        <v>26000</v>
       </c>
       <c r="B43" s="17">
-        <v>20401</v>
+        <v>60000</v>
       </c>
       <c r="C43" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="T43" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="29">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="17">
-        <v>25003</v>
+        <v>26001</v>
       </c>
       <c r="B44" s="17">
-        <v>20400</v>
+        <v>60001</v>
       </c>
       <c r="C44" s="17">
         <v>1</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>223</v>
+        <v>997</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="17">
-        <v>25004</v>
+        <v>26002</v>
       </c>
       <c r="B45" s="17">
-        <v>20402</v>
+        <v>60002</v>
       </c>
       <c r="C45" s="17">
         <v>1</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>224</v>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="17">
+        <v>26003</v>
+      </c>
+      <c r="B46" s="17">
+        <v>60003</v>
+      </c>
+      <c r="C46" s="17">
+        <v>1</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="17">
+        <v>26004</v>
+      </c>
+      <c r="B47" s="17">
+        <v>60004</v>
+      </c>
+      <c r="C47" s="17">
+        <v>1</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="17">
+        <v>26005</v>
+      </c>
+      <c r="B48" s="17">
+        <v>60005</v>
+      </c>
+      <c r="C48" s="17">
+        <v>1</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="17">
+        <v>26006</v>
+      </c>
+      <c r="B49" s="17">
+        <v>60006</v>
+      </c>
+      <c r="C49" s="17">
+        <v>1</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -5555,19 +5571,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" customWidth="1"/>
-    <col min="5" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
@@ -5662,19 +5678,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="66.81640625" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
     <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
@@ -5845,22 +5861,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.36328125" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" style="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="9" customFormat="1" ht="16.5" customHeight="1">
@@ -5880,16 +5896,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6096,7 +6112,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>41</v>
@@ -6130,597 +6146,597 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>12000</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>993</v>
+      <c r="B7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>972</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>1</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>3</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>12001</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>999</v>
+      <c r="B8" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>978</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>1</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>3</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>13000</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>994</v>
+      <c r="B9" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>973</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>3</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>2</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>15000</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>987</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>988</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>989</v>
+      <c r="B10" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>967</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>968</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>1</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>1</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>15001</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>990</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>991</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>992</v>
+      <c r="B11" s="24" t="s">
+        <v>969</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>970</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>971</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>1</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>1</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>15002</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>996</v>
+      <c r="B12" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>975</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>1</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>1</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <v>15003</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>973</v>
+      <c r="B13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>952</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>1</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>1</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>15004</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>974</v>
+      <c r="B14" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>953</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>1</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>1</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="25">
+      <c r="A15" s="24">
         <v>15005</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>975</v>
+      <c r="B15" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>954</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>1</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>1</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>15006</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>997</v>
+      <c r="B16" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>976</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>1</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <v>1</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>15007</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>976</v>
+      <c r="B17" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>955</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>1</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <v>1</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <v>15008</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>977</v>
+      <c r="B18" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>956</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>2</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <v>1</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <v>15009</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>978</v>
+      <c r="B19" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>957</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <v>2</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="24">
         <v>1</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="25">
+      <c r="A20" s="24">
         <v>15010</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>995</v>
+      <c r="B20" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>974</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <v>2</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="24">
         <v>1</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="25">
+      <c r="A21" s="24">
         <v>15011</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>998</v>
+      <c r="B21" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>977</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <v>2</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="24">
         <v>1</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>15012</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>979</v>
+      <c r="B22" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>958</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <v>2</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="24">
         <v>1</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="25">
+      <c r="A23" s="24">
         <v>15013</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>980</v>
+      <c r="B23" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>959</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="24">
         <v>2</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="24">
         <v>1</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <v>15014</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>981</v>
+      <c r="B24" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>960</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="24">
         <v>2</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="24">
         <v>1</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="25">
+      <c r="A25" s="24">
         <v>15015</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>982</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>983</v>
+      <c r="B25" s="24" t="s">
+        <v>961</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>962</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <v>2</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="24">
         <v>1</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="25">
+      <c r="A26" s="24">
         <v>15016</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>984</v>
+      <c r="B26" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>963</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="24">
         <v>3</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="24">
         <v>1</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>15017</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>985</v>
+      <c r="B27" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>964</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="24">
         <v>4</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <v>1</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="25">
+      <c r="A28" s="24">
         <v>15018</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>986</v>
+      <c r="B28" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>965</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="24">
         <v>4</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="24">
         <v>1</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1"/>
     <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6730,38 +6746,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="9"/>
-    <col min="2" max="2" width="10.7265625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="10.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
+    <row r="1" spans="1:5" ht="16.5">
       <c r="A1" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6772,7 +6788,7 @@
         <v>15002</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -6789,7 +6805,7 @@
         <v>15003</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -6806,7 +6822,7 @@
         <v>15004</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -6823,7 +6839,7 @@
         <v>15005</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -6840,7 +6856,7 @@
         <v>15006</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -6857,7 +6873,7 @@
         <v>15007</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -6874,7 +6890,7 @@
         <v>15008</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -6891,7 +6907,7 @@
         <v>15009</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -6908,7 +6924,7 @@
         <v>15010</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -6925,7 +6941,7 @@
         <v>15011</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -6942,7 +6958,7 @@
         <v>15012</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -6959,7 +6975,7 @@
         <v>15013</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -6976,7 +6992,7 @@
         <v>15014</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -6993,7 +7009,7 @@
         <v>15015</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -7010,7 +7026,7 @@
         <v>15016</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -7027,7 +7043,7 @@
         <v>15017</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -7044,7 +7060,7 @@
         <v>15018</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -7067,25 +7083,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B753"/>
   <sheetViews>
     <sheetView topLeftCell="A640" workbookViewId="0">
       <selection activeCell="B571" sqref="B571"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="9" customFormat="1">
       <c r="A1" s="10" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7093,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7101,7 +7117,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7109,7 +7125,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7117,7 +7133,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7125,7 +7141,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7133,7 +7149,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7141,7 +7157,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7149,7 +7165,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7157,7 +7173,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7165,7 +7181,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7173,7 +7189,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7181,7 +7197,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7189,7 +7205,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7197,7 +7213,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7205,7 +7221,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7213,7 +7229,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7221,7 +7237,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7229,7 +7245,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7237,7 +7253,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7245,7 +7261,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7253,7 +7269,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7261,7 +7277,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7269,7 +7285,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7277,7 +7293,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7285,7 +7301,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7293,7 +7309,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7301,7 +7317,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7309,7 +7325,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7317,7 +7333,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7325,7 +7341,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7333,7 +7349,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7341,7 +7357,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7349,7 +7365,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7357,7 +7373,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7365,7 +7381,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7373,7 +7389,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7381,7 +7397,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7389,7 +7405,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7397,7 +7413,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7405,7 +7421,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7413,7 +7429,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7421,7 +7437,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7429,7 +7445,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7437,7 +7453,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7445,7 +7461,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7453,7 +7469,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7461,7 +7477,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7469,7 +7485,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7477,7 +7493,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7485,7 +7501,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7493,7 +7509,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7501,7 +7517,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7509,7 +7525,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7517,7 +7533,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7525,7 +7541,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7533,7 +7549,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7541,7 +7557,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -7549,7 +7565,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7557,7 +7573,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -7565,7 +7581,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -7573,7 +7589,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -7581,7 +7597,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -7589,7 +7605,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -7597,7 +7613,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -7605,7 +7621,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -7613,7 +7629,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -7621,7 +7637,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7629,7 +7645,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -7637,7 +7653,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -7645,7 +7661,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -7653,7 +7669,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -7661,7 +7677,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -7669,7 +7685,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -7677,7 +7693,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -7685,7 +7701,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -7693,7 +7709,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7701,7 +7717,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -7709,7 +7725,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -7717,7 +7733,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -7725,7 +7741,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -7733,7 +7749,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -7741,7 +7757,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -7749,7 +7765,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -7757,7 +7773,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -7765,7 +7781,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -7773,7 +7789,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -7781,7 +7797,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7789,7 +7805,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -7797,7 +7813,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -7805,7 +7821,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -7813,7 +7829,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -7821,7 +7837,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -7829,7 +7845,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -7837,7 +7853,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -7845,7 +7861,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -7853,7 +7869,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -7861,7 +7877,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -7869,7 +7885,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -7877,7 +7893,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -7885,7 +7901,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -7893,7 +7909,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -7901,7 +7917,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -7909,7 +7925,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -7917,7 +7933,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -7925,7 +7941,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -7933,7 +7949,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -7941,7 +7957,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -7949,7 +7965,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -7957,7 +7973,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -7965,7 +7981,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -7973,7 +7989,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -7981,7 +7997,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -7989,7 +8005,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -7997,7 +8013,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -8005,7 +8021,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -8013,7 +8029,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -8021,7 +8037,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -8029,7 +8045,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -8037,7 +8053,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -8045,7 +8061,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -8053,7 +8069,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -8061,7 +8077,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -8069,7 +8085,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -8077,7 +8093,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -8085,7 +8101,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -8093,7 +8109,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -8101,7 +8117,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -8109,7 +8125,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -8117,7 +8133,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -8125,7 +8141,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -8133,7 +8149,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -8141,7 +8157,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -8149,7 +8165,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -8157,7 +8173,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -8165,7 +8181,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -8173,7 +8189,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -8181,7 +8197,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -8189,7 +8205,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -8197,7 +8213,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -8205,7 +8221,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -8213,7 +8229,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -8221,7 +8237,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -8229,7 +8245,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -8237,7 +8253,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -8245,7 +8261,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -8253,7 +8269,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -8261,7 +8277,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -8269,7 +8285,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -8277,7 +8293,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -8285,7 +8301,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -8293,7 +8309,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -8301,7 +8317,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -8309,7 +8325,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -8317,7 +8333,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -8325,7 +8341,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -8333,7 +8349,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -8341,7 +8357,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -8349,7 +8365,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -8357,7 +8373,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -8365,7 +8381,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -8373,7 +8389,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -8381,7 +8397,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -8389,7 +8405,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -8397,7 +8413,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -8405,7 +8421,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -8413,7 +8429,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -8421,7 +8437,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -8429,7 +8445,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -8437,7 +8453,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -8445,7 +8461,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -8453,7 +8469,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -8461,7 +8477,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -8469,7 +8485,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -8477,7 +8493,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -8485,7 +8501,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -8493,7 +8509,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -8501,7 +8517,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -8509,7 +8525,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -8517,7 +8533,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -8525,7 +8541,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -8533,7 +8549,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -8541,7 +8557,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -8549,7 +8565,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -8557,7 +8573,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -8565,7 +8581,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -8573,7 +8589,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -8581,7 +8597,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -8589,7 +8605,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -8597,7 +8613,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -8605,7 +8621,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -8613,7 +8629,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -8621,7 +8637,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -8629,7 +8645,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -8637,7 +8653,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -8645,7 +8661,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -8653,7 +8669,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -8661,7 +8677,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -8669,7 +8685,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -8677,7 +8693,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -8685,7 +8701,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -8693,7 +8709,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -8701,7 +8717,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -8709,7 +8725,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -8717,7 +8733,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -8725,7 +8741,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -8733,7 +8749,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -8741,7 +8757,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -8749,7 +8765,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -8757,7 +8773,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -8765,7 +8781,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -8773,7 +8789,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -8781,7 +8797,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -8789,7 +8805,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -8797,7 +8813,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -8805,7 +8821,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -8813,7 +8829,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -8821,7 +8837,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -8829,7 +8845,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -8837,7 +8853,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -8845,7 +8861,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -8853,7 +8869,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -8861,7 +8877,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -8869,7 +8885,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -8877,7 +8893,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -8885,7 +8901,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -8893,7 +8909,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -8901,7 +8917,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -8909,7 +8925,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -8917,7 +8933,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -8925,7 +8941,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -8933,7 +8949,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -8941,7 +8957,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -8949,7 +8965,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -8957,7 +8973,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -8965,7 +8981,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -8973,7 +8989,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -8981,7 +8997,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -8989,7 +9005,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -8997,7 +9013,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -9005,7 +9021,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -9013,7 +9029,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -9021,7 +9037,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -9029,7 +9045,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -9037,7 +9053,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -9045,7 +9061,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -9053,7 +9069,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -9061,7 +9077,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -9069,7 +9085,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -9077,7 +9093,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -9085,7 +9101,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -9093,7 +9109,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -9101,7 +9117,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -9109,7 +9125,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -9117,7 +9133,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -9125,7 +9141,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -9133,7 +9149,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -9141,7 +9157,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -9149,7 +9165,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -9157,7 +9173,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -9165,7 +9181,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -9173,7 +9189,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -9181,7 +9197,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -9189,7 +9205,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -9197,7 +9213,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -9205,7 +9221,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -9213,7 +9229,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -9221,7 +9237,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -9229,7 +9245,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -9237,7 +9253,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -9245,7 +9261,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -9253,7 +9269,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -9261,7 +9277,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -9269,7 +9285,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -9277,7 +9293,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -9285,7 +9301,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -9293,7 +9309,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -9301,7 +9317,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -9309,7 +9325,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -9317,7 +9333,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -9325,7 +9341,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -9333,7 +9349,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -9341,7 +9357,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -9349,7 +9365,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -9357,7 +9373,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -9365,7 +9381,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -9373,7 +9389,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -9381,7 +9397,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -9389,7 +9405,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -9397,7 +9413,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -9405,7 +9421,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -9413,7 +9429,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -9421,7 +9437,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -9429,7 +9445,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -9437,7 +9453,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -9445,7 +9461,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -9453,7 +9469,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -9461,7 +9477,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -9469,7 +9485,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -9477,7 +9493,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -9485,7 +9501,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -9493,7 +9509,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -9501,7 +9517,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -9509,7 +9525,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -9517,7 +9533,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -9525,7 +9541,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -9533,7 +9549,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -9541,7 +9557,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -9549,7 +9565,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -9557,7 +9573,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -9565,7 +9581,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -9573,7 +9589,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -9581,7 +9597,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -9589,7 +9605,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -9597,7 +9613,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -9605,7 +9621,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -9613,7 +9629,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -9621,7 +9637,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -9629,7 +9645,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -9637,7 +9653,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -9645,7 +9661,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -9653,7 +9669,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -9661,7 +9677,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -9669,7 +9685,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -9677,7 +9693,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -9685,7 +9701,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -9693,7 +9709,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -9701,7 +9717,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -9709,7 +9725,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -9717,7 +9733,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -9725,7 +9741,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -9733,7 +9749,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -9741,7 +9757,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -9749,7 +9765,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -9757,7 +9773,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -9765,7 +9781,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -9773,7 +9789,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -9781,7 +9797,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -9789,7 +9805,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -9797,7 +9813,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -9805,7 +9821,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -9813,7 +9829,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -9821,7 +9837,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -9829,7 +9845,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -9837,7 +9853,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -9845,7 +9861,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -9853,7 +9869,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -9861,7 +9877,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -9869,7 +9885,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -9877,7 +9893,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -9885,7 +9901,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -9893,7 +9909,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -9901,7 +9917,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -9909,7 +9925,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -9917,7 +9933,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -9925,7 +9941,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -9933,7 +9949,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -9941,7 +9957,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -9949,7 +9965,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -9957,7 +9973,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -9965,7 +9981,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -9973,7 +9989,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -9981,7 +9997,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -9989,7 +10005,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -9997,7 +10013,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -10005,7 +10021,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -10013,7 +10029,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -10021,7 +10037,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -10029,7 +10045,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -10037,7 +10053,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -10045,7 +10061,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -10053,7 +10069,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -10061,7 +10077,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -10069,7 +10085,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -10077,7 +10093,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -10085,7 +10101,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -10093,7 +10109,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -10101,7 +10117,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -10109,7 +10125,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -10117,7 +10133,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -10125,7 +10141,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -10133,7 +10149,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -10141,7 +10157,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -10149,7 +10165,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -10157,7 +10173,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -10165,7 +10181,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -10173,7 +10189,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -10181,7 +10197,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -10189,7 +10205,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -10197,7 +10213,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -10205,7 +10221,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -10213,7 +10229,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -10221,7 +10237,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -10229,7 +10245,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -10237,7 +10253,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -10245,7 +10261,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -10253,7 +10269,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -10261,7 +10277,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -10269,7 +10285,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -10277,7 +10293,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -10285,7 +10301,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -10293,7 +10309,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -10301,7 +10317,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -10309,7 +10325,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -10317,7 +10333,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -10325,7 +10341,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -10333,7 +10349,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -10341,7 +10357,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="9" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -10349,7 +10365,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="9" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -10357,7 +10373,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -10365,7 +10381,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -10373,7 +10389,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -10381,7 +10397,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -10389,7 +10405,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -10397,7 +10413,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -10405,7 +10421,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -10413,7 +10429,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -10421,7 +10437,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -10429,7 +10445,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -10437,7 +10453,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -10445,7 +10461,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -10453,7 +10469,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -10461,7 +10477,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -10469,7 +10485,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -10477,7 +10493,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -10485,7 +10501,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -10493,7 +10509,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="9" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -10501,7 +10517,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -10509,7 +10525,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -10517,7 +10533,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -10525,7 +10541,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -10533,7 +10549,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -10541,7 +10557,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -10549,7 +10565,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -10557,7 +10573,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -10565,7 +10581,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -10573,7 +10589,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -10581,7 +10597,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -10589,7 +10605,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -10597,7 +10613,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -10605,7 +10621,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -10613,7 +10629,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -10621,7 +10637,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -10629,7 +10645,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -10637,7 +10653,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -10645,7 +10661,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -10653,7 +10669,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -10661,7 +10677,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -10669,7 +10685,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -10677,7 +10693,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -10685,7 +10701,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="9" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -10693,7 +10709,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="9" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -10701,7 +10717,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -10709,7 +10725,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -10717,7 +10733,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -10725,7 +10741,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -10733,7 +10749,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -10741,7 +10757,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -10749,7 +10765,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -10757,7 +10773,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -10765,7 +10781,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -10773,7 +10789,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -10781,7 +10797,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -10789,7 +10805,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -10797,7 +10813,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -10805,7 +10821,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -10813,7 +10829,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="9" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -10821,7 +10837,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -10829,7 +10845,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -10837,7 +10853,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="9" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -10845,7 +10861,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="9" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -10853,7 +10869,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -10861,7 +10877,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -10869,7 +10885,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -10877,7 +10893,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -10885,7 +10901,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -10893,7 +10909,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -10901,7 +10917,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -10909,7 +10925,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -10917,7 +10933,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -10925,7 +10941,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -10933,7 +10949,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="9" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -10941,7 +10957,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -10949,7 +10965,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="9" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -10957,7 +10973,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -10965,7 +10981,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -10973,7 +10989,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="9" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -10981,7 +10997,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="9" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -10989,7 +11005,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="9" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -10997,7 +11013,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="9" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -11005,7 +11021,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="9" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -11013,7 +11029,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="9" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -11021,7 +11037,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="9" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -11029,7 +11045,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="9" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -11037,7 +11053,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="9" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -11045,7 +11061,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="9" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -11053,7 +11069,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="9" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -11061,7 +11077,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="9" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -11069,7 +11085,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="9" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -11077,7 +11093,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="9" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -11085,7 +11101,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="9" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -11093,7 +11109,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -11101,7 +11117,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -11109,7 +11125,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -11117,7 +11133,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="9" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -11125,7 +11141,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="9" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -11133,7 +11149,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="9" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -11141,7 +11157,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="9" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -11149,7 +11165,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="9" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -11157,7 +11173,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="9" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -11165,7 +11181,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="9" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -11173,7 +11189,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="9" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -11181,7 +11197,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="9" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -11189,7 +11205,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="9" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -11197,7 +11213,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="9" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -11205,7 +11221,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="9" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -11213,7 +11229,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="9" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -11221,7 +11237,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="9" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -11229,7 +11245,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="9" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -11237,7 +11253,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="9" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -11245,7 +11261,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="9" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -11253,7 +11269,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="9" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -11261,7 +11277,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="9" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -11269,7 +11285,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="9" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -11277,7 +11293,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="9" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -11285,7 +11301,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="9" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -11293,7 +11309,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="9" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -11301,7 +11317,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="9" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -11309,7 +11325,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="9" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -11317,7 +11333,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="9" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -11325,7 +11341,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="9" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -11333,7 +11349,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="9" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -11341,7 +11357,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="9" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -11349,7 +11365,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="9" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -11357,7 +11373,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="9" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -11365,7 +11381,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="9" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -11373,7 +11389,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="9" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -11381,7 +11397,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="9" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -11389,7 +11405,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="9" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -11397,7 +11413,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="9" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -11405,7 +11421,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="9" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -11413,7 +11429,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="9" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -11421,7 +11437,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="9" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -11429,7 +11445,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="9" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -11437,7 +11453,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="9" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -11445,7 +11461,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="9" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -11453,7 +11469,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="9" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -11461,7 +11477,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="9" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -11469,7 +11485,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="9" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -11477,7 +11493,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="9" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -11485,7 +11501,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="9" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -11493,7 +11509,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="9" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -11501,7 +11517,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="9" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -11509,7 +11525,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="9" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -11517,7 +11533,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="9" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -11525,7 +11541,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="9" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -11533,7 +11549,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="9" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -11541,7 +11557,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="9" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -11549,7 +11565,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="9" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -11557,7 +11573,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="9" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -11565,7 +11581,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="9" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -11573,7 +11589,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="9" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -11581,7 +11597,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="9" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -11589,7 +11605,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="9" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -11597,7 +11613,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="9" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -11605,7 +11621,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="9" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -11613,7 +11629,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="9" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -11621,7 +11637,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="9" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -11629,7 +11645,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="9" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -11637,7 +11653,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="9" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -11645,7 +11661,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="9" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -11653,7 +11669,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="9" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -11661,7 +11677,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="9" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -11669,7 +11685,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="9" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -11677,7 +11693,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="9" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -11685,7 +11701,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="9" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -11693,7 +11709,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="9" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -11701,7 +11717,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="9" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -11709,7 +11725,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="9" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -11717,7 +11733,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="9" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -11725,7 +11741,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="9" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -11733,7 +11749,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="9" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -11741,7 +11757,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="9" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -11749,7 +11765,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="9" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -11757,7 +11773,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="9" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -11765,7 +11781,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="9" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -11773,7 +11789,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="9" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -11781,7 +11797,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="9" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -11789,7 +11805,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="9" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -11797,7 +11813,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="9" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -11805,7 +11821,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="9" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -11813,7 +11829,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="9" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -11821,7 +11837,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="9" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -11829,7 +11845,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="9" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -11837,7 +11853,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="9" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -11845,7 +11861,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="9" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -11853,7 +11869,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="9" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -11861,7 +11877,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="9" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -11869,7 +11885,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="9" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -11877,7 +11893,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="9" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -11885,7 +11901,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="9" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -11893,7 +11909,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="9" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -11901,7 +11917,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="9" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -11909,7 +11925,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="9" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -11917,7 +11933,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="9" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -11925,7 +11941,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="9" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -11933,7 +11949,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="9" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -11941,7 +11957,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="9" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -11949,7 +11965,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="9" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -11957,7 +11973,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="9" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -11965,7 +11981,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="9" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -11973,7 +11989,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="9" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -11981,7 +11997,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="9" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -11989,7 +12005,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="9" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -11997,7 +12013,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="9" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -12005,7 +12021,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="9" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -12013,7 +12029,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="9" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -12021,7 +12037,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="9" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -12029,7 +12045,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="9" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -12037,7 +12053,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="9" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -12045,7 +12061,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="9" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -12053,7 +12069,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="9" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -12061,7 +12077,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="9" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -12069,7 +12085,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="9" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -12077,7 +12093,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="9" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -12085,7 +12101,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="9" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -12093,7 +12109,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="9" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -12101,7 +12117,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="9" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -12109,7 +12125,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="9" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -12117,7 +12133,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="9" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -12125,7 +12141,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="9" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -12133,7 +12149,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="9" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -12141,7 +12157,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="9" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -12149,7 +12165,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="9" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -12157,7 +12173,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="9" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -12165,7 +12181,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="9" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -12173,7 +12189,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="9" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -12181,7 +12197,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="9" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -12189,7 +12205,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="9" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -12197,7 +12213,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="9" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -12205,7 +12221,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="9" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -12213,7 +12229,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="9" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -12221,7 +12237,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="9" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -12229,7 +12245,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="9" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -12237,7 +12253,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="9" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -12245,7 +12261,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="9" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -12253,7 +12269,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="9" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -12261,7 +12277,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="9" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -12269,7 +12285,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="9" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -12277,7 +12293,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="9" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -12285,7 +12301,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="9" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -12293,7 +12309,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="9" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -12301,7 +12317,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="9" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -12309,7 +12325,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="9" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -12317,7 +12333,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="9" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -12325,7 +12341,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="9" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -12333,7 +12349,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="9" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -12341,7 +12357,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="9" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -12349,7 +12365,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="9" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -12357,7 +12373,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="9" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -12365,7 +12381,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="9" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -12373,7 +12389,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="9" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -12381,7 +12397,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="9" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -12389,7 +12405,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="9" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -12397,7 +12413,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="9" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -12405,7 +12421,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="9" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -12413,7 +12429,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="9" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -12421,7 +12437,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="9" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -12429,7 +12445,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="9" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -12437,7 +12453,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="9" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -12445,7 +12461,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="9" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -12453,7 +12469,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="9" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -12461,7 +12477,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="9" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -12469,7 +12485,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="9" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -12477,7 +12493,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="9" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -12485,7 +12501,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="9" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -12493,7 +12509,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="9" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -12501,7 +12517,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="9" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -12509,7 +12525,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="9" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -12517,7 +12533,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="9" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -12525,7 +12541,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="9" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -12533,7 +12549,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="9" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -12541,7 +12557,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="9" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -12549,7 +12565,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="9" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -12557,7 +12573,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="9" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -12565,7 +12581,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="9" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -12573,7 +12589,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="9" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -12581,7 +12597,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="9" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -12589,7 +12605,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="9" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -12597,7 +12613,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="9" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -12605,7 +12621,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="9" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -12613,7 +12629,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="9" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -12621,7 +12637,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="9" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -12629,7 +12645,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="9" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -12637,7 +12653,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="9" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -12645,7 +12661,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="9" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -12653,7 +12669,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="9" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -12661,7 +12677,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="9" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -12669,7 +12685,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="9" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -12677,7 +12693,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="9" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -12685,7 +12701,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="9" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -12693,7 +12709,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="9" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -12701,7 +12717,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="9" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -12709,7 +12725,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="9" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -12717,7 +12733,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="9" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -12725,7 +12741,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="9" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -12733,7 +12749,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="9" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -12741,7 +12757,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="9" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -12749,7 +12765,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="9" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -12757,7 +12773,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="9" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -12765,7 +12781,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="9" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -12773,7 +12789,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="9" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -12781,7 +12797,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="9" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -12789,7 +12805,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="9" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -12797,7 +12813,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="9" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -12805,7 +12821,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="9" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -12813,7 +12829,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="9" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -12821,7 +12837,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="9" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -12829,7 +12845,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="9" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -12837,7 +12853,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="9" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -12845,7 +12861,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="9" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -12853,7 +12869,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="9" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -12861,7 +12877,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="9" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -12869,7 +12885,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="9" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -12877,7 +12893,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="9" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -12885,7 +12901,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="9" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -12893,7 +12909,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="9" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -12901,7 +12917,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="9" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -12909,7 +12925,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="9" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -12917,7 +12933,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="9" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -12925,7 +12941,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="9" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -12933,7 +12949,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="9" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -12941,7 +12957,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="9" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -12949,7 +12965,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="9" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -12957,7 +12973,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="9" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -12965,7 +12981,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="9" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -12973,7 +12989,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="9" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -12981,7 +12997,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="9" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -12989,7 +13005,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="9" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -12997,7 +13013,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="9" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -13005,7 +13021,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="9" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -13013,7 +13029,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="9" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -13021,7 +13037,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="9" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -13029,7 +13045,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="9" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -13037,7 +13053,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="9" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -13045,7 +13061,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="9" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -13053,7 +13069,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="9" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -13061,7 +13077,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="9" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -13069,7 +13085,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="9" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -13077,7 +13093,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="9" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -13085,7 +13101,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="9" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -13093,7 +13109,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="9" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -13101,7 +13117,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="9" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohgo\Desktop\SUPER\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bigseung12\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272D23E-30D6-4972-8E72-07C1D36E0837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="965">
   <si>
     <t>id</t>
   </si>
@@ -514,24 +513,6 @@
     <t>뭔데?</t>
   </si>
   <si>
-    <t>아니, 안들을래</t>
-  </si>
-  <si>
-    <t>분명 후회할텐데?
-나중에 하고 싶은 마음이 든다면 다시와 ~ 이 부가 설명해줄게 !</t>
-  </si>
-  <si>
-    <t>그래서 우리 요괴들은 종종 인간마을에 놀러가곤 했는데 
-어느샌가 인간 친구들이 우리마을에 놀러오고있지 뭐야?</t>
-  </si>
-  <si>
-    <t>마을에 놀러온 인간 친구들이랑 재밌게 놀고싶은 마음에
-우리 요괴들은 친구들에게 우리만의 놀이를 알려주기로했어</t>
-  </si>
-  <si>
-    <t>이름하야 'Peek! ka BOO!'</t>
-  </si>
-  <si>
     <t>어때 멋진 이름이지?
 내가 생각해도 그래</t>
   </si>
@@ -542,34 +523,7 @@
     <t>알고있었어</t>
   </si>
   <si>
-    <t>정말? 대단한걸
-그럼 지금 당장 'Peek! Ka BOO!' 즐기러가지않을래?</t>
-  </si>
-  <si>
     <t>응, 할래</t>
-  </si>
-  <si>
-    <t>아니, 안할래</t>
-  </si>
-  <si>
-    <t>좋아 ~
-Peek! Ka Boo!에서 즐거운시간 보내 ~</t>
-  </si>
-  <si>
-    <t>다시왔구나? Peek! ka Boo! 하지않을래?</t>
-  </si>
-  <si>
-    <t>우리 유령들 사이에 우리처럼 똑같이 분장을 한 인간친구들을 찾는게임이야</t>
-  </si>
-  <si>
-    <t>너도 유령분장을 했다는 사실을 들키면 안되겠지?
-인간처럼 보이는 유령에게 살금살금 다가가 깜짝 놀래켜봐</t>
-  </si>
-  <si>
-    <t>대신 우리 유령들을 놀래키면 되려 혼쭐나고 말껄?</t>
-  </si>
-  <si>
-    <t>마지막까지 안들키고 살아남는다면 선물을 줄게 !</t>
   </si>
   <si>
     <t>좋아, 이해했어</t>
@@ -869,10 +823,6 @@
     <t>PK_BOO_1.mp3</t>
   </si>
   <si>
-    <t>좋아 ~
-우리 미니마니모 마을엔 인간과 사이좋게 지내고싶은 도깨비들이 많아</t>
-  </si>
-  <si>
     <t>PK_BOO_2.mp3</t>
   </si>
   <si>
@@ -994,10 +944,6 @@
     <t>faw_Ye.FBX</t>
   </si>
   <si>
-    <t>아아- 참고로 3번 연속 맞추지 못하면
-매우 Bed-하니까 강제로 노래를 멈출 거야-</t>
-  </si>
-  <si>
     <t>하지만 총 15번 맞추면!
 매우 Excellent한 선물을 주지!</t>
   </si>
@@ -3406,14 +3352,63 @@
     <t>개굴개굴</t>
   </si>
   <si>
-    <t>W</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>아니, 안 들을래</t>
+  </si>
+  <si>
+    <t>분명 후회할 텐데?
+나중에 하고 싶은 마음이 든다면 다시 와 ~ 이 부가 설명해줄게!</t>
+  </si>
+  <si>
+    <t>좋아 ~
+우리 미니마니모 마을엔 인간과 사이좋게 지내고 싶은 도깨비들이 많아</t>
+  </si>
+  <si>
+    <t>그래서 우리 요괴들은 종종 인간 마을에 놀러 가곤 했는데 
+어느샌가 인간 친구들이 우리 마을에 놀러 오고 있지 뭐야?</t>
+  </si>
+  <si>
+    <t>마을에 놀러 온 인간 친구들이랑 재밌게 놀고 싶은 마음에
+우리 요괴들은 친구들에게 우리만의 놀이를 알려주기로 했어</t>
+  </si>
+  <si>
+    <t>이름하여 'Pick! ka BOO!'</t>
+  </si>
+  <si>
+    <t>정말? 대단한걸
+그럼 지금 당장 'Pick! Ka BOO!' 즐기러 가지 않을래?</t>
+  </si>
+  <si>
+    <t>아니, 안 할래</t>
+  </si>
+  <si>
+    <t>좋아 ~
+Pick! Ka Boo!에서 즐거운 시간 보내 ~</t>
+  </si>
+  <si>
+    <t>다시왔구나? Pick! ka Boo! 하지 않을래?</t>
+  </si>
+  <si>
+    <t>우리 유령들 사이에 우리처럼 똑같이 분장한 인간 친구들을 찾는 게임이야</t>
+  </si>
+  <si>
+    <t>너도 유령분장을 했다는 사실을 들키면 안 되겠지?
+인간처럼 보이는 유령에게 살금살금 다가가 깜짝 놀라게 해봐!</t>
+  </si>
+  <si>
+    <t>대신 우리 유령들을 놀래키면 되려 혼쭐나고 말걸?</t>
+  </si>
+  <si>
+    <t>마지막까지 안 들키고 살아남는다면 선물을 줄게!</t>
+  </si>
+  <si>
+    <t>아아- 참고로 3번 연속 맞추지 못하면
+매우 Bad-하니까 강제로 노래를 멈출 거야-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -3801,23 +3796,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="7" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="92" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
     <col min="6" max="7" width="9" style="7" customWidth="1"/>
-    <col min="8" max="27" width="8.7265625" style="7" customWidth="1"/>
-    <col min="28" max="16384" width="14.453125" style="7"/>
+    <col min="8" max="27" width="8.7109375" style="7" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1">
@@ -3859,7 +3854,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="29">
+    <row r="2" spans="1:27" ht="30">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -4124,7 +4119,7 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="29">
+    <row r="9" spans="1:27" ht="30">
       <c r="A9" s="9">
         <v>52004</v>
       </c>
@@ -4309,7 +4304,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="29">
+    <row r="14" spans="1:27" ht="30">
       <c r="A14" s="9">
         <v>52009</v>
       </c>
@@ -4369,17 +4364,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -4387,13 +4382,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4401,7 +4396,7 @@
         <v>20000</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -4412,7 +4407,7 @@
         <v>20001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -4423,7 +4418,7 @@
         <v>20300</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -4434,7 +4429,7 @@
         <v>20600</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -4447,93 +4442,93 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N27" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="15"/>
-    <col min="4" max="4" width="82.54296875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="15" customWidth="1"/>
-    <col min="6" max="9" width="29.26953125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="15" customWidth="1"/>
-    <col min="11" max="14" width="29.26953125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="21.7265625" style="15" customWidth="1"/>
-    <col min="16" max="19" width="14.81640625" style="17" customWidth="1"/>
-    <col min="20" max="20" width="19.54296875" style="15" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="17"/>
+    <col min="1" max="3" width="9.140625" style="15"/>
+    <col min="4" max="4" width="82.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="15" customWidth="1"/>
+    <col min="6" max="9" width="29.28515625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
+    <col min="11" max="14" width="29.28515625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" style="15" customWidth="1"/>
+    <col min="16" max="19" width="14.85546875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" style="15" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="15" customFormat="1">
       <c r="A1" s="16" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>57</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="29">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30">
       <c r="A2" s="15">
         <v>21000</v>
       </c>
@@ -4544,16 +4539,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="29">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="30">
       <c r="A3" s="15">
         <v>21000</v>
       </c>
@@ -4564,13 +4559,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="29">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30">
       <c r="A4" s="15">
         <v>21000</v>
       </c>
@@ -4581,13 +4576,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="29">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30">
       <c r="A5" s="15">
         <v>21000</v>
       </c>
@@ -4598,13 +4593,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="29">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30">
       <c r="A6" s="15">
         <v>21001</v>
       </c>
@@ -4615,16 +4610,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="29">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30">
       <c r="A7" s="15">
         <v>21001</v>
       </c>
@@ -4635,10 +4630,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4652,13 +4647,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="29">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30">
       <c r="A9" s="15">
         <v>21001</v>
       </c>
@@ -4669,13 +4664,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="29">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="30">
       <c r="A10" s="15">
         <v>21001</v>
       </c>
@@ -4686,16 +4681,16 @@
         <v>5</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="29">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="30">
       <c r="A11" s="15">
         <v>21002</v>
       </c>
@@ -4706,16 +4701,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="29">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="30">
       <c r="A12" s="15">
         <v>21002</v>
       </c>
@@ -4726,10 +4721,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -4743,13 +4738,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -4763,7 +4758,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -4801,7 +4796,7 @@
         <v>24004</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -4818,10 +4813,10 @@
         <v>61</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -4835,7 +4830,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="P17" s="17">
         <v>13000</v>
@@ -4850,10 +4845,10 @@
         <v>4</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="29">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="30">
       <c r="A18" s="15">
         <v>24003</v>
       </c>
@@ -4867,10 +4862,10 @@
         <v>62</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -4884,16 +4879,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="29">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="30">
       <c r="A20" s="15">
         <v>27000</v>
       </c>
@@ -4913,19 +4908,19 @@
         <v>27002</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>65</v>
+        <v>950</v>
       </c>
       <c r="N20" s="15">
         <v>27001</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="29">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="30">
       <c r="A21" s="15">
         <v>27001</v>
       </c>
@@ -4936,13 +4931,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>66</v>
+        <v>951</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="29">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="30">
       <c r="A22" s="15">
         <v>27002</v>
       </c>
@@ -4953,11 +4948,11 @@
         <v>1</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>144</v>
+        <v>952</v>
       </c>
       <c r="T22" s="16"/>
     </row>
-    <row r="23" spans="1:20" ht="29">
+    <row r="23" spans="1:20" ht="30">
       <c r="A23" s="15">
         <v>27002</v>
       </c>
@@ -4968,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="29">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="30">
       <c r="A24" s="15">
         <v>27002</v>
       </c>
@@ -4982,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>68</v>
+        <v>954</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -4996,16 +4991,16 @@
         <v>4</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>69</v>
+        <v>955</v>
       </c>
       <c r="O25" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="T25" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="T25" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="29">
+    </row>
+    <row r="26" spans="1:20" ht="30">
       <c r="A26" s="15">
         <v>27002</v>
       </c>
@@ -5016,25 +5011,25 @@
         <v>5</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I26" s="15">
         <v>27006</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N26" s="15">
         <v>27003</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="29">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="30">
       <c r="A27" s="15">
         <v>27003</v>
       </c>
@@ -5045,22 +5040,22 @@
         <v>1</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>73</v>
+        <v>956</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I27" s="15">
         <v>27004</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>75</v>
+        <v>957</v>
       </c>
       <c r="N27" s="15">
         <v>27001</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="29">
+    <row r="28" spans="1:20" ht="30">
       <c r="A28" s="15">
         <v>27004</v>
       </c>
@@ -5071,10 +5066,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>76</v>
+        <v>958</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -5088,22 +5083,22 @@
         <v>1</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>77</v>
+        <v>959</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I29" s="15">
         <v>27004</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>75</v>
+        <v>957</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -5117,10 +5112,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="29">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="30">
       <c r="A31" s="15">
         <v>27006</v>
       </c>
@@ -5131,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>79</v>
+        <v>961</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -5145,10 +5140,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>80</v>
+        <v>962</v>
       </c>
       <c r="T32" s="15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -5162,25 +5157,25 @@
         <v>4</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>81</v>
+        <v>963</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I33" s="15">
         <v>27003</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="N33" s="15">
         <v>27006</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="29">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="30">
       <c r="A34" s="15">
         <v>25000</v>
       </c>
@@ -5191,13 +5186,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="29">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="30">
       <c r="A35" s="15">
         <v>25000</v>
       </c>
@@ -5208,25 +5203,25 @@
         <v>2</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="I35" s="15">
         <v>25002</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="N35" s="15">
         <v>25001</v>
       </c>
       <c r="T35" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="29">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="30">
       <c r="A36" s="15">
         <v>25001</v>
       </c>
@@ -5237,13 +5232,13 @@
         <v>1</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="29">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="30">
       <c r="A37" s="15">
         <v>25002</v>
       </c>
@@ -5254,13 +5249,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="T37" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="29">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="30">
       <c r="A38" s="15">
         <v>25002</v>
       </c>
@@ -5271,13 +5266,13 @@
         <v>2</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>171</v>
+        <v>964</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="29">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="30">
       <c r="A39" s="15">
         <v>25002</v>
       </c>
@@ -5288,13 +5283,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="T39" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="29">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="30">
       <c r="A40" s="15">
         <v>25002</v>
       </c>
@@ -5305,13 +5300,13 @@
         <v>4</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="T40" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="29">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="30">
       <c r="A41" s="15">
         <v>25003</v>
       </c>
@@ -5322,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -5336,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -5350,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -5364,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -5378,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -5392,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -5406,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -5420,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5434,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -5445,19 +5440,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" customWidth="1"/>
-    <col min="5" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
@@ -5552,19 +5547,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="66.81640625" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
     <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
@@ -5735,22 +5730,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" style="7" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
@@ -5770,16 +5765,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -5804,13 +5799,13 @@
         <v>12000</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>28</v>
@@ -5848,13 +5843,13 @@
         <v>12001</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>28</v>
@@ -5892,16 +5887,16 @@
         <v>13000</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="F4" s="22">
         <v>3</v>
@@ -5936,13 +5931,13 @@
         <v>15000</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>29</v>
@@ -5980,13 +5975,13 @@
         <v>15001</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>29</v>
@@ -6024,13 +6019,13 @@
         <v>15002</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>29</v>
@@ -6050,13 +6045,13 @@
         <v>15003</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>29</v>
@@ -6076,13 +6071,13 @@
         <v>15004</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>29</v>
@@ -6102,13 +6097,13 @@
         <v>15005</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>29</v>
@@ -6128,13 +6123,13 @@
         <v>15006</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>29</v>
@@ -6154,13 +6149,13 @@
         <v>15007</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>29</v>
@@ -6180,13 +6175,13 @@
         <v>15008</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>29</v>
@@ -6206,13 +6201,13 @@
         <v>15009</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>29</v>
@@ -6232,13 +6227,13 @@
         <v>15010</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>29</v>
@@ -6252,157 +6247,6 @@
       <c r="H15" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1"/>
-    <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6412,41 +6256,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="7"/>
-    <col min="2" max="2" width="10.7265625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="53.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="10.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:5" ht="16.5">
       <c r="A1" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -6454,7 +6298,7 @@
         <v>15002</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -6463,7 +6307,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6471,7 +6315,7 @@
         <v>15003</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -6480,7 +6324,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -6488,7 +6332,7 @@
         <v>15004</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -6497,7 +6341,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:5">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6505,7 +6349,7 @@
         <v>15005</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -6514,7 +6358,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:5">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -6522,7 +6366,7 @@
         <v>15006</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -6531,7 +6375,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:5">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -6539,7 +6383,7 @@
         <v>15007</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -6548,7 +6392,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:5">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -6556,7 +6400,7 @@
         <v>15008</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
@@ -6564,11 +6408,8 @@
       <c r="E8" s="14">
         <v>4300</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -6576,7 +6417,7 @@
         <v>15009</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -6585,7 +6426,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:5">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -6593,7 +6434,7 @@
         <v>15010</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
@@ -6601,36 +6442,6 @@
       <c r="E10" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6640,25 +6451,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B753"/>
   <sheetViews>
     <sheetView topLeftCell="A640" workbookViewId="0">
       <selection activeCell="B571" sqref="B571"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6666,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6674,7 +6485,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6682,7 +6493,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6690,7 +6501,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6698,7 +6509,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6706,7 +6517,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6714,7 +6525,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6722,7 +6533,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6730,7 +6541,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6738,7 +6549,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6746,7 +6557,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6754,7 +6565,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6762,7 +6573,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6770,7 +6581,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6778,7 +6589,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6786,7 +6597,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6794,7 +6605,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6802,7 +6613,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6810,7 +6621,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6818,7 +6629,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6826,7 +6637,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6834,7 +6645,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6842,7 +6653,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6850,7 +6661,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6858,7 +6669,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6866,7 +6677,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6874,7 +6685,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6882,7 +6693,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6890,7 +6701,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6898,7 +6709,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6906,7 +6717,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6914,7 +6725,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6922,7 +6733,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6930,7 +6741,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6938,7 +6749,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6946,7 +6757,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6954,7 +6765,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6962,7 +6773,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6970,7 +6781,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6978,7 +6789,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6986,7 +6797,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6994,7 +6805,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7002,7 +6813,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7010,7 +6821,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7018,7 +6829,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7026,7 +6837,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7034,7 +6845,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7042,7 +6853,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7050,7 +6861,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7058,7 +6869,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7066,7 +6877,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7074,7 +6885,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7082,7 +6893,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7090,7 +6901,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7098,7 +6909,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7106,7 +6917,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7114,7 +6925,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -7122,7 +6933,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7130,7 +6941,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -7138,7 +6949,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -7146,7 +6957,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -7154,7 +6965,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -7162,7 +6973,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -7170,7 +6981,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -7178,7 +6989,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -7186,7 +6997,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -7194,7 +7005,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7202,7 +7013,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -7210,7 +7021,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -7218,7 +7029,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -7226,7 +7037,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -7234,7 +7045,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -7242,7 +7053,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -7250,7 +7061,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -7258,7 +7069,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -7266,7 +7077,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7274,7 +7085,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -7282,7 +7093,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -7290,7 +7101,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -7298,7 +7109,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -7306,7 +7117,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -7314,7 +7125,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -7322,7 +7133,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -7330,7 +7141,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -7338,7 +7149,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -7346,7 +7157,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -7354,7 +7165,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7362,7 +7173,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -7370,7 +7181,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -7378,7 +7189,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -7386,7 +7197,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -7394,7 +7205,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -7402,7 +7213,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -7410,7 +7221,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -7418,7 +7229,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -7426,7 +7237,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -7434,7 +7245,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -7442,7 +7253,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -7450,7 +7261,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -7458,7 +7269,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -7466,7 +7277,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -7474,7 +7285,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -7482,7 +7293,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -7490,7 +7301,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -7498,7 +7309,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -7506,7 +7317,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -7514,7 +7325,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -7522,7 +7333,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -7530,7 +7341,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -7538,7 +7349,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -7546,7 +7357,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -7554,7 +7365,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -7562,7 +7373,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -7570,7 +7381,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -7578,7 +7389,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -7586,7 +7397,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -7594,7 +7405,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -7602,7 +7413,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -7610,7 +7421,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -7618,7 +7429,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -7626,7 +7437,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -7634,7 +7445,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -7642,7 +7453,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -7650,7 +7461,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -7658,7 +7469,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -7666,7 +7477,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -7674,7 +7485,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -7682,7 +7493,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -7690,7 +7501,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -7698,7 +7509,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -7706,7 +7517,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -7714,7 +7525,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -7722,7 +7533,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -7730,7 +7541,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -7738,7 +7549,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -7746,7 +7557,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -7754,7 +7565,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -7762,7 +7573,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -7770,7 +7581,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -7778,7 +7589,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -7786,7 +7597,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -7794,7 +7605,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -7802,7 +7613,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -7810,7 +7621,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -7818,7 +7629,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -7826,7 +7637,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -7834,7 +7645,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -7842,7 +7653,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -7850,7 +7661,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -7858,7 +7669,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -7866,7 +7677,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -7874,7 +7685,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -7882,7 +7693,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -7890,7 +7701,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -7898,7 +7709,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -7906,7 +7717,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -7914,7 +7725,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -7922,7 +7733,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -7930,7 +7741,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -7938,7 +7749,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -7946,7 +7757,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -7954,7 +7765,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -7962,7 +7773,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -7970,7 +7781,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -7978,7 +7789,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -7986,7 +7797,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -7994,7 +7805,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -8002,7 +7813,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -8010,7 +7821,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -8018,7 +7829,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -8026,7 +7837,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -8034,7 +7845,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -8042,7 +7853,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -8050,7 +7861,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -8058,7 +7869,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -8066,7 +7877,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -8074,7 +7885,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -8082,7 +7893,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -8090,7 +7901,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -8098,7 +7909,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -8106,7 +7917,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -8114,7 +7925,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -8122,7 +7933,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -8130,7 +7941,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -8138,7 +7949,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -8146,7 +7957,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -8154,7 +7965,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -8162,7 +7973,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -8170,7 +7981,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -8178,7 +7989,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -8186,7 +7997,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -8194,7 +8005,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -8202,7 +8013,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -8210,7 +8021,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -8218,7 +8029,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -8226,7 +8037,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -8234,7 +8045,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -8242,7 +8053,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -8250,7 +8061,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -8258,7 +8069,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -8266,7 +8077,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -8274,7 +8085,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -8282,7 +8093,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -8290,7 +8101,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -8298,7 +8109,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -8306,7 +8117,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -8314,7 +8125,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -8322,7 +8133,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -8330,7 +8141,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -8338,7 +8149,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -8346,7 +8157,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -8354,7 +8165,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -8362,7 +8173,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -8370,7 +8181,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -8378,7 +8189,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -8386,7 +8197,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -8394,7 +8205,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -8402,7 +8213,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -8410,7 +8221,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -8418,7 +8229,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -8426,7 +8237,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -8434,7 +8245,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -8442,7 +8253,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -8450,7 +8261,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -8458,7 +8269,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -8466,7 +8277,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -8474,7 +8285,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -8482,7 +8293,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -8490,7 +8301,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -8498,7 +8309,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -8506,7 +8317,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -8514,7 +8325,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -8522,7 +8333,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -8530,7 +8341,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -8538,7 +8349,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -8546,7 +8357,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -8554,7 +8365,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -8562,7 +8373,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -8570,7 +8381,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -8578,7 +8389,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -8586,7 +8397,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -8594,7 +8405,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -8602,7 +8413,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -8610,7 +8421,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -8618,7 +8429,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -8626,7 +8437,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -8634,7 +8445,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -8642,7 +8453,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -8650,7 +8461,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -8658,7 +8469,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -8666,7 +8477,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -8674,7 +8485,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -8682,7 +8493,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -8690,7 +8501,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -8698,7 +8509,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -8706,7 +8517,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -8714,7 +8525,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -8722,7 +8533,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -8730,7 +8541,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -8738,7 +8549,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -8746,7 +8557,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -8754,7 +8565,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -8762,7 +8573,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -8770,7 +8581,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -8778,7 +8589,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -8786,7 +8597,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -8794,7 +8605,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -8802,7 +8613,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -8810,7 +8621,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -8818,7 +8629,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -8826,7 +8637,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -8834,7 +8645,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -8842,7 +8653,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -8850,7 +8661,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -8858,7 +8669,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -8866,7 +8677,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -8874,7 +8685,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -8882,7 +8693,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -8890,7 +8701,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -8898,7 +8709,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -8906,7 +8717,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -8914,7 +8725,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -8922,7 +8733,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -8930,7 +8741,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -8938,7 +8749,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -8946,7 +8757,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -8954,7 +8765,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -8962,7 +8773,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -8970,7 +8781,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -8978,7 +8789,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -8986,7 +8797,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -8994,7 +8805,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -9002,7 +8813,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -9010,7 +8821,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -9018,7 +8829,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -9026,7 +8837,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -9034,7 +8845,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -9042,7 +8853,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -9050,7 +8861,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -9058,7 +8869,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -9066,7 +8877,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -9074,7 +8885,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -9082,7 +8893,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -9090,7 +8901,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -9098,7 +8909,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -9106,7 +8917,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -9114,7 +8925,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -9122,7 +8933,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -9130,7 +8941,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -9138,7 +8949,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -9146,7 +8957,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -9154,7 +8965,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -9162,7 +8973,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -9170,7 +8981,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -9178,7 +8989,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -9186,7 +8997,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -9194,7 +9005,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -9202,7 +9013,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -9210,7 +9021,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -9218,7 +9029,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -9226,7 +9037,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -9234,7 +9045,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -9242,7 +9053,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -9250,7 +9061,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -9258,7 +9069,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -9266,7 +9077,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -9274,7 +9085,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -9282,7 +9093,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -9290,7 +9101,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -9298,7 +9109,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -9306,7 +9117,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -9314,7 +9125,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -9322,7 +9133,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -9330,7 +9141,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -9338,7 +9149,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -9346,7 +9157,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -9354,7 +9165,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -9362,7 +9173,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -9370,7 +9181,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -9378,7 +9189,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -9386,7 +9197,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -9394,7 +9205,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -9402,7 +9213,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -9410,7 +9221,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -9418,7 +9229,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -9426,7 +9237,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -9434,7 +9245,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -9442,7 +9253,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -9450,7 +9261,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -9458,7 +9269,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -9466,7 +9277,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -9474,7 +9285,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -9482,7 +9293,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -9490,7 +9301,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -9498,7 +9309,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -9506,7 +9317,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -9514,7 +9325,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -9522,7 +9333,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -9530,7 +9341,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -9538,7 +9349,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -9546,7 +9357,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -9554,7 +9365,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -9562,7 +9373,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -9570,7 +9381,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -9578,7 +9389,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -9586,7 +9397,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -9594,7 +9405,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -9602,7 +9413,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -9610,7 +9421,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -9618,7 +9429,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -9626,7 +9437,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -9634,7 +9445,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -9642,7 +9453,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -9650,7 +9461,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -9658,7 +9469,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -9666,7 +9477,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -9674,7 +9485,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -9682,7 +9493,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -9690,7 +9501,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -9698,7 +9509,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -9706,7 +9517,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -9714,7 +9525,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -9722,7 +9533,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -9730,7 +9541,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -9738,7 +9549,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -9746,7 +9557,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -9754,7 +9565,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -9762,7 +9573,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -9770,7 +9581,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -9778,7 +9589,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -9786,7 +9597,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -9794,7 +9605,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -9802,7 +9613,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -9810,7 +9621,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -9818,7 +9629,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -9826,7 +9637,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -9834,7 +9645,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -9842,7 +9653,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -9850,7 +9661,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -9858,7 +9669,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -9866,7 +9677,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -9874,7 +9685,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -9882,7 +9693,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -9890,7 +9701,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -9898,7 +9709,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -9906,7 +9717,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -9914,7 +9725,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -9922,7 +9733,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -9930,7 +9741,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -9938,7 +9749,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -9946,7 +9757,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -9954,7 +9765,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -9962,7 +9773,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -9970,7 +9781,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -9978,7 +9789,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -9986,7 +9797,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -9994,7 +9805,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -10002,7 +9813,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -10010,7 +9821,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -10018,7 +9829,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -10026,7 +9837,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -10034,7 +9845,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -10042,7 +9853,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -10050,7 +9861,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -10058,7 +9869,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -10066,7 +9877,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -10074,7 +9885,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -10082,7 +9893,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -10090,7 +9901,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -10098,7 +9909,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -10106,7 +9917,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -10114,7 +9925,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -10122,7 +9933,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -10130,7 +9941,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -10138,7 +9949,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -10146,7 +9957,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -10154,7 +9965,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -10162,7 +9973,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -10170,7 +9981,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -10178,7 +9989,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -10186,7 +9997,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -10194,7 +10005,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -10202,7 +10013,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -10210,7 +10021,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -10218,7 +10029,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -10226,7 +10037,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -10234,7 +10045,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -10242,7 +10053,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -10250,7 +10061,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -10258,7 +10069,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -10266,7 +10077,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -10274,7 +10085,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -10282,7 +10093,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -10290,7 +10101,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -10298,7 +10109,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -10306,7 +10117,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -10314,7 +10125,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -10322,7 +10133,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -10330,7 +10141,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -10338,7 +10149,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -10346,7 +10157,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -10354,7 +10165,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -10362,7 +10173,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -10370,7 +10181,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -10378,7 +10189,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -10386,7 +10197,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -10394,7 +10205,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -10402,7 +10213,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -10410,7 +10221,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -10418,7 +10229,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="7" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -10426,7 +10237,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -10434,7 +10245,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -10442,7 +10253,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -10450,7 +10261,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -10458,7 +10269,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -10466,7 +10277,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -10474,7 +10285,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -10482,7 +10293,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -10490,7 +10301,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -10498,7 +10309,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -10506,7 +10317,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="7" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -10514,7 +10325,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="7" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -10522,7 +10333,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="7" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -10530,7 +10341,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="7" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -10538,7 +10349,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="7" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -10546,7 +10357,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="7" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -10554,7 +10365,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="7" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -10562,7 +10373,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="7" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -10570,7 +10381,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="7" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -10578,7 +10389,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="7" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -10586,7 +10397,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="7" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -10594,7 +10405,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="7" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -10602,7 +10413,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="7" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -10610,7 +10421,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="7" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -10618,7 +10429,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="7" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -10626,7 +10437,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="7" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -10634,7 +10445,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="7" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -10642,7 +10453,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="7" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -10650,7 +10461,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -10658,7 +10469,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="7" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -10666,7 +10477,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="7" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -10674,7 +10485,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="7" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -10682,7 +10493,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="7" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -10690,7 +10501,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="7" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -10698,7 +10509,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="7" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -10706,7 +10517,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="7" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -10714,7 +10525,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="7" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -10722,7 +10533,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="7" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -10730,7 +10541,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="7" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -10738,7 +10549,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="7" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -10746,7 +10557,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="7" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -10754,7 +10565,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="7" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -10762,7 +10573,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="7" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -10770,7 +10581,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="7" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -10778,7 +10589,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="7" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -10786,7 +10597,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="7" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -10794,7 +10605,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="7" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -10802,7 +10613,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="7" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -10810,7 +10621,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="7" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -10818,7 +10629,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -10826,7 +10637,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -10834,7 +10645,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -10842,7 +10653,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -10850,7 +10661,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -10858,7 +10669,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -10866,7 +10677,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -10874,7 +10685,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -10882,7 +10693,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -10890,7 +10701,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -10898,7 +10709,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -10906,7 +10717,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -10914,7 +10725,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -10922,7 +10733,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -10930,7 +10741,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -10938,7 +10749,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -10946,7 +10757,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -10954,7 +10765,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -10962,7 +10773,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -10970,7 +10781,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -10978,7 +10789,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -10986,7 +10797,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -10994,7 +10805,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="7" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -11002,7 +10813,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -11010,7 +10821,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -11018,7 +10829,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -11026,7 +10837,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="7" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -11034,7 +10845,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -11042,7 +10853,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -11050,7 +10861,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -11058,7 +10869,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="7" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -11066,7 +10877,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -11074,7 +10885,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -11082,7 +10893,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -11090,7 +10901,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="7" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -11098,7 +10909,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -11106,7 +10917,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="7" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -11114,7 +10925,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -11122,7 +10933,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="7" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -11130,7 +10941,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -11138,7 +10949,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -11146,7 +10957,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -11154,7 +10965,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -11162,7 +10973,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -11170,7 +10981,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="7" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -11178,7 +10989,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="7" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -11186,7 +10997,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="7" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -11194,7 +11005,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="7" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -11202,7 +11013,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="7" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -11210,7 +11021,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="7" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -11218,7 +11029,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="7" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -11226,7 +11037,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="7" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -11234,7 +11045,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="7" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -11242,7 +11053,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="7" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -11250,7 +11061,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="7" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -11258,7 +11069,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="7" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -11266,7 +11077,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="7" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -11274,7 +11085,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="7" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -11282,7 +11093,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="7" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -11290,7 +11101,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="7" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -11298,7 +11109,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="7" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -11306,7 +11117,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="7" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -11314,7 +11125,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="7" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -11322,7 +11133,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="7" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -11330,7 +11141,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="7" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -11338,7 +11149,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="7" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -11346,7 +11157,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="7" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -11354,7 +11165,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="7" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -11362,7 +11173,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="7" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -11370,7 +11181,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="7" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -11378,7 +11189,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="7" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -11386,7 +11197,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="7" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -11394,7 +11205,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="7" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -11402,7 +11213,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="7" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -11410,7 +11221,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="7" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -11418,7 +11229,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="7" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -11426,7 +11237,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="7" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -11434,7 +11245,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="7" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -11442,7 +11253,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="7" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -11450,7 +11261,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="7" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -11458,7 +11269,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="7" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -11466,7 +11277,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="7" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -11474,7 +11285,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="7" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -11482,7 +11293,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -11490,7 +11301,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="7" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -11498,7 +11309,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="7" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -11506,7 +11317,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="7" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -11514,7 +11325,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="7" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -11522,7 +11333,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="7" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -11530,7 +11341,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="7" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -11538,7 +11349,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="7" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -11546,7 +11357,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="7" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -11554,7 +11365,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="7" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -11562,7 +11373,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="7" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -11570,7 +11381,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="7" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -11578,7 +11389,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="7" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -11586,7 +11397,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="7" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -11594,7 +11405,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="7" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -11602,7 +11413,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="7" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -11610,7 +11421,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="7" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -11618,7 +11429,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="7" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -11626,7 +11437,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="7" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -11634,7 +11445,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="7" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -11642,7 +11453,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="7" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -11650,7 +11461,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="7" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -11658,7 +11469,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="7" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -11666,7 +11477,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="7" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -11674,7 +11485,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="7" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -11682,7 +11493,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="7" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -11690,7 +11501,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="7" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -11698,7 +11509,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="7" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -11706,7 +11517,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="7" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -11714,7 +11525,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="7" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -11722,7 +11533,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="7" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -11730,7 +11541,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="7" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -11738,7 +11549,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -11746,7 +11557,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="7" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -11754,7 +11565,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -11762,7 +11573,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="7" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -11770,7 +11581,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -11778,7 +11589,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="7" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -11786,7 +11597,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -11794,7 +11605,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="7" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -11802,7 +11613,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -11810,7 +11621,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="7" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -11818,7 +11629,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -11826,7 +11637,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="7" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -11834,7 +11645,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="7" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -11842,7 +11653,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="7" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -11850,7 +11661,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -11858,7 +11669,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="7" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -11866,7 +11677,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="7" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -11874,7 +11685,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="7" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -11882,7 +11693,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="7" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -11890,7 +11701,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="7" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -11898,7 +11709,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="7" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -11906,7 +11717,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="7" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -11914,7 +11725,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="7" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -11922,7 +11733,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="7" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -11930,7 +11741,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="7" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -11938,7 +11749,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="7" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -11946,7 +11757,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="7" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -11954,7 +11765,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="7" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -11962,7 +11773,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="7" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -11970,7 +11781,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="7" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -11978,7 +11789,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="7" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -11986,7 +11797,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="7" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -11994,7 +11805,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="7" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -12002,7 +11813,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="7" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -12010,7 +11821,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="7" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -12018,7 +11829,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="7" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -12026,7 +11837,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="7" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -12034,7 +11845,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="7" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -12042,7 +11853,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="7" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -12050,7 +11861,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="7" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -12058,7 +11869,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="7" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -12066,7 +11877,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="7" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -12074,7 +11885,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="7" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -12082,7 +11893,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="7" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -12090,7 +11901,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="7" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -12098,7 +11909,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="7" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -12106,7 +11917,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="7" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -12114,7 +11925,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="7" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -12122,7 +11933,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="7" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -12130,7 +11941,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="7" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -12138,7 +11949,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="7" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -12146,7 +11957,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="7" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -12154,7 +11965,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="7" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -12162,7 +11973,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="7" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -12170,7 +11981,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="7" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -12178,7 +11989,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="7" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -12186,7 +11997,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="7" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -12194,7 +12005,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="7" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -12202,7 +12013,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="7" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -12210,7 +12021,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="7" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -12218,7 +12029,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="7" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -12226,7 +12037,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="7" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -12234,7 +12045,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="7" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -12242,7 +12053,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="7" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -12250,7 +12061,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="7" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -12258,7 +12069,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="7" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -12266,7 +12077,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="7" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -12274,7 +12085,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="7" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -12282,7 +12093,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="7" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -12290,7 +12101,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="7" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -12298,7 +12109,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="7" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -12306,7 +12117,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="7" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -12314,7 +12125,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="7" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -12322,7 +12133,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="7" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -12330,7 +12141,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -12338,7 +12149,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="7" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -12346,7 +12157,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="7" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -12354,7 +12165,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="7" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -12362,7 +12173,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="7" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -12370,7 +12181,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="7" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -12378,7 +12189,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="7" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -12386,7 +12197,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="7" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -12394,7 +12205,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="7" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -12402,7 +12213,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="7" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -12410,7 +12221,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="7" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -12418,7 +12229,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -12426,7 +12237,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="7" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -12434,7 +12245,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="7" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -12442,7 +12253,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="7" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -12450,7 +12261,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="7" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -12458,7 +12269,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="7" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -12466,7 +12277,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="7" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -12474,7 +12285,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="7" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -12482,7 +12293,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="7" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -12490,7 +12301,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="7" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -12498,7 +12309,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="7" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -12506,7 +12317,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="7" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -12514,7 +12325,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="7" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -12522,7 +12333,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="7" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -12530,7 +12341,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="7" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -12538,7 +12349,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="7" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -12546,7 +12357,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="7" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -12554,7 +12365,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="7" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -12562,7 +12373,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="7" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -12570,7 +12381,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="7" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -12578,7 +12389,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="7" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -12586,7 +12397,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="7" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -12594,7 +12405,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="7" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -12602,7 +12413,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="7" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -12610,7 +12421,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="7" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -12618,7 +12429,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="7" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -12626,7 +12437,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="7" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -12634,7 +12445,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="7" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -12642,7 +12453,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="7" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -12650,7 +12461,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="7" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -12658,7 +12469,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="7" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -12666,7 +12477,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="7" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -12674,7 +12485,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="7" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>

--- a/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
+++ b/KGA_SUPERmetaVR/Assets/Sheet/Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bigseung12\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohgo\Desktop\SUPER\KGA_SUPERmetaVR\KGA_SUPERmetaVR\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C247974-40A9-4B90-8958-8932DF1C60A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoticePopup" sheetId="1" r:id="rId1"/>
@@ -55,31 +56,13 @@
     <t>GhostImage</t>
   </si>
   <si>
-    <t>OOO 유령</t>
-  </si>
-  <si>
     <t>GHOST_TYPE1</t>
   </si>
   <si>
-    <t>ㅁㅁㅁ 유령</t>
-  </si>
-  <si>
-    <t>GHOST_TYPE2</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋ 유령</t>
-  </si>
-  <si>
     <t>GHOST_TYPE3</t>
   </si>
   <si>
-    <t>ㅅㅅㅅ 유령</t>
-  </si>
-  <si>
     <t>GHOST_TYPE4</t>
-  </si>
-  <si>
-    <t>ㄹㄹㄹ 유령</t>
   </si>
   <si>
     <t>GHOST_TYPE5</t>
@@ -3404,15 +3387,34 @@
     <t>아아- 참고로 3번 연속 맞추지 못하면
 매우 Bad-하니까 강제로 노래를 멈출 거야-</t>
   </si>
+  <si>
+    <t>미니</t>
+  </si>
+  <si>
+    <t>마니</t>
+  </si>
+  <si>
+    <t>모니</t>
+  </si>
+  <si>
+    <t>무니</t>
+  </si>
+  <si>
+    <t>므니</t>
+  </si>
+  <si>
+    <t>GHOST_TYPE2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3466,8 +3468,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3480,8 +3488,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3504,11 +3518,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3580,6 +3624,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3796,23 +3852,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="7" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="7" customWidth="1"/>
     <col min="3" max="3" width="92" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="7" customWidth="1"/>
     <col min="6" max="7" width="9" style="7" customWidth="1"/>
-    <col min="8" max="27" width="8.7109375" style="7" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="7"/>
+    <col min="8" max="27" width="8.7265625" style="7" customWidth="1"/>
+    <col min="28" max="16384" width="14.453125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1">
@@ -3826,7 +3882,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
@@ -3854,21 +3910,21 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="30">
+    <row r="2" spans="1:27" ht="29">
       <c r="A2" s="9">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -3898,10 +3954,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -3937,10 +3993,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -3976,10 +4032,10 @@
         <v>52000</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -4013,10 +4069,10 @@
         <v>52001</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -4050,10 +4106,10 @@
         <v>52002</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -4087,10 +4143,10 @@
         <v>52003</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -4119,15 +4175,15 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="30">
+    <row r="9" spans="1:27" ht="29">
       <c r="A9" s="9">
         <v>52004</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9">
         <v>2</v>
@@ -4161,10 +4217,10 @@
         <v>52005</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D10" s="9">
         <v>2</v>
@@ -4198,10 +4254,10 @@
         <v>52006</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -4235,10 +4291,10 @@
         <v>52007</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
@@ -4272,10 +4328,10 @@
         <v>52008</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
@@ -4304,15 +4360,15 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="30">
+    <row r="14" spans="1:27" ht="29">
       <c r="A14" s="9">
         <v>52009</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D14" s="9">
         <v>2</v>
@@ -4346,10 +4402,10 @@
         <v>52010</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D15" s="8">
         <v>2</v>
@@ -4364,17 +4420,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="3" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -4382,13 +4438,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4396,7 +4452,7 @@
         <v>20000</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -4407,7 +4463,7 @@
         <v>20001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -4418,7 +4474,7 @@
         <v>20300</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -4429,7 +4485,7 @@
         <v>20600</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -4442,7 +4498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
@@ -4452,83 +4508,83 @@
       <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="15"/>
-    <col min="4" max="4" width="82.5703125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="15" customWidth="1"/>
-    <col min="6" max="9" width="29.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
-    <col min="11" max="14" width="29.28515625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" style="15" customWidth="1"/>
-    <col min="16" max="19" width="14.85546875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" style="15" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="3" width="9.1796875" style="15"/>
+    <col min="4" max="4" width="82.54296875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="15" customWidth="1"/>
+    <col min="6" max="9" width="29.26953125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="15" customWidth="1"/>
+    <col min="11" max="14" width="29.26953125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="21.7265625" style="15" customWidth="1"/>
+    <col min="16" max="19" width="14.81640625" style="17" customWidth="1"/>
+    <col min="20" max="20" width="19.54296875" style="15" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="15" customFormat="1">
       <c r="A1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="G1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="L1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="O1" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="30">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="29">
       <c r="A2" s="15">
         <v>21000</v>
       </c>
@@ -4539,16 +4595,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="29">
       <c r="A3" s="15">
         <v>21000</v>
       </c>
@@ -4559,13 +4615,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="30">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="29">
       <c r="A4" s="15">
         <v>21000</v>
       </c>
@@ -4576,13 +4632,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="29">
       <c r="A5" s="15">
         <v>21000</v>
       </c>
@@ -4593,13 +4649,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="29">
       <c r="A6" s="15">
         <v>21001</v>
       </c>
@@ -4610,16 +4666,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="29">
       <c r="A7" s="15">
         <v>21001</v>
       </c>
@@ -4630,10 +4686,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4647,13 +4703,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="29">
       <c r="A9" s="15">
         <v>21001</v>
       </c>
@@ -4664,13 +4720,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="30">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="29">
       <c r="A10" s="15">
         <v>21001</v>
       </c>
@@ -4681,16 +4737,16 @@
         <v>5</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="30">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="29">
       <c r="A11" s="15">
         <v>21002</v>
       </c>
@@ -4701,16 +4757,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="30">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="29">
       <c r="A12" s="15">
         <v>21002</v>
       </c>
@@ -4721,10 +4777,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -4738,13 +4794,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -4758,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -4772,10 +4828,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F15" s="15">
         <v>12000</v>
@@ -4790,13 +4846,13 @@
         <v>24003</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N15" s="15">
         <v>24004</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -4810,13 +4866,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -4830,7 +4886,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P17" s="17">
         <v>13000</v>
@@ -4845,10 +4901,10 @@
         <v>4</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="30">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="29">
       <c r="A18" s="15">
         <v>24003</v>
       </c>
@@ -4859,13 +4915,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -4879,16 +4935,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="30">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="29">
       <c r="A20" s="15">
         <v>27000</v>
       </c>
@@ -4899,28 +4955,28 @@
         <v>1</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I20" s="15">
         <v>27002</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="N20" s="15">
         <v>27001</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="30">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="29">
       <c r="A21" s="15">
         <v>27001</v>
       </c>
@@ -4931,13 +4987,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="30">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="29">
       <c r="A22" s="15">
         <v>27002</v>
       </c>
@@ -4948,11 +5004,11 @@
         <v>1</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="T22" s="16"/>
     </row>
-    <row r="23" spans="1:20" ht="30">
+    <row r="23" spans="1:20" ht="29">
       <c r="A23" s="15">
         <v>27002</v>
       </c>
@@ -4963,10 +5019,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="30">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="29">
       <c r="A24" s="15">
         <v>27002</v>
       </c>
@@ -4977,7 +5033,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -4991,16 +5047,16 @@
         <v>4</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="30">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="29">
       <c r="A26" s="15">
         <v>27002</v>
       </c>
@@ -5011,25 +5067,25 @@
         <v>5</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I26" s="15">
         <v>27006</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N26" s="15">
         <v>27003</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="30">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="29">
       <c r="A27" s="15">
         <v>27003</v>
       </c>
@@ -5040,22 +5096,22 @@
         <v>1</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I27" s="15">
         <v>27004</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="N27" s="15">
         <v>27001</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="30">
+    <row r="28" spans="1:20" ht="29">
       <c r="A28" s="15">
         <v>27004</v>
       </c>
@@ -5066,10 +5122,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -5083,22 +5139,22 @@
         <v>1</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I29" s="15">
         <v>27004</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -5112,10 +5168,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="30">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="29">
       <c r="A31" s="15">
         <v>27006</v>
       </c>
@@ -5126,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -5140,10 +5196,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="T32" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -5157,25 +5213,25 @@
         <v>4</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I33" s="15">
         <v>27003</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N33" s="15">
         <v>27006</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="30">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="29">
       <c r="A34" s="15">
         <v>25000</v>
       </c>
@@ -5186,13 +5242,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="30">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="29">
       <c r="A35" s="15">
         <v>25000</v>
       </c>
@@ -5203,25 +5259,25 @@
         <v>2</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I35" s="15">
         <v>25002</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="N35" s="15">
         <v>25001</v>
       </c>
       <c r="T35" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="30">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="29">
       <c r="A36" s="15">
         <v>25001</v>
       </c>
@@ -5232,13 +5288,13 @@
         <v>1</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="30">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="29">
       <c r="A37" s="15">
         <v>25002</v>
       </c>
@@ -5249,13 +5305,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="T37" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="29">
       <c r="A38" s="15">
         <v>25002</v>
       </c>
@@ -5266,13 +5322,13 @@
         <v>2</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="30">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="29">
       <c r="A39" s="15">
         <v>25002</v>
       </c>
@@ -5283,13 +5339,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="T39" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="30">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="29">
       <c r="A40" s="15">
         <v>25002</v>
       </c>
@@ -5300,13 +5356,13 @@
         <v>4</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="T40" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="29">
       <c r="A41" s="15">
         <v>25003</v>
       </c>
@@ -5317,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -5331,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -5345,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -5359,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -5373,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -5387,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -5401,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -5415,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5429,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -5440,22 +5496,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -5469,97 +5525,97 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>301</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="25" t="s">
+        <v>959</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>302</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+      <c r="C3" s="26" t="s">
+        <v>960</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>303</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
+      <c r="C4" s="27" t="s">
+        <v>961</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>304</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
+      <c r="C5" s="26" t="s">
+        <v>962</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>305</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
+      <c r="C6" s="26" t="s">
+        <v>963</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.81640625" customWidth="1"/>
     <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
@@ -5567,7 +5623,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5599,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -5631,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -5663,7 +5719,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -5695,7 +5751,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5730,22 +5786,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="78.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" customWidth="1"/>
     <col min="5" max="5" width="13" style="7" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
@@ -5753,28 +5809,28 @@
         <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -5799,16 +5855,16 @@
         <v>12000</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F2" s="22">
         <v>1</v>
@@ -5843,16 +5899,16 @@
         <v>12001</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F3" s="22">
         <v>1</v>
@@ -5887,16 +5943,16 @@
         <v>13000</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="F4" s="22">
         <v>3</v>
@@ -5931,16 +5987,16 @@
         <v>15000</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F5" s="22">
         <v>1</v>
@@ -5975,16 +6031,16 @@
         <v>15001</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6" s="22">
         <v>1</v>
@@ -6019,16 +6075,16 @@
         <v>15002</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F7" s="22">
         <v>1</v>
@@ -6045,16 +6101,16 @@
         <v>15003</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" s="22">
         <v>1</v>
@@ -6071,16 +6127,16 @@
         <v>15004</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F9" s="22">
         <v>1</v>
@@ -6097,16 +6153,16 @@
         <v>15005</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F10" s="22">
         <v>1</v>
@@ -6123,16 +6179,16 @@
         <v>15006</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F11" s="22">
         <v>2</v>
@@ -6149,16 +6205,16 @@
         <v>15007</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F12" s="22">
         <v>2</v>
@@ -6175,16 +6231,16 @@
         <v>15008</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F13" s="22">
         <v>2</v>
@@ -6201,16 +6257,16 @@
         <v>15009</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F14" s="22">
         <v>3</v>
@@ -6227,16 +6283,16 @@
         <v>15010</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F15" s="22">
         <v>4</v>
@@ -6256,38 +6312,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="10.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.1796875" style="7"/>
+    <col min="2" max="2" width="10.7265625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="53.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6298,7 +6354,7 @@
         <v>15002</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -6315,7 +6371,7 @@
         <v>15003</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -6332,7 +6388,7 @@
         <v>15004</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -6349,7 +6405,7 @@
         <v>15005</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -6366,7 +6422,7 @@
         <v>15006</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -6383,7 +6439,7 @@
         <v>15007</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -6400,7 +6456,7 @@
         <v>15008</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
@@ -6417,7 +6473,7 @@
         <v>15009</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -6434,7 +6490,7 @@
         <v>15010</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
@@ -6451,25 +6507,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B753"/>
   <sheetViews>
     <sheetView topLeftCell="A640" workbookViewId="0">
       <selection activeCell="B571" sqref="B571"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6477,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6485,7 +6541,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6493,7 +6549,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6501,7 +6557,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6509,7 +6565,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6517,7 +6573,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6525,7 +6581,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6533,7 +6589,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6541,7 +6597,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6549,7 +6605,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6557,7 +6613,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6565,7 +6621,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6573,7 +6629,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6581,7 +6637,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6589,7 +6645,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6597,7 +6653,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6605,7 +6661,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6613,7 +6669,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6621,7 +6677,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6629,7 +6685,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6637,7 +6693,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6645,7 +6701,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6653,7 +6709,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6661,7 +6717,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6669,7 +6725,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6677,7 +6733,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6685,7 +6741,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6693,7 +6749,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6701,7 +6757,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6709,7 +6765,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6717,7 +6773,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6725,7 +6781,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6733,7 +6789,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6741,7 +6797,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6749,7 +6805,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6757,7 +6813,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6765,7 +6821,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6773,7 +6829,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6781,7 +6837,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6789,7 +6845,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6797,7 +6853,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6805,7 +6861,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6813,7 +6869,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6821,7 +6877,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6829,7 +6885,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6837,7 +6893,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -6845,7 +6901,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6853,7 +6909,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -6861,7 +6917,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6869,7 +6925,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -6877,7 +6933,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -6885,7 +6941,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -6893,7 +6949,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -6901,7 +6957,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -6909,7 +6965,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -6917,7 +6973,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -6925,7 +6981,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -6933,7 +6989,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -6941,7 +6997,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6949,7 +7005,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -6957,7 +7013,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -6965,7 +7021,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -6973,7 +7029,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -6981,7 +7037,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6989,7 +7045,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6997,7 +7053,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -7005,7 +7061,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7013,7 +7069,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -7021,7 +7077,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -7029,7 +7085,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -7037,7 +7093,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -7045,7 +7101,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -7053,7 +7109,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -7061,7 +7117,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -7069,7 +7125,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -7077,7 +7133,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7085,7 +7141,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -7093,7 +7149,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -7101,7 +7157,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -7109,7 +7165,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -7117,7 +7173,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -7125,7 +7181,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -7133,7 +7189,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -7141,7 +7197,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -7149,7 +7205,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -7157,7 +7213,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -7165,7 +7221,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7173,7 +7229,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -7181,7 +7237,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -7189,7 +7245,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -7197,7 +7253,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -7205,7 +7261,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -7213,7 +7269,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -7221,7 +7277,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -7229,7 +7285,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -7237,7 +7293,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -7245,7 +7301,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -7253,7 +7309,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -7261,7 +7317,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -7269,7 +7325,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -7277,7 +7333,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -7285,7 +7341,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -7293,7 +7349,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -7301,7 +7357,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -7309,7 +7365,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -7317,7 +7373,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -7325,7 +7381,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -7333,7 +7389,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -7341,7 +7397,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -7349,7 +7405,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -7357,7 +7413,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -7365,7 +7421,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -7373,7 +7429,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -7381,7 +7437,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -7389,7 +7445,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -7397,7 +7453,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -7405,7 +7461,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -7413,7 +7469,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -7421,7 +7477,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -7429,7 +7485,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -7437,7 +7493,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -7445,7 +7501,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -7453,7 +7509,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -7461,7 +7517,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -7469,7 +7525,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -7477,7 +7533,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -7485,7 +7541,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -7493,7 +7549,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -7501,7 +7557,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -7509,7 +7565,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -7517,7 +7573,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -7525,7 +7581,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -7533,7 +7589,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -7541,7 +7597,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -7549,7 +7605,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -7557,7 +7613,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -7565,7 +7621,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -7573,7 +7629,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -7581,7 +7637,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -7589,7 +7645,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -7597,7 +7653,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -7605,7 +7661,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -7613,7 +7669,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -7621,7 +7677,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -7629,7 +7685,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -7637,7 +7693,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -7645,7 +7701,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -7653,7 +7709,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -7661,7 +7717,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -7669,7 +7725,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -7677,7 +7733,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -7685,7 +7741,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -7693,7 +7749,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -7701,7 +7757,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -7709,7 +7765,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -7717,7 +7773,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -7725,7 +7781,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -7733,7 +7789,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -7741,7 +7797,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -7749,7 +7805,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -7757,7 +7813,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -7765,7 +7821,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -7773,7 +7829,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -7781,7 +7837,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -7789,7 +7845,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -7797,7 +7853,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -7805,7 +7861,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -7813,7 +7869,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -7821,7 +7877,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -7829,7 +7885,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -7837,7 +7893,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -7845,7 +7901,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -7853,7 +7909,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -7861,7 +7917,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -7869,7 +7925,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -7877,7 +7933,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -7885,7 +7941,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -7893,7 +7949,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -7901,7 +7957,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -7909,7 +7965,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -7917,7 +7973,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -7925,7 +7981,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -7933,7 +7989,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -7941,7 +7997,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -7949,7 +8005,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -7957,7 +8013,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -7965,7 +8021,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -7973,7 +8029,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -7981,7 +8037,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -7989,7 +8045,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -7997,7 +8053,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -8005,7 +8061,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -8013,7 +8069,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -8021,7 +8077,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -8029,7 +8085,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -8037,7 +8093,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -8045,7 +8101,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -8053,7 +8109,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -8061,7 +8117,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -8069,7 +8125,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -8077,7 +8133,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -8085,7 +8141,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -8093,7 +8149,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -8101,7 +8157,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -8109,7 +8165,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -8117,7 +8173,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -8125,7 +8181,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -8133,7 +8189,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -8141,7 +8197,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -8149,7 +8205,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -8157,7 +8213,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -8165,7 +8221,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -8173,7 +8229,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -8181,7 +8237,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -8189,7 +8245,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -8197,7 +8253,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -8205,7 +8261,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -8213,7 +8269,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -8221,7 +8277,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -8229,7 +8285,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -8237,7 +8293,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -8245,7 +8301,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -8253,7 +8309,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -8261,7 +8317,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -8269,7 +8325,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -8277,7 +8333,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -8285,7 +8341,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -8293,7 +8349,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -8301,7 +8357,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -8309,7 +8365,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -8317,7 +8373,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -8325,7 +8381,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -8333,7 +8389,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -8341,7 +8397,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -8349,7 +8405,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -8357,7 +8413,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -8365,7 +8421,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -8373,7 +8429,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -8381,7 +8437,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -8389,7 +8445,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -8397,7 +8453,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -8405,7 +8461,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -8413,7 +8469,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -8421,7 +8477,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -8429,7 +8485,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -8437,7 +8493,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -8445,7 +8501,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -8453,7 +8509,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -8461,7 +8517,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -8469,7 +8525,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -8477,7 +8533,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -8485,7 +8541,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -8493,7 +8549,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -8501,7 +8557,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -8509,7 +8565,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -8517,7 +8573,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -8525,7 +8581,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -8533,7 +8589,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -8541,7 +8597,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -8549,7 +8605,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -8557,7 +8613,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -8565,7 +8621,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -8573,7 +8629,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -8581,7 +8637,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -8589,7 +8645,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -8597,7 +8653,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -8605,7 +8661,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -8613,7 +8669,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -8621,7 +8677,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -8629,7 +8685,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -8637,7 +8693,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -8645,7 +8701,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -8653,7 +8709,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -8661,7 +8717,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -8669,7 +8725,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -8677,7 +8733,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -8685,7 +8741,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -8693,7 +8749,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -8701,7 +8757,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -8709,7 +8765,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -8717,7 +8773,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -8725,7 +8781,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -8733,7 +8789,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -8741,7 +8797,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -8749,7 +8805,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -8757,7 +8813,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -8765,7 +8821,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -8773,7 +8829,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -8781,7 +8837,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -8789,7 +8845,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -8797,7 +8853,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -8805,7 +8861,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -8813,7 +8869,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -8821,7 +8877,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -8829,7 +8885,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -8837,7 +8893,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -8845,7 +8901,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -8853,7 +8909,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -8861,7 +8917,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -8869,7 +8925,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -8877,7 +8933,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -8885,7 +8941,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -8893,7 +8949,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -8901,7 +8957,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -8909,7 +8965,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -8917,7 +8973,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -8925,7 +8981,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -8933,7 +8989,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -8941,7 +8997,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -8949,7 +9005,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -8957,7 +9013,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -8965,7 +9021,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -8973,7 +9029,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -8981,7 +9037,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -8989,7 +9045,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -8997,7 +9053,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -9005,7 +9061,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -9013,7 +9069,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -9021,7 +9077,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -9029,7 +9085,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -9037,7 +9093,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -9045,7 +9101,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -9053,7 +9109,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -9061,7 +9117,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -9069,7 +9125,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -9077,7 +9133,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -9085,7 +9141,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -9093,7 +9149,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -9101,7 +9157,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -9109,7 +9165,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -9117,7 +9173,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -9125,7 +9181,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -9133,7 +9189,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -9141,7 +9197,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -9149,7 +9205,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -9157,7 +9213,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -9165,7 +9221,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -9173,7 +9229,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -9181,7 +9237,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -9189,7 +9245,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -9197,7 +9253,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -9205,7 +9261,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -9213,7 +9269,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -9221,7 +9277,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -9229,7 +9285,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -9237,7 +9293,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -9245,7 +9301,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -9253,7 +9309,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -9261,7 +9317,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -9269,7 +9325,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -9277,7 +9333,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -9285,7 +9341,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -9293,7 +9349,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -9301,7 +9357,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -9309,7 +9365,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -9317,7 +9373,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -9325,7 +9381,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -9333,7 +9389,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -9341,7 +9397,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -9349,7 +9405,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -9357,7 +9413,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -9365,7 +9421,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -9373,7 +9429,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -9381,7 +9437,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -9389,7 +9445,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -9397,7 +9453,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -9405,7 +9461,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -9413,7 +9469,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -9421,7 +9477,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -9429,7 +9485,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -9437,7 +9493,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -9445,7 +9501,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -9453,7 +9509,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -9461,7 +9517,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -9469,7 +9525,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -9477,7 +9533,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -9485,7 +9541,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -9493,7 +9549,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -9501,7 +9557,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -9509,7 +9565,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -9517,7 +9573,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -9525,7 +9581,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -9533,7 +9589,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -9541,7 +9597,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -9549,7 +9605,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -9557,7 +9613,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -9565,7 +9621,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -9573,7 +9629,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -9581,7 +9637,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -9589,7 +9645,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -9597,7 +9653,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -9605,7 +9661,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -9613,7 +9669,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -9621,7 +9677,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -9629,7 +9685,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -9637,7 +9693,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -9645,7 +9701,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -9653,7 +9709,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -9661,7 +9717,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -9669,7 +9725,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -9677,7 +9733,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -9685,7 +9741,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -9693,7 +9749,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -9701,7 +9757,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -9709,7 +9765,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -9717,7 +9773,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -9725,7 +9781,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -9733,7 +9789,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -9741,7 +9797,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -9749,7 +9805,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -9757,7 +9813,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -9765,7 +9821,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -9773,7 +9829,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -9781,7 +9837,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -9789,7 +9845,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -9797,7 +9853,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -9805,7 +9861,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -9813,7 +9869,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -9821,7 +9877,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -9829,7 +9885,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -9837,7 +9893,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -9845,7 +9901,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -9853,7 +9909,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -9861,7 +9917,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -9869,7 +9925,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -9877,7 +9933,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -9885,7 +9941,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -9893,7 +9949,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -9901,7 +9957,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -9909,7 +9965,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -9917,7 +9973,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -9925,7 +9981,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -9933,7 +9989,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -9941,7 +9997,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -9949,7 +10005,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -9957,7 +10013,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -9965,7 +10021,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -9973,7 +10029,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -9981,7 +10037,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -9989,7 +10045,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -9997,7 +10053,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -10005,7 +10061,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -10013,7 +10069,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -10021,7 +10077,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -10029,7 +10085,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -10037,7 +10093,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -10045,7 +10101,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -10053,7 +10109,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -10061,7 +10117,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -10069,7 +10125,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -10077,7 +10133,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -10085,7 +10141,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -10093,7 +10149,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -10101,7 +10157,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -10109,7 +10165,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -10117,7 +10173,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -10125,7 +10181,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -10133,7 +10189,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -10141,7 +10197,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -10149,7 +10205,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -10157,7 +10213,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -10165,7 +10221,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -10173,7 +10229,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -10181,7 +10237,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -10189,7 +10245,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -10197,7 +10253,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -10205,7 +10261,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -10213,7 +10269,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -10221,7 +10277,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -10229,7 +10285,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -10237,7 +10293,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -10245,7 +10301,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -10253,7 +10309,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -10261,7 +10317,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -10269,7 +10325,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -10277,7 +10333,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -10285,7 +10341,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -10293,7 +10349,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -10301,7 +10357,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -10309,7 +10365,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -10317,7 +10373,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -10325,7 +10381,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -10333,7 +10389,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -10341,7 +10397,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -10349,7 +10405,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -10357,7 +10413,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -10365,7 +10421,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -10373,7 +10429,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -10381,7 +10437,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -10389,7 +10445,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -10397,7 +10453,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -10405,7 +10461,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -10413,7 +10469,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -10421,7 +10477,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -10429,7 +10485,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -10437,7 +10493,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -10445,7 +10501,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -10453,7 +10509,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -10461,7 +10517,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -10469,7 +10525,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -10477,7 +10533,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -10485,7 +10541,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -10493,7 +10549,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -10501,7 +10557,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -10509,7 +10565,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -10517,7 +10573,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -10525,7 +10581,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -10533,7 +10589,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -10541,7 +10597,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -10549,7 +10605,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -10557,7 +10613,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="7" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -10565,7 +10621,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -10573,7 +10629,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -10581,7 +10637,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -10589,7 +10645,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -10597,7 +10653,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="7" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -10605,7 +10661,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -10613,7 +10669,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -10621,7 +10677,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -10629,7 +10685,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -10637,7 +10693,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -10645,7 +10701,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -10653,7 +10709,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -10661,7 +10717,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -10669,7 +10725,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -10677,7 +10733,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -10685,7 +10741,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -10693,7 +10749,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -10701,7 +10757,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -10709,7 +10765,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -10717,7 +10773,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -10725,7 +10781,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -10733,7 +10789,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -10741,7 +10797,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -10749,7 +10805,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -10757,7 +10813,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -10765,7 +10821,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -10773,7 +10829,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -10781,7 +10837,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -10789,7 +10845,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -10797,7 +10853,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -10805,7 +10861,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -10813,7 +10869,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -10821,7 +10877,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -10829,7 +10885,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -10837,7 +10893,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="7" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -10845,7 +10901,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -10853,7 +10909,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -10861,7 +10917,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -10869,7 +10925,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="7" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -10877,7 +10933,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -10885,7 +10941,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -10893,7 +10949,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -10901,7 +10957,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="7" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -10909,7 +10965,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -10917,7 +10973,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -10925,7 +10981,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -10933,7 +10989,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="7" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -10941,7 +10997,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -10949,7 +11005,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -10957,7 +11013,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -10965,7 +11021,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -10973,7 +11029,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -10981,7 +11037,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -10989,7 +11045,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="7" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -10997,7 +11053,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -11005,7 +11061,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="7" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -11013,7 +11069,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="7" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -11021,7 +11077,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -11029,7 +11085,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -11037,7 +11093,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="7" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -11045,7 +11101,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -11053,7 +11109,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -11061,7 +11117,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="7" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -11069,7 +11125,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -11077,7 +11133,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="7" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -11085,7 +11141,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -11093,7 +11149,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="7" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -11101,7 +11157,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="7" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -11109,7 +11165,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="7" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -11117,7 +11173,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="7" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -11125,7 +11181,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="7" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -11133,7 +11189,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="7" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -11141,7 +11197,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="7" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -11149,7 +11205,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -11157,7 +11213,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="7" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -11165,7 +11221,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -11173,7 +11229,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="7" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -11181,7 +11237,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="7" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -11189,7 +11245,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="7" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -11197,7 +11253,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="7" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -11205,7 +11261,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="7" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -11213,7 +11269,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="7" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -11221,7 +11277,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="7" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -11229,7 +11285,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="7" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -11237,7 +11293,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="7" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -11245,7 +11301,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="7" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -11253,7 +11309,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="7" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -11261,7 +11317,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="7" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -11269,7 +11325,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="7" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -11277,7 +11333,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="7" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -11285,7 +11341,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -11293,7 +11349,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -11301,7 +11357,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="7" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -11309,7 +11365,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="7" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -11317,7 +11373,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -11325,7 +11381,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="7" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -11333,7 +11389,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -11341,7 +11397,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="7" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -11349,7 +11405,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -11357,7 +11413,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -11365,7 +11421,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="7" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -11373,7 +11429,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="7" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -11381,7 +11437,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="7" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -11389,7 +11445,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="7" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -11397,7 +11453,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="7" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -11405,7 +11461,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="7" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -11413,7 +11469,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="7" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -11421,7 +11477,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="7" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -11429,7 +11485,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="7" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -11437,7 +11493,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="7" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -11445,7 +11501,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="7" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -11453,7 +11509,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="7" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -11461,7 +11517,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="7" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -11469,7 +11525,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="7" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -11477,7 +11533,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="7" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -11485,7 +11541,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="7" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -11493,7 +11549,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="7" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -11501,7 +11557,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="7" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -11509,7 +11565,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="7" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -11517,7 +11573,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="7" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -11525,7 +11581,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -11533,7 +11589,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="7" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -11541,7 +11597,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -11549,7 +11605,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -11557,7 +11613,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="7" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -11565,7 +11621,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -11573,7 +11629,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="7" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -11581,7 +11637,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -11589,7 +11645,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="7" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -11597,7 +11653,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -11605,7 +11661,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -11613,7 +11669,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -11621,7 +11677,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="7" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -11629,7 +11685,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -11637,7 +11693,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="7" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -11645,7 +11701,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="7" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -11653,7 +11709,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="7" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -11661,7 +11717,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -11669,7 +11725,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="7" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -11677,7 +11733,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="7" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -11685,7 +11741,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="7" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -11693,7 +11749,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="7" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -11701,7 +11757,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="7" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -11709,7 +11765,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="7" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -11717,7 +11773,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="7" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -11725,7 +11781,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="7" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -11733,7 +11789,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="7" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -11741,7 +11797,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="7" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -11749,7 +11805,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="7" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -11757,7 +11813,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="7" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -11765,7 +11821,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="7" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -11773,7 +11829,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="7" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -11781,7 +11837,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="7" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -11789,7 +11845,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="7" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -11797,7 +11853,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="7" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -11805,7 +11861,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="7" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -11813,7 +11869,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -11821,7 +11877,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="7" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -11829,7 +11885,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="7" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -11837,7 +11893,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -11845,7 +11901,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="7" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -11853,7 +11909,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="7" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -11861,7 +11917,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="7" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -11869,7 +11925,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="7" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -11877,7 +11933,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="7" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -11885,7 +11941,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="7" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -11893,7 +11949,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="7" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -11901,7 +11957,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="7" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -11909,7 +11965,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="7" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -11917,7 +11973,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="7" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -11925,7 +11981,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="7" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -11933,7 +11989,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="7" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -11941,7 +11997,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="7" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -11949,7 +12005,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="7" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -11957,7 +12013,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="7" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -11965,7 +12021,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="7" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -11973,7 +12029,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="7" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -11981,7 +12037,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="7" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -11989,7 +12045,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="7" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -11997,7 +12053,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="7" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -12005,7 +12061,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="7" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -12013,7 +12069,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="7" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -12021,7 +12077,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="7" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -12029,7 +12085,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="7" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -12037,7 +12093,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="7" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -12045,7 +12101,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="7" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -12053,7 +12109,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="7" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -12061,7 +12117,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="7" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -12069,7 +12125,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="7" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -12077,7 +12133,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="7" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -12085,7 +12141,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="7" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -12093,7 +12149,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="7" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -12101,7 +12157,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="7" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -12109,7 +12165,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="7" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -12117,7 +12173,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="7" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -12125,7 +12181,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="7" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -12133,7 +12189,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="7" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -12141,7 +12197,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -12149,7 +12205,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="7" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -12157,7 +12213,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="7" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -12165,7 +12221,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="7" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -12173,7 +12229,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="7" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -12181,7 +12237,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="7" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -12189,7 +12245,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="7" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -12197,7 +12253,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="7" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -12205,7 +12261,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="7" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -12213,7 +12269,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="7" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -12221,7 +12277,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="7" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -12229,7 +12285,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -12237,7 +12293,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="7" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -12245,7 +12301,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="7" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -12253,7 +12309,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -12261,7 +12317,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="7" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -12269,7 +12325,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="7" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -12277,7 +12333,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="7" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -12285,7 +12341,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="7" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -12293,7 +12349,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -12301,7 +12357,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="7" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -12309,7 +12365,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="7" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -12317,7 +12373,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="7" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -12325,7 +12381,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="7" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -12333,7 +12389,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="7" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -12341,7 +12397,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="7" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -12349,7 +12405,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="7" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -12357,7 +12413,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="7" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -12365,7 +12421,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="7" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -12373,7 +12429,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="7" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -12381,7 +12437,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="7" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -12389,7 +12445,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="7" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -12397,7 +12453,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="7" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -12405,7 +12461,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="7" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -12413,7 +12469,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="7" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -12421,7 +12477,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="7" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -12429,7 +12485,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="7" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -12437,7 +12493,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="7" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -12445,7 +12501,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="7" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -12453,7 +12509,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="7" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -12461,7 +12517,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="7" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -12469,7 +12525,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="7" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -12477,7 +12533,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="7" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -12485,7 +12541,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="7" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
